--- a/StructureDefinition-pacio-bfs.xlsx
+++ b/StructureDefinition-pacio-bfs.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1907" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1906" uniqueCount="409">
   <si>
     <t>Path</t>
   </si>
@@ -512,10 +512,7 @@
     <t>Used for filtering what observations are retrieved and displayed.</t>
   </si>
   <si>
-    <t>Codes for high level observation categories.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+    <t>http://terminology.hl7.org/CodeSystem/observation-category</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
@@ -1482,7 +1479,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="63.703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="50.40625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="57.1328125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
@@ -3159,10 +3156,10 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>45</v>
@@ -3213,11 +3210,9 @@
       <c r="W15" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="X15" t="s" s="2">
+      <c r="X15" s="2"/>
+      <c r="Y15" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="Y15" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>45</v>
@@ -3259,10 +3254,10 @@
         <v>45</v>
       </c>
       <c r="AM15" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AN15" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>45</v>
@@ -3270,11 +3265,11 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3296,16 +3291,16 @@
         <v>153</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>45</v>
@@ -3334,7 +3329,7 @@
       </c>
       <c r="X16" s="2"/>
       <c r="Y16" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>45</v>
@@ -3352,7 +3347,7 @@
         <v>45</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>55</v>
@@ -3367,27 +3362,27 @@
         <v>67</v>
       </c>
       <c r="AJ16" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="AK16" t="s" s="2">
+      <c r="AL16" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AM16" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="AM16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="AN16" t="s" s="2">
+      <c r="AO16" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>174</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3410,19 +3405,19 @@
         <v>56</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>45</v>
@@ -3471,7 +3466,7 @@
         <v>45</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>43</v>
@@ -3486,19 +3481,19 @@
         <v>67</v>
       </c>
       <c r="AJ17" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="AK17" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AM17" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="AM17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>45</v>
@@ -3506,7 +3501,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3529,16 +3524,16 @@
         <v>56</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3588,7 +3583,7 @@
         <v>45</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>43</v>
@@ -3609,13 +3604,13 @@
         <v>45</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>45</v>
@@ -3623,11 +3618,11 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3646,19 +3641,19 @@
         <v>56</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>45</v>
@@ -3707,7 +3702,7 @@
         <v>45</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>43</v>
@@ -3722,19 +3717,19 @@
         <v>67</v>
       </c>
       <c r="AJ19" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="AK19" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="AM19" t="s" s="2">
+      <c r="AN19" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>45</v>
@@ -3742,11 +3737,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3765,19 +3760,19 @@
         <v>56</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>45</v>
@@ -3826,7 +3821,7 @@
         <v>45</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>43</v>
@@ -3841,19 +3836,19 @@
         <v>67</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AK20" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="AM20" t="s" s="2">
+      <c r="AN20" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>45</v>
@@ -3861,7 +3856,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3884,16 +3879,16 @@
         <v>56</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3943,7 +3938,7 @@
         <v>45</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>43</v>
@@ -3964,13 +3959,13 @@
         <v>45</v>
       </c>
       <c r="AL21" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="AM21" t="s" s="2">
+      <c r="AN21" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>45</v>
@@ -3978,7 +3973,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4001,17 +3996,17 @@
         <v>56</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>45</v>
@@ -4060,7 +4055,7 @@
         <v>45</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>43</v>
@@ -4075,19 +4070,19 @@
         <v>67</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="AK22" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>45</v>
@@ -4095,7 +4090,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4121,16 +4116,16 @@
         <v>153</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>45</v>
@@ -4179,7 +4174,7 @@
         <v>45</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>43</v>
@@ -4188,7 +4183,7 @@
         <v>55</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>67</v>
@@ -4197,24 +4192,24 @@
         <v>45</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO23" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO23" t="s" s="2">
-        <v>239</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4240,16 +4235,16 @@
         <v>153</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>45</v>
@@ -4274,14 +4269,14 @@
         <v>45</v>
       </c>
       <c r="W24" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="X24" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="X24" t="s" s="2">
+      <c r="Y24" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="Y24" t="s" s="2">
-        <v>247</v>
-      </c>
       <c r="Z24" t="s" s="2">
         <v>45</v>
       </c>
@@ -4298,7 +4293,7 @@
         <v>45</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
@@ -4307,7 +4302,7 @@
         <v>55</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>67</v>
@@ -4322,7 +4317,7 @@
         <v>98</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>45</v>
@@ -4333,11 +4328,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4359,16 +4354,16 @@
         <v>153</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>45</v>
@@ -4393,14 +4388,14 @@
         <v>45</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="X25" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="Y25" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="Y25" t="s" s="2">
-        <v>257</v>
-      </c>
       <c r="Z25" t="s" s="2">
         <v>45</v>
       </c>
@@ -4417,7 +4412,7 @@
         <v>45</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
@@ -4435,24 +4430,24 @@
         <v>45</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AM25" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO25" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>261</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4475,19 +4470,19 @@
         <v>45</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>45</v>
@@ -4536,7 +4531,7 @@
         <v>45</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
@@ -4557,10 +4552,10 @@
         <v>45</v>
       </c>
       <c r="AL26" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>45</v>
@@ -4571,7 +4566,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4597,13 +4592,13 @@
         <v>153</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4629,14 +4624,14 @@
         <v>45</v>
       </c>
       <c r="W27" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="X27" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="X27" t="s" s="2">
+      <c r="Y27" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="Y27" t="s" s="2">
-        <v>276</v>
-      </c>
       <c r="Z27" t="s" s="2">
         <v>45</v>
       </c>
@@ -4653,7 +4648,7 @@
         <v>45</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
@@ -4671,24 +4666,24 @@
         <v>45</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AN27" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO27" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>280</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4714,16 +4709,16 @@
         <v>153</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>45</v>
@@ -4748,14 +4743,14 @@
         <v>45</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="X28" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="Y28" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="Y28" t="s" s="2">
-        <v>287</v>
-      </c>
       <c r="Z28" t="s" s="2">
         <v>45</v>
       </c>
@@ -4772,7 +4767,7 @@
         <v>45</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
@@ -4793,10 +4788,10 @@
         <v>45</v>
       </c>
       <c r="AL28" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>45</v>
@@ -4807,7 +4802,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4830,16 +4825,16 @@
         <v>45</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4889,7 +4884,7 @@
         <v>45</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
@@ -4907,24 +4902,24 @@
         <v>45</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AN29" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO29" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>298</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4947,16 +4942,16 @@
         <v>45</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5006,7 +5001,7 @@
         <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
@@ -5024,24 +5019,24 @@
         <v>45</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="AM30" t="s" s="2">
+      <c r="AN30" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO30" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO30" t="s" s="2">
-        <v>307</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5064,19 +5059,19 @@
         <v>45</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>45</v>
@@ -5125,7 +5120,7 @@
         <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
@@ -5137,19 +5132,19 @@
         <v>45</v>
       </c>
       <c r="AI31" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="AJ31" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>45</v>
@@ -5160,7 +5155,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5186,10 +5181,10 @@
         <v>57</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5240,7 +5235,7 @@
         <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
@@ -5264,7 +5259,7 @@
         <v>45</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>45</v>
@@ -5275,7 +5270,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5304,7 +5299,7 @@
         <v>102</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M33" t="s" s="2">
         <v>104</v>
@@ -5357,7 +5352,7 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
@@ -5381,7 +5376,7 @@
         <v>45</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>45</v>
@@ -5392,11 +5387,11 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5418,10 +5413,10 @@
         <v>101</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>104</v>
@@ -5476,7 +5471,7 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
@@ -5511,7 +5506,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5534,13 +5529,13 @@
         <v>45</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5591,7 +5586,7 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
@@ -5600,7 +5595,7 @@
         <v>55</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>67</v>
@@ -5612,10 +5607,10 @@
         <v>45</v>
       </c>
       <c r="AL35" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>45</v>
@@ -5626,7 +5621,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5649,13 +5644,13 @@
         <v>45</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5706,7 +5701,7 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -5715,7 +5710,7 @@
         <v>55</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>67</v>
@@ -5727,10 +5722,10 @@
         <v>45</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>45</v>
@@ -5741,7 +5736,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5767,16 +5762,16 @@
         <v>153</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>45</v>
@@ -5804,11 +5799,11 @@
         <v>79</v>
       </c>
       <c r="X37" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="Y37" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="Y37" t="s" s="2">
-        <v>347</v>
-      </c>
       <c r="Z37" t="s" s="2">
         <v>45</v>
       </c>
@@ -5825,7 +5820,7 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
@@ -5843,13 +5838,13 @@
         <v>45</v>
       </c>
       <c r="AK37" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="AL37" t="s" s="2">
-        <v>349</v>
-      </c>
       <c r="AM37" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>45</v>
@@ -5860,7 +5855,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5886,16 +5881,16 @@
         <v>153</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>45</v>
@@ -5920,14 +5915,14 @@
         <v>45</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="X38" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="Y38" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="Y38" t="s" s="2">
-        <v>356</v>
-      </c>
       <c r="Z38" t="s" s="2">
         <v>45</v>
       </c>
@@ -5944,7 +5939,7 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
@@ -5962,13 +5957,13 @@
         <v>45</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="AL38" t="s" s="2">
-        <v>349</v>
-      </c>
       <c r="AM38" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>45</v>
@@ -5979,7 +5974,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6002,17 +5997,17 @@
         <v>45</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>45</v>
@@ -6061,7 +6056,7 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
@@ -6085,7 +6080,7 @@
         <v>45</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>45</v>
@@ -6096,7 +6091,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6122,10 +6117,10 @@
         <v>57</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6176,7 +6171,7 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
@@ -6197,10 +6192,10 @@
         <v>45</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>45</v>
@@ -6211,7 +6206,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6234,16 +6229,16 @@
         <v>56</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6293,7 +6288,7 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
@@ -6314,10 +6309,10 @@
         <v>45</v>
       </c>
       <c r="AL41" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AM41" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>45</v>
@@ -6328,7 +6323,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6351,16 +6346,16 @@
         <v>56</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6410,7 +6405,7 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -6431,10 +6426,10 @@
         <v>45</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>45</v>
@@ -6445,7 +6440,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6468,19 +6463,19 @@
         <v>56</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>45</v>
@@ -6529,7 +6524,7 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -6550,10 +6545,10 @@
         <v>45</v>
       </c>
       <c r="AL43" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AM43" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>45</v>
@@ -6564,7 +6559,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6590,10 +6585,10 @@
         <v>57</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6644,7 +6639,7 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
@@ -6668,7 +6663,7 @@
         <v>45</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>45</v>
@@ -6679,7 +6674,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6708,7 +6703,7 @@
         <v>102</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M45" t="s" s="2">
         <v>104</v>
@@ -6761,7 +6756,7 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
@@ -6785,7 +6780,7 @@
         <v>45</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
@@ -6796,11 +6791,11 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6822,10 +6817,10 @@
         <v>101</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>104</v>
@@ -6880,7 +6875,7 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -6915,7 +6910,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6941,16 +6936,16 @@
         <v>153</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="M47" t="s" s="2">
-        <v>393</v>
-      </c>
       <c r="N47" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>45</v>
@@ -6975,14 +6970,14 @@
         <v>45</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="X47" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="Y47" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="Y47" t="s" s="2">
-        <v>395</v>
-      </c>
       <c r="Z47" t="s" s="2">
         <v>45</v>
       </c>
@@ -6999,7 +6994,7 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>55</v>
@@ -7017,16 +7012,16 @@
         <v>45</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AL47" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AM47" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="AM47" t="s" s="2">
+      <c r="AN47" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>45</v>
@@ -7034,7 +7029,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7057,19 +7052,19 @@
         <v>56</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="L48" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>400</v>
-      </c>
       <c r="N48" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>45</v>
@@ -7118,7 +7113,7 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
@@ -7136,24 +7131,24 @@
         <v>45</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AL48" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AM48" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="AM48" t="s" s="2">
+      <c r="AN48" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO48" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO48" t="s" s="2">
-        <v>239</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7179,16 +7174,16 @@
         <v>153</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="M49" t="s" s="2">
-        <v>405</v>
-      </c>
       <c r="N49" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>45</v>
@@ -7213,14 +7208,14 @@
         <v>45</v>
       </c>
       <c r="W49" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="X49" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="X49" t="s" s="2">
+      <c r="Y49" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="Y49" t="s" s="2">
-        <v>247</v>
-      </c>
       <c r="Z49" t="s" s="2">
         <v>45</v>
       </c>
@@ -7237,7 +7232,7 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
@@ -7246,7 +7241,7 @@
         <v>55</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>67</v>
@@ -7261,7 +7256,7 @@
         <v>98</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>45</v>
@@ -7272,11 +7267,11 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7298,16 +7293,16 @@
         <v>153</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>45</v>
@@ -7332,14 +7327,14 @@
         <v>45</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="X50" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="Y50" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="Y50" t="s" s="2">
-        <v>257</v>
-      </c>
       <c r="Z50" t="s" s="2">
         <v>45</v>
       </c>
@@ -7356,7 +7351,7 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
@@ -7374,24 +7369,24 @@
         <v>45</v>
       </c>
       <c r="AK50" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="AL50" t="s" s="2">
+      <c r="AM50" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="AM50" t="s" s="2">
+      <c r="AN50" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO50" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO50" t="s" s="2">
-        <v>261</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7417,16 +7412,16 @@
         <v>45</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="L51" t="s" s="2">
-        <v>409</v>
-      </c>
       <c r="M51" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="N51" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>45</v>
@@ -7475,7 +7470,7 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
@@ -7496,10 +7491,10 @@
         <v>45</v>
       </c>
       <c r="AL51" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AM51" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>45</v>

--- a/StructureDefinition-pacio-bfs.xlsx
+++ b/StructureDefinition-pacio-bfs.xlsx
@@ -1455,47 +1455,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="43.6015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="67.91015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="66.26953125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="63.703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="57.1328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="60.515625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="56.66015625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="247.40625" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="239.703125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="107.01953125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="42.34375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="103.87890625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="37.70703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/StructureDefinition-pacio-bfs.xlsx
+++ b/StructureDefinition-pacio-bfs.xlsx
@@ -1455,47 +1455,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="43.6015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="66.26953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="67.91015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="60.515625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="56.66015625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="63.703125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="57.1328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="239.703125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="247.40625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="103.87890625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="37.70703125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="107.01953125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="42.34375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/StructureDefinition-pacio-bfs.xlsx
+++ b/StructureDefinition-pacio-bfs.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$52</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1906" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1943" uniqueCount="422">
   <si>
     <t>Path</t>
   </si>
@@ -328,33 +328,66 @@
     <t>Observation.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>event-location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {event-location}
+</t>
+  </si>
+  <si>
+    <t>Where event occurred</t>
+  </si>
+  <si>
+    <t>The principal physical location where the {{title}} was performed.</t>
+  </si>
+  <si>
+    <t>May reference only *Provenance* resources deemed “relevant” or important. This element does not point to the Provenance associated with the current version of the resource - as it would be created after this version existed. The Provenance for the current version can be retrieved with a [` _revinclude`](search.html#revinclude).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>Event.location</t>
+  </si>
+  <si>
+    <t>EVN.7</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=LOC].role</t>
+  </si>
+  <si>
+    <t>Observation.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Observation.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -362,6 +395,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -512,6 +548,9 @@
     <t>Used for filtering what observations are retrieved and displayed.</t>
   </si>
   <si>
+    <t>If this is from a Post-Acute Care Assessment, value should be survey.</t>
+  </si>
+  <si>
     <t>http://terminology.hl7.org/CodeSystem/observation-category</t>
   </si>
   <si>
@@ -1021,6 +1060,9 @@
   </si>
   <si>
     <t>Observation.referenceRange.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
@@ -1446,7 +1488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO51"/>
+  <dimension ref="A1:AO52"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1456,7 +1498,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="43.6015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.9921875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -1478,7 +1520,7 @@
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="60.515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="62.18359375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="56.66015625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
@@ -2446,7 +2488,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2465,17 +2507,15 @@
         <v>45</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="L9" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>104</v>
-      </c>
+      <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>45</v>
@@ -2512,16 +2552,14 @@
         <v>45</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>105</v>
@@ -2548,7 +2586,7 @@
         <v>45</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>45</v>
@@ -2557,45 +2595,45 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>45</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>45</v>
       </c>
@@ -2643,7 +2681,7 @@
         <v>45</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>43</v>
@@ -2652,22 +2690,22 @@
         <v>44</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>106</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>45</v>
@@ -2678,11 +2716,11 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>45</v>
+        <v>117</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -2695,23 +2733,25 @@
         <v>45</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="M11" s="2"/>
+        <v>119</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>120</v>
+      </c>
       <c r="N11" t="s" s="2">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>45</v>
@@ -2760,7 +2800,7 @@
         <v>45</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>43</v>
@@ -2772,22 +2812,22 @@
         <v>45</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>118</v>
+        <v>45</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>45</v>
@@ -2795,11 +2835,11 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -2818,17 +2858,17 @@
         <v>56</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>45</v>
@@ -2877,7 +2917,7 @@
         <v>45</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>43</v>
@@ -2892,19 +2932,19 @@
         <v>67</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>45</v>
+        <v>131</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>45</v>
@@ -2912,11 +2952,11 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -2935,18 +2975,18 @@
         <v>56</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N13" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O13" t="s" s="2">
         <v>45</v>
       </c>
@@ -2994,7 +3034,7 @@
         <v>45</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>43</v>
@@ -3009,16 +3049,16 @@
         <v>67</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>45</v>
@@ -3029,43 +3069,41 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>45</v>
+        <v>142</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>45</v>
       </c>
@@ -3089,13 +3127,13 @@
         <v>45</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>144</v>
+        <v>45</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>145</v>
+        <v>45</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>146</v>
+        <v>45</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>45</v>
@@ -3113,13 +3151,13 @@
         <v>45</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>45</v>
@@ -3131,16 +3169,16 @@
         <v>147</v>
       </c>
       <c r="AK14" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="AL14" t="s" s="2">
+      <c r="AM14" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="AM14" t="s" s="2">
-        <v>150</v>
-      </c>
       <c r="AN14" t="s" s="2">
-        <v>151</v>
+        <v>45</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>45</v>
@@ -3148,7 +3186,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3165,25 +3203,25 @@
         <v>45</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>45</v>
@@ -3208,11 +3246,13 @@
         <v>45</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X15" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="Y15" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>45</v>
@@ -3230,13 +3270,13 @@
         <v>45</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>45</v>
@@ -3245,19 +3285,19 @@
         <v>67</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>45</v>
+        <v>158</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>45</v>
+        <v>159</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>45</v>
+        <v>160</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>45</v>
@@ -3265,11 +3305,11 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>162</v>
+        <v>45</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3285,22 +3325,22 @@
         <v>45</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>45</v>
@@ -3325,11 +3365,13 @@
         <v>45</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="X16" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="Y16" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>45</v>
@@ -3347,13 +3389,13 @@
         <v>45</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>45</v>
@@ -3362,13 +3404,13 @@
         <v>67</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>168</v>
+        <v>45</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>169</v>
+        <v>45</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>170</v>
+        <v>45</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>171</v>
@@ -3377,16 +3419,16 @@
         <v>172</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>173</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>45</v>
+        <v>174</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3405,19 +3447,19 @@
         <v>56</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>45</v>
@@ -3442,13 +3484,11 @@
         <v>45</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="X17" s="2"/>
       <c r="Y17" t="s" s="2">
-        <v>45</v>
+        <v>179</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>45</v>
@@ -3466,10 +3506,10 @@
         <v>45</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>55</v>
@@ -3484,24 +3524,24 @@
         <v>180</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>45</v>
+        <v>181</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>45</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3509,10 +3549,10 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>45</v>
@@ -3524,18 +3564,20 @@
         <v>56</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>191</v>
+      </c>
       <c r="O18" t="s" s="2">
         <v>45</v>
       </c>
@@ -3583,13 +3625,13 @@
         <v>45</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>45</v>
@@ -3598,19 +3640,19 @@
         <v>67</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>45</v>
+        <v>192</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>45</v>
@@ -3618,18 +3660,18 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>191</v>
+        <v>45</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>45</v>
@@ -3641,20 +3683,18 @@
         <v>56</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>45</v>
       </c>
@@ -3702,13 +3742,13 @@
         <v>45</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>45</v>
@@ -3717,19 +3757,19 @@
         <v>67</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>197</v>
+        <v>45</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>45</v>
@@ -3737,11 +3777,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3760,19 +3800,19 @@
         <v>56</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>45</v>
@@ -3821,7 +3861,7 @@
         <v>45</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>43</v>
@@ -3836,19 +3876,19 @@
         <v>67</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>45</v>
@@ -3856,11 +3896,11 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3879,18 +3919,20 @@
         <v>56</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="O21" t="s" s="2">
         <v>45</v>
       </c>
@@ -3938,7 +3980,7 @@
         <v>45</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>43</v>
@@ -3953,19 +3995,19 @@
         <v>67</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>45</v>
+        <v>220</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>45</v>
@@ -3973,7 +4015,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3981,10 +4023,10 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s" s="2">
         <v>55</v>
-      </c>
-      <c r="F22" t="s" s="2">
-        <v>44</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>45</v>
@@ -3996,18 +4038,18 @@
         <v>56</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="M22" s="2"/>
-      <c r="N22" t="s" s="2">
-        <v>224</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>45</v>
       </c>
@@ -4055,13 +4097,13 @@
         <v>45</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>45</v>
@@ -4070,19 +4112,19 @@
         <v>67</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>225</v>
+        <v>45</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>45</v>
@@ -4090,7 +4132,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4098,10 +4140,10 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>45</v>
@@ -4113,19 +4155,17 @@
         <v>56</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>153</v>
+        <v>233</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>232</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>45</v>
@@ -4174,42 +4214,42 @@
         <v>45</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>234</v>
+        <v>45</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>67</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>45</v>
+        <v>237</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>235</v>
+        <v>45</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>45</v>
+        <v>240</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>238</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4229,22 +4269,22 @@
         <v>45</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>45</v>
@@ -4269,13 +4309,13 @@
         <v>45</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>244</v>
+        <v>45</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>245</v>
+        <v>45</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>246</v>
+        <v>45</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>45</v>
@@ -4293,7 +4333,7 @@
         <v>45</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
@@ -4302,7 +4342,7 @@
         <v>55</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>67</v>
@@ -4311,35 +4351,35 @@
         <v>45</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>45</v>
+        <v>247</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>45</v>
+        <v>250</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>250</v>
+        <v>45</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>45</v>
@@ -4351,19 +4391,19 @@
         <v>45</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>45</v>
@@ -4388,13 +4428,13 @@
         <v>45</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>45</v>
@@ -4412,16 +4452,16 @@
         <v>45</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>45</v>
+        <v>259</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>67</v>
@@ -4430,19 +4470,19 @@
         <v>45</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>257</v>
+        <v>45</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>258</v>
+        <v>98</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>260</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" hidden="true">
@@ -4451,7 +4491,7 @@
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>45</v>
+        <v>262</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4470,7 +4510,7 @@
         <v>45</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>262</v>
+        <v>164</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>263</v>
@@ -4507,13 +4547,13 @@
         <v>45</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>45</v>
+        <v>256</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>45</v>
+        <v>267</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>45</v>
+        <v>268</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>45</v>
@@ -4549,24 +4589,24 @@
         <v>45</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>45</v>
+        <v>269</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>45</v>
+        <v>272</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4577,7 +4617,7 @@
         <v>43</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>45</v>
@@ -4589,18 +4629,20 @@
         <v>45</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>153</v>
+        <v>274</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>45</v>
       </c>
@@ -4624,37 +4666,37 @@
         <v>45</v>
       </c>
       <c r="W27" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE27" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="X27" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>269</v>
-      </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>45</v>
@@ -4666,24 +4708,24 @@
         <v>45</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>276</v>
+        <v>45</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>279</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4706,20 +4748,18 @@
         <v>45</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N28" t="s" s="2">
         <v>284</v>
       </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>45</v>
       </c>
@@ -4743,13 +4783,13 @@
         <v>45</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>45</v>
@@ -4767,7 +4807,7 @@
         <v>45</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
@@ -4785,24 +4825,24 @@
         <v>45</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>45</v>
+        <v>288</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>45</v>
+        <v>291</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4825,18 +4865,20 @@
         <v>45</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>290</v>
+        <v>164</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>295</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>296</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>45</v>
       </c>
@@ -4860,13 +4902,13 @@
         <v>45</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>45</v>
+        <v>285</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>45</v>
+        <v>297</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>45</v>
+        <v>298</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>45</v>
@@ -4884,7 +4926,7 @@
         <v>45</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
@@ -4902,24 +4944,24 @@
         <v>45</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>294</v>
+        <v>45</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>297</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4942,16 +4984,16 @@
         <v>45</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5001,7 +5043,7 @@
         <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
@@ -5019,24 +5061,24 @@
         <v>45</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5047,7 +5089,7 @@
         <v>43</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>45</v>
@@ -5059,20 +5101,18 @@
         <v>45</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>312</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>45</v>
       </c>
@@ -5120,42 +5160,42 @@
         <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>313</v>
+        <v>67</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>45</v>
+        <v>315</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>45</v>
+        <v>318</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5166,7 +5206,7 @@
         <v>43</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>45</v>
@@ -5178,16 +5218,20 @@
         <v>45</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>57</v>
+        <v>320</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>45</v>
       </c>
@@ -5241,13 +5285,13 @@
         <v>43</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>45</v>
+        <v>325</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>45</v>
@@ -5256,10 +5300,10 @@
         <v>45</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>45</v>
+        <v>326</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>45</v>
@@ -5270,18 +5314,18 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>45</v>
@@ -5293,17 +5337,15 @@
         <v>45</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>102</v>
+        <v>329</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>45</v>
@@ -5352,19 +5394,19 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>45</v>
@@ -5376,7 +5418,7 @@
         <v>45</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>45</v>
@@ -5387,11 +5429,11 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>325</v>
+        <v>117</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5404,26 +5446,24 @@
         <v>45</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>45</v>
       </c>
@@ -5471,7 +5511,7 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
@@ -5495,7 +5535,7 @@
         <v>45</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>98</v>
+        <v>332</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>45</v>
@@ -5506,39 +5546,43 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>45</v>
+        <v>338</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>330</v>
+        <v>100</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>121</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>45</v>
       </c>
@@ -5586,19 +5630,19 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>333</v>
+        <v>45</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>45</v>
@@ -5607,10 +5651,10 @@
         <v>45</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>334</v>
+        <v>45</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>335</v>
+        <v>98</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>45</v>
@@ -5621,7 +5665,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5644,13 +5688,13 @@
         <v>45</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5701,7 +5745,7 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -5710,7 +5754,7 @@
         <v>55</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>67</v>
@@ -5722,10 +5766,10 @@
         <v>45</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>45</v>
@@ -5736,7 +5780,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5759,20 +5803,16 @@
         <v>45</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>153</v>
+        <v>343</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>344</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>45</v>
       </c>
@@ -5796,13 +5836,13 @@
         <v>45</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>345</v>
+        <v>45</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>346</v>
+        <v>45</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>45</v>
@@ -5820,7 +5860,7 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
@@ -5829,7 +5869,7 @@
         <v>55</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>45</v>
+        <v>346</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>67</v>
@@ -5838,13 +5878,13 @@
         <v>45</v>
       </c>
       <c r="AK37" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="AL37" t="s" s="2">
-        <v>348</v>
-      </c>
       <c r="AM37" t="s" s="2">
-        <v>259</v>
+        <v>352</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>45</v>
@@ -5855,7 +5895,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5866,7 +5906,7 @@
         <v>43</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>45</v>
@@ -5878,19 +5918,19 @@
         <v>45</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>45</v>
@@ -5915,13 +5955,13 @@
         <v>45</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>273</v>
+        <v>79</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>45</v>
@@ -5939,13 +5979,13 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>45</v>
@@ -5957,13 +5997,13 @@
         <v>45</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>45</v>
@@ -5974,7 +6014,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5985,7 +6025,7 @@
         <v>43</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>45</v>
@@ -5997,17 +6037,19 @@
         <v>45</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>357</v>
+        <v>164</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>364</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>365</v>
+      </c>
       <c r="N39" t="s" s="2">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>45</v>
@@ -6032,13 +6074,13 @@
         <v>45</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>45</v>
+        <v>285</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>45</v>
+        <v>367</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>45</v>
+        <v>368</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>45</v>
@@ -6056,13 +6098,13 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>45</v>
@@ -6074,13 +6116,13 @@
         <v>45</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>45</v>
+        <v>360</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>45</v>
+        <v>361</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>361</v>
+        <v>271</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>45</v>
@@ -6091,7 +6133,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6114,16 +6156,18 @@
         <v>45</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>57</v>
+        <v>370</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
+      <c r="N40" t="s" s="2">
+        <v>373</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>45</v>
       </c>
@@ -6171,7 +6215,7 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
@@ -6192,10 +6236,10 @@
         <v>45</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>334</v>
+        <v>45</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>45</v>
@@ -6206,7 +6250,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6217,7 +6261,7 @@
         <v>43</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>45</v>
@@ -6226,20 +6270,18 @@
         <v>45</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>367</v>
+        <v>57</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>370</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>45</v>
@@ -6288,13 +6330,13 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>45</v>
@@ -6309,10 +6351,10 @@
         <v>45</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>45</v>
@@ -6323,7 +6365,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6346,16 +6388,16 @@
         <v>56</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6405,7 +6447,7 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -6426,10 +6468,10 @@
         <v>45</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>45</v>
@@ -6440,7 +6482,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6463,20 +6505,18 @@
         <v>56</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>308</v>
+        <v>387</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>383</v>
-      </c>
+        <v>390</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>45</v>
       </c>
@@ -6524,7 +6564,7 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -6548,7 +6588,7 @@
         <v>384</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>45</v>
@@ -6559,7 +6599,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6570,7 +6610,7 @@
         <v>43</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>45</v>
@@ -6579,19 +6619,23 @@
         <v>45</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>57</v>
+        <v>320</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>317</v>
+        <v>393</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
+        <v>394</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>396</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>45</v>
       </c>
@@ -6639,19 +6683,19 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>319</v>
+        <v>392</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>45</v>
@@ -6660,10 +6704,10 @@
         <v>45</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>45</v>
+        <v>397</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>320</v>
+        <v>398</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>45</v>
@@ -6674,18 +6718,18 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>45</v>
@@ -6697,17 +6741,15 @@
         <v>45</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>102</v>
+        <v>329</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>45</v>
@@ -6756,19 +6798,19 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>45</v>
@@ -6780,7 +6822,7 @@
         <v>45</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
@@ -6791,11 +6833,11 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>325</v>
+        <v>117</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6808,26 +6850,24 @@
         <v>45</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>45</v>
       </c>
@@ -6875,7 +6915,7 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -6899,7 +6939,7 @@
         <v>45</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>98</v>
+        <v>332</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>45</v>
@@ -6910,42 +6950,42 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>45</v>
+        <v>338</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>153</v>
+        <v>100</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>390</v>
+        <v>339</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>391</v>
+        <v>340</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>392</v>
+        <v>120</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>166</v>
+        <v>121</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>45</v>
@@ -6970,13 +7010,13 @@
         <v>45</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>273</v>
+        <v>45</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>393</v>
+        <v>45</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>394</v>
+        <v>45</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>45</v>
@@ -6994,34 +7034,34 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>389</v>
+        <v>341</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>395</v>
+        <v>45</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>170</v>
+        <v>45</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>171</v>
+        <v>98</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>172</v>
+        <v>45</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>45</v>
@@ -7029,7 +7069,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7037,7 +7077,7 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>55</v>
@@ -7052,19 +7092,19 @@
         <v>56</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>397</v>
+        <v>164</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>231</v>
+        <v>404</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>233</v>
+        <v>178</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>45</v>
@@ -7089,13 +7129,13 @@
         <v>45</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>45</v>
+        <v>285</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>45</v>
+        <v>406</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>45</v>
+        <v>407</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>45</v>
@@ -7113,10 +7153,10 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>55</v>
@@ -7131,24 +7171,24 @@
         <v>45</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>236</v>
+        <v>182</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>237</v>
+        <v>183</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>45</v>
+        <v>184</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>238</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7168,22 +7208,22 @@
         <v>45</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>153</v>
+        <v>410</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>403</v>
+        <v>243</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>45</v>
@@ -7208,13 +7248,13 @@
         <v>45</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>244</v>
+        <v>45</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>245</v>
+        <v>45</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>246</v>
+        <v>45</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>45</v>
@@ -7232,7 +7272,7 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
@@ -7241,7 +7281,7 @@
         <v>55</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>247</v>
+        <v>45</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>67</v>
@@ -7250,35 +7290,35 @@
         <v>45</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>45</v>
+        <v>413</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>98</v>
+        <v>248</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>45</v>
+        <v>250</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>250</v>
+        <v>45</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>45</v>
@@ -7290,19 +7330,19 @@
         <v>45</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>251</v>
+        <v>415</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>252</v>
+        <v>416</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>253</v>
+        <v>417</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>45</v>
@@ -7327,13 +7367,13 @@
         <v>45</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>45</v>
@@ -7351,16 +7391,16 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>45</v>
+        <v>259</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>67</v>
@@ -7369,28 +7409,28 @@
         <v>45</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>257</v>
+        <v>45</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>258</v>
+        <v>98</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>260</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>45</v>
+        <v>262</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7409,19 +7449,19 @@
         <v>45</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>45</v>
+        <v>164</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>407</v>
+        <v>263</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>408</v>
+        <v>264</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>311</v>
+        <v>265</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>312</v>
+        <v>266</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>45</v>
@@ -7446,13 +7486,13 @@
         <v>45</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>45</v>
+        <v>256</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>45</v>
+        <v>267</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>45</v>
+        <v>268</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>45</v>
@@ -7470,7 +7510,7 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
@@ -7488,23 +7528,142 @@
         <v>45</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>45</v>
+        <v>269</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>314</v>
+        <v>270</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>315</v>
+        <v>271</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO51" t="s" s="2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="52" hidden="true">
+      <c r="A52" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO52" t="s" s="2">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO51">
+  <autoFilter ref="A1:AO52">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7514,7 +7673,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI50">
+  <conditionalFormatting sqref="A2:AI51">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-pacio-bfs.xlsx
+++ b/StructureDefinition-pacio-bfs.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$51</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1943" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1906" uniqueCount="409">
   <si>
     <t>Path</t>
   </si>
@@ -328,21 +328,21 @@
     <t>Observation.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
@@ -352,40 +352,7 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>event-location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {event-location}
-</t>
-  </si>
-  <si>
-    <t>Where event occurred</t>
-  </si>
-  <si>
-    <t>The principal physical location where the {{title}} was performed.</t>
-  </si>
-  <si>
-    <t>May reference only *Provenance* resources deemed “relevant” or important. This element does not point to the Provenance associated with the current version of the resource - as it would be created after this version existed. The Provenance for the current version can be retrieved with a [` _revinclude`](search.html#revinclude).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>Event.location</t>
-  </si>
-  <si>
-    <t>EVN.7</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=LOC].role</t>
-  </si>
-  <si>
     <t>Observation.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
   </si>
   <si>
     <t>Extensions that cannot be ignored</t>
@@ -395,9 +362,6 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -548,9 +512,6 @@
     <t>Used for filtering what observations are retrieved and displayed.</t>
   </si>
   <si>
-    <t>If this is from a Post-Acute Care Assessment, value should be survey.</t>
-  </si>
-  <si>
     <t>http://terminology.hl7.org/CodeSystem/observation-category</t>
   </si>
   <si>
@@ -1060,9 +1021,6 @@
   </si>
   <si>
     <t>Observation.referenceRange.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
@@ -1488,7 +1446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO52"/>
+  <dimension ref="A1:AO51"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1497,47 +1455,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="43.6015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.9921875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="66.26953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="67.91015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="62.18359375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="56.66015625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="63.703125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="57.1328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="239.703125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="247.40625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="103.87890625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="37.70703125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="107.01953125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="42.34375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2488,7 +2446,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2507,15 +2465,17 @@
         <v>45</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="M9" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>45</v>
@@ -2552,14 +2512,16 @@
         <v>45</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AB9" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="AC9" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>105</v>
@@ -2586,7 +2548,7 @@
         <v>45</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>45</v>
@@ -2595,45 +2557,45 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="B10" t="s" s="2">
         <v>107</v>
       </c>
+      <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G10" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="H10" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="I10" t="s" s="2">
         <v>45</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="K10" t="s" s="2">
+      <c r="L10" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="M10" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>45</v>
       </c>
@@ -2681,7 +2643,7 @@
         <v>45</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>43</v>
@@ -2690,22 +2652,22 @@
         <v>44</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>106</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>114</v>
+        <v>45</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>45</v>
@@ -2716,11 +2678,11 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -2733,25 +2695,23 @@
         <v>45</v>
       </c>
       <c r="H11" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I11" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="I11" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="J11" t="s" s="2">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>120</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="M11" s="2"/>
       <c r="N11" t="s" s="2">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>45</v>
@@ -2800,7 +2760,7 @@
         <v>45</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>43</v>
@@ -2812,22 +2772,22 @@
         <v>45</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>45</v>
+        <v>117</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>45</v>
@@ -2835,11 +2795,11 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -2858,17 +2818,17 @@
         <v>56</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>45</v>
@@ -2917,7 +2877,7 @@
         <v>45</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>43</v>
@@ -2932,19 +2892,19 @@
         <v>67</v>
       </c>
       <c r="AJ12" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL12" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="AK12" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL12" t="s" s="2">
+      <c r="AM12" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="AM12" t="s" s="2">
-        <v>130</v>
-      </c>
       <c r="AN12" t="s" s="2">
-        <v>131</v>
+        <v>45</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>45</v>
@@ -2952,11 +2912,11 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -2975,18 +2935,18 @@
         <v>56</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="L13" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="M13" s="2"/>
-      <c r="N13" t="s" s="2">
-        <v>137</v>
-      </c>
+      <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>45</v>
       </c>
@@ -3034,7 +2994,7 @@
         <v>45</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>43</v>
@@ -3049,16 +3009,16 @@
         <v>67</v>
       </c>
       <c r="AJ13" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL13" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AM13" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>45</v>
@@ -3069,41 +3029,43 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>142</v>
+        <v>45</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="N14" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="K14" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>45</v>
       </c>
@@ -3127,13 +3089,13 @@
         <v>45</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>45</v>
+        <v>144</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>45</v>
+        <v>145</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>45</v>
+        <v>146</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>45</v>
@@ -3151,13 +3113,13 @@
         <v>45</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>45</v>
@@ -3169,16 +3131,16 @@
         <v>147</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>45</v>
+        <v>148</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>45</v>
+        <v>151</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>45</v>
@@ -3186,7 +3148,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3203,25 +3165,25 @@
         <v>45</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>45</v>
@@ -3246,13 +3208,11 @@
         <v>45</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="X15" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>45</v>
@@ -3270,13 +3230,13 @@
         <v>45</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>45</v>
@@ -3285,19 +3245,19 @@
         <v>67</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>158</v>
+        <v>45</v>
       </c>
       <c r="AK15" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM15" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>45</v>
@@ -3305,11 +3265,11 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>45</v>
+        <v>162</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3325,22 +3285,22 @@
         <v>45</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>45</v>
@@ -3365,13 +3325,11 @@
         <v>45</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X16" t="s" s="2">
-        <v>169</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="X16" s="2"/>
       <c r="Y16" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>45</v>
@@ -3389,13 +3347,13 @@
         <v>45</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>45</v>
@@ -3404,13 +3362,13 @@
         <v>67</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>45</v>
+        <v>168</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>45</v>
+        <v>169</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>45</v>
+        <v>170</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>171</v>
@@ -3419,16 +3377,16 @@
         <v>172</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>45</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>174</v>
+        <v>45</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3447,19 +3405,19 @@
         <v>56</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>45</v>
@@ -3484,11 +3442,13 @@
         <v>45</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="X17" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="Y17" t="s" s="2">
-        <v>179</v>
+        <v>45</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>45</v>
@@ -3506,10 +3466,10 @@
         <v>45</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>55</v>
@@ -3524,24 +3484,24 @@
         <v>180</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AM17" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="AM17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="AN17" t="s" s="2">
-        <v>184</v>
-      </c>
       <c r="AO17" t="s" s="2">
-        <v>185</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3549,10 +3509,10 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>45</v>
@@ -3564,20 +3524,18 @@
         <v>56</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="L18" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>191</v>
-      </c>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>45</v>
       </c>
@@ -3625,13 +3583,13 @@
         <v>45</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>45</v>
@@ -3640,19 +3598,19 @@
         <v>67</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>192</v>
+        <v>45</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>45</v>
@@ -3660,18 +3618,18 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>45</v>
+        <v>191</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>45</v>
@@ -3683,18 +3641,20 @@
         <v>56</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="O19" t="s" s="2">
         <v>45</v>
       </c>
@@ -3742,13 +3702,13 @@
         <v>45</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>45</v>
@@ -3757,19 +3717,19 @@
         <v>67</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>45</v>
+        <v>197</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>45</v>
@@ -3777,11 +3737,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3800,19 +3760,19 @@
         <v>56</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>45</v>
@@ -3861,7 +3821,7 @@
         <v>45</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>43</v>
@@ -3876,19 +3836,19 @@
         <v>67</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AK20" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="AM20" t="s" s="2">
+      <c r="AN20" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>45</v>
@@ -3896,11 +3856,11 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>214</v>
+        <v>45</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3919,20 +3879,18 @@
         <v>56</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L21" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>219</v>
-      </c>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>45</v>
       </c>
@@ -3980,7 +3938,7 @@
         <v>45</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>43</v>
@@ -3995,19 +3953,19 @@
         <v>67</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>220</v>
+        <v>45</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>45</v>
@@ -4015,7 +3973,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4023,10 +3981,10 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>45</v>
@@ -4038,18 +3996,18 @@
         <v>56</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>223</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="O22" t="s" s="2">
         <v>45</v>
       </c>
@@ -4097,13 +4055,13 @@
         <v>45</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>45</v>
@@ -4112,19 +4070,19 @@
         <v>67</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>45</v>
+        <v>225</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>45</v>
@@ -4132,7 +4090,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4140,10 +4098,10 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s" s="2">
         <v>55</v>
-      </c>
-      <c r="F23" t="s" s="2">
-        <v>44</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>45</v>
@@ -4155,17 +4113,19 @@
         <v>56</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="N23" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="K23" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="M23" s="2"/>
-      <c r="N23" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>45</v>
@@ -4214,42 +4174,42 @@
         <v>45</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>45</v>
+        <v>234</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>67</v>
       </c>
       <c r="AJ23" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="AK23" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO23" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="AO23" t="s" s="2">
-        <v>45</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4269,22 +4229,22 @@
         <v>45</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>45</v>
@@ -4309,13 +4269,13 @@
         <v>45</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>45</v>
+        <v>244</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>45</v>
+        <v>245</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>45</v>
+        <v>246</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>45</v>
@@ -4333,7 +4293,7 @@
         <v>45</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
@@ -4342,7 +4302,7 @@
         <v>55</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>67</v>
@@ -4351,35 +4311,35 @@
         <v>45</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>247</v>
+        <v>45</v>
       </c>
       <c r="AL24" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AM24" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="AM24" t="s" s="2">
-        <v>249</v>
-      </c>
       <c r="AN24" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>250</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>45</v>
+        <v>250</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>45</v>
@@ -4391,19 +4351,19 @@
         <v>45</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>45</v>
@@ -4428,14 +4388,14 @@
         <v>45</v>
       </c>
       <c r="W25" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="Y25" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="X25" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>258</v>
-      </c>
       <c r="Z25" t="s" s="2">
         <v>45</v>
       </c>
@@ -4452,16 +4412,16 @@
         <v>45</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>259</v>
+        <v>45</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>67</v>
@@ -4470,19 +4430,19 @@
         <v>45</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>45</v>
+        <v>257</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>98</v>
+        <v>258</v>
       </c>
       <c r="AM25" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AN25" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO25" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>45</v>
       </c>
     </row>
     <row r="26" hidden="true">
@@ -4491,7 +4451,7 @@
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>262</v>
+        <v>45</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4510,7 +4470,7 @@
         <v>45</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>164</v>
+        <v>262</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>263</v>
@@ -4547,13 +4507,13 @@
         <v>45</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>256</v>
+        <v>45</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>267</v>
+        <v>45</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>268</v>
+        <v>45</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>45</v>
@@ -4589,24 +4549,24 @@
         <v>45</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>269</v>
+        <v>45</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>272</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4617,7 +4577,7 @@
         <v>43</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>45</v>
@@ -4629,20 +4589,18 @@
         <v>45</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>274</v>
+        <v>153</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>278</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>45</v>
       </c>
@@ -4666,13 +4624,13 @@
         <v>45</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>45</v>
+        <v>273</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>45</v>
+        <v>274</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>45</v>
+        <v>275</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>45</v>
@@ -4690,13 +4648,13 @@
         <v>45</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>45</v>
@@ -4708,24 +4666,24 @@
         <v>45</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>45</v>
+        <v>276</v>
       </c>
       <c r="AL27" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AM27" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AN27" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO27" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>45</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4748,18 +4706,20 @@
         <v>45</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>45</v>
       </c>
@@ -4783,14 +4743,14 @@
         <v>45</v>
       </c>
       <c r="W28" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="X28" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="X28" t="s" s="2">
+      <c r="Y28" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="Y28" t="s" s="2">
-        <v>287</v>
-      </c>
       <c r="Z28" t="s" s="2">
         <v>45</v>
       </c>
@@ -4807,7 +4767,7 @@
         <v>45</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
@@ -4825,24 +4785,24 @@
         <v>45</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="AL28" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>290</v>
-      </c>
       <c r="AN28" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>291</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4865,20 +4825,18 @@
         <v>45</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>164</v>
+        <v>290</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="L29" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>296</v>
-      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>45</v>
       </c>
@@ -4902,13 +4860,13 @@
         <v>45</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>285</v>
+        <v>45</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>297</v>
+        <v>45</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>298</v>
+        <v>45</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>45</v>
@@ -4926,7 +4884,7 @@
         <v>45</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
@@ -4944,24 +4902,24 @@
         <v>45</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>45</v>
+        <v>294</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>45</v>
+        <v>297</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4984,16 +4942,16 @@
         <v>45</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="K30" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5043,7 +5001,7 @@
         <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
@@ -5061,24 +5019,24 @@
         <v>45</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AN30" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO30" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO30" t="s" s="2">
-        <v>309</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5089,7 +5047,7 @@
         <v>43</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>45</v>
@@ -5101,18 +5059,20 @@
         <v>45</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="L31" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>45</v>
       </c>
@@ -5160,42 +5120,42 @@
         <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>67</v>
+        <v>313</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AM31" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="AL31" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>317</v>
-      </c>
       <c r="AN31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>318</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5206,7 +5166,7 @@
         <v>43</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>45</v>
@@ -5218,20 +5178,16 @@
         <v>45</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>320</v>
+        <v>57</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>324</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>45</v>
       </c>
@@ -5285,13 +5241,13 @@
         <v>43</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>325</v>
+        <v>45</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>45</v>
@@ -5300,10 +5256,10 @@
         <v>45</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>326</v>
+        <v>45</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>45</v>
@@ -5314,18 +5270,18 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>45</v>
@@ -5337,15 +5293,17 @@
         <v>45</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>329</v>
+        <v>102</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>45</v>
@@ -5394,19 +5352,19 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>45</v>
@@ -5418,7 +5376,7 @@
         <v>45</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>45</v>
@@ -5429,11 +5387,11 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>117</v>
+        <v>325</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5446,24 +5404,26 @@
         <v>45</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>45</v>
       </c>
@@ -5511,7 +5471,7 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
@@ -5535,7 +5495,7 @@
         <v>45</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>332</v>
+        <v>98</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>45</v>
@@ -5546,43 +5506,39 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>338</v>
+        <v>45</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>100</v>
+        <v>330</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>121</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>45</v>
       </c>
@@ -5630,19 +5586,19 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>45</v>
+        <v>333</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>45</v>
@@ -5651,10 +5607,10 @@
         <v>45</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>45</v>
+        <v>334</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>98</v>
+        <v>335</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>45</v>
@@ -5665,7 +5621,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5688,13 +5644,13 @@
         <v>45</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5745,7 +5701,7 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -5754,7 +5710,7 @@
         <v>55</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>67</v>
@@ -5766,10 +5722,10 @@
         <v>45</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>45</v>
@@ -5780,7 +5736,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5803,16 +5759,20 @@
         <v>45</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="K37" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
+      <c r="N37" t="s" s="2">
+        <v>344</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>45</v>
       </c>
@@ -5836,13 +5796,13 @@
         <v>45</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>45</v>
+        <v>345</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>45</v>
+        <v>346</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>45</v>
@@ -5860,7 +5820,7 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
@@ -5869,7 +5829,7 @@
         <v>55</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>346</v>
+        <v>45</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>67</v>
@@ -5878,13 +5838,13 @@
         <v>45</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>45</v>
+        <v>347</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>352</v>
+        <v>259</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>45</v>
@@ -5895,7 +5855,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5906,7 +5866,7 @@
         <v>43</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>45</v>
@@ -5918,19 +5878,19 @@
         <v>45</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>45</v>
@@ -5955,13 +5915,13 @@
         <v>45</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>79</v>
+        <v>273</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>45</v>
@@ -5979,13 +5939,13 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>45</v>
@@ -5997,13 +5957,13 @@
         <v>45</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>45</v>
@@ -6014,7 +5974,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6025,7 +5985,7 @@
         <v>43</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>45</v>
@@ -6037,19 +5997,17 @@
         <v>45</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>164</v>
+        <v>357</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>365</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>45</v>
@@ -6074,13 +6032,13 @@
         <v>45</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>285</v>
+        <v>45</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>367</v>
+        <v>45</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>368</v>
+        <v>45</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>45</v>
@@ -6098,13 +6056,13 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>45</v>
@@ -6116,13 +6074,13 @@
         <v>45</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>360</v>
+        <v>45</v>
       </c>
       <c r="AL39" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM39" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>45</v>
@@ -6133,7 +6091,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6156,18 +6114,16 @@
         <v>45</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>370</v>
+        <v>57</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="M40" s="2"/>
-      <c r="N40" t="s" s="2">
-        <v>373</v>
-      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>45</v>
       </c>
@@ -6215,7 +6171,7 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
@@ -6236,10 +6192,10 @@
         <v>45</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>45</v>
+        <v>334</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>45</v>
@@ -6250,7 +6206,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6261,7 +6217,7 @@
         <v>43</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>45</v>
@@ -6270,18 +6226,20 @@
         <v>45</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>57</v>
+        <v>367</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="M41" s="2"/>
+        <v>369</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>370</v>
+      </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>45</v>
@@ -6330,13 +6288,13 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>45</v>
@@ -6351,10 +6309,10 @@
         <v>45</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>347</v>
+        <v>371</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>45</v>
@@ -6365,7 +6323,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6388,16 +6346,16 @@
         <v>56</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6447,7 +6405,7 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -6468,10 +6426,10 @@
         <v>45</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>45</v>
@@ -6482,7 +6440,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6505,18 +6463,20 @@
         <v>56</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>387</v>
+        <v>308</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>382</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>45</v>
       </c>
@@ -6564,7 +6524,7 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -6588,7 +6548,7 @@
         <v>384</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>45</v>
@@ -6599,7 +6559,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6610,7 +6570,7 @@
         <v>43</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>45</v>
@@ -6619,23 +6579,19 @@
         <v>45</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>320</v>
+        <v>57</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>393</v>
+        <v>317</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>396</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>45</v>
       </c>
@@ -6683,19 +6639,19 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>392</v>
+        <v>319</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>45</v>
@@ -6704,10 +6660,10 @@
         <v>45</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>397</v>
+        <v>45</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>398</v>
+        <v>320</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>45</v>
@@ -6718,18 +6674,18 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>45</v>
@@ -6741,15 +6697,17 @@
         <v>45</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>329</v>
+        <v>102</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>45</v>
@@ -6798,19 +6756,19 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>45</v>
@@ -6822,7 +6780,7 @@
         <v>45</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
@@ -6833,11 +6791,11 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>117</v>
+        <v>325</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6850,24 +6808,26 @@
         <v>45</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>45</v>
       </c>
@@ -6915,7 +6875,7 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -6939,7 +6899,7 @@
         <v>45</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>332</v>
+        <v>98</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>45</v>
@@ -6950,42 +6910,42 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>338</v>
+        <v>45</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>100</v>
+        <v>153</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>339</v>
+        <v>390</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>340</v>
+        <v>391</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>120</v>
+        <v>392</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>121</v>
+        <v>166</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>45</v>
@@ -7010,13 +6970,13 @@
         <v>45</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>45</v>
+        <v>273</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>45</v>
+        <v>393</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>45</v>
+        <v>394</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>45</v>
@@ -7034,34 +6994,34 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>341</v>
+        <v>389</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>45</v>
+        <v>395</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>45</v>
+        <v>170</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>98</v>
+        <v>171</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>45</v>
+        <v>172</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>45</v>
@@ -7069,7 +7029,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7077,7 +7037,7 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>55</v>
@@ -7092,19 +7052,19 @@
         <v>56</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>164</v>
+        <v>397</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>404</v>
+        <v>231</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>178</v>
+        <v>233</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>45</v>
@@ -7129,13 +7089,13 @@
         <v>45</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>285</v>
+        <v>45</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>406</v>
+        <v>45</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>407</v>
+        <v>45</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>45</v>
@@ -7153,10 +7113,10 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>55</v>
@@ -7171,24 +7131,24 @@
         <v>45</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>182</v>
+        <v>236</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>183</v>
+        <v>237</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>184</v>
+        <v>45</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>45</v>
+        <v>238</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7208,22 +7168,22 @@
         <v>45</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>410</v>
+        <v>153</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="N49" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>45</v>
@@ -7248,13 +7208,13 @@
         <v>45</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>45</v>
+        <v>244</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>45</v>
+        <v>245</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>45</v>
+        <v>246</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>45</v>
@@ -7272,7 +7232,7 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
@@ -7281,7 +7241,7 @@
         <v>55</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>45</v>
+        <v>247</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>67</v>
@@ -7290,35 +7250,35 @@
         <v>45</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>413</v>
+        <v>45</v>
       </c>
       <c r="AL49" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AM49" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="AM49" t="s" s="2">
-        <v>249</v>
-      </c>
       <c r="AN49" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>250</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>45</v>
+        <v>250</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>45</v>
@@ -7330,19 +7290,19 @@
         <v>45</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>415</v>
+        <v>251</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>416</v>
+        <v>252</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>417</v>
+        <v>253</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>45</v>
@@ -7367,14 +7327,14 @@
         <v>45</v>
       </c>
       <c r="W50" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="Y50" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="X50" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>258</v>
-      </c>
       <c r="Z50" t="s" s="2">
         <v>45</v>
       </c>
@@ -7391,16 +7351,16 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>259</v>
+        <v>45</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>67</v>
@@ -7409,28 +7369,28 @@
         <v>45</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>45</v>
+        <v>257</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>98</v>
+        <v>258</v>
       </c>
       <c r="AM50" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO50" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO50" t="s" s="2">
-        <v>45</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>262</v>
+        <v>45</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7449,19 +7409,19 @@
         <v>45</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>164</v>
+        <v>45</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>263</v>
+        <v>407</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>264</v>
+        <v>408</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>265</v>
+        <v>311</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>266</v>
+        <v>312</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>45</v>
@@ -7486,13 +7446,13 @@
         <v>45</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>256</v>
+        <v>45</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>267</v>
+        <v>45</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>268</v>
+        <v>45</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>45</v>
@@ -7510,7 +7470,7 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
@@ -7528,142 +7488,23 @@
         <v>45</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>269</v>
+        <v>45</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>270</v>
+        <v>314</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>271</v>
+        <v>315</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="52" hidden="true">
-      <c r="A52" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="B52" s="2"/>
-      <c r="C52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D52" s="2"/>
-      <c r="E52" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F52" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="K52" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P52" s="2"/>
-      <c r="Q52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO52" t="s" s="2">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO52">
+  <autoFilter ref="A1:AO51">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7673,7 +7514,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI51">
+  <conditionalFormatting sqref="A2:AI50">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-pacio-bfs.xlsx
+++ b/StructureDefinition-pacio-bfs.xlsx
@@ -1497,47 +1497,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="43.6015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.9921875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="14.19921875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="66.26953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="67.91015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="62.18359375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="56.66015625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="64.703125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="57.1328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="239.703125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="247.40625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="103.87890625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="37.70703125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="107.01953125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="42.34375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/StructureDefinition-pacio-bfs.xlsx
+++ b/StructureDefinition-pacio-bfs.xlsx
@@ -1497,47 +1497,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="14.19921875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="43.6015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.9921875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="67.91015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="66.26953125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="64.703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="57.1328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="62.18359375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="56.66015625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="247.40625" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="239.703125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="107.01953125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="42.34375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="103.87890625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="37.70703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/StructureDefinition-pacio-bfs.xlsx
+++ b/StructureDefinition-pacio-bfs.xlsx
@@ -748,7 +748,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner)
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|Patient|RelatedPerson)
 </t>
   </si>
   <si>

--- a/StructureDefinition-pacio-bfs.xlsx
+++ b/StructureDefinition-pacio-bfs.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$53</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1943" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1980" uniqueCount="426">
   <si>
     <t>Path</t>
   </si>
@@ -379,6 +379,19 @@
   </si>
   <si>
     <t>.participation[typeCode=LOC].role</t>
+  </si>
+  <si>
+    <t>device-use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://pacioproject.org/StructureDefinition/device-patient-used}
+</t>
+  </si>
+  <si>
+    <t>Optional Extensions Element</t>
+  </si>
+  <si>
+    <t>Optional Extension Element - found in all resources.</t>
   </si>
   <si>
     <t>Observation.modifierExtension</t>
@@ -1488,7 +1501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO52"/>
+  <dimension ref="A1:AO53"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1497,47 +1510,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="43.6015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.9921875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="14.19921875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="66.26953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="67.91015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="62.18359375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="56.66015625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="64.703125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="57.1328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="239.703125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="247.40625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="103.87890625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="37.70703125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="107.01953125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="42.34375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2714,13 +2727,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -2730,16 +2745,16 @@
         <v>44</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>45</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>118</v>
@@ -2747,12 +2762,8 @@
       <c r="L11" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="M11" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>121</v>
-      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>45</v>
       </c>
@@ -2800,7 +2811,7 @@
         <v>45</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>43</v>
@@ -2809,7 +2820,7 @@
         <v>44</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>106</v>
@@ -2835,11 +2846,11 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>45</v>
+        <v>121</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -2852,23 +2863,25 @@
         <v>45</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="M12" s="2"/>
-      <c r="N12" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>45</v>
@@ -2917,7 +2930,7 @@
         <v>45</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>43</v>
@@ -2929,22 +2942,22 @@
         <v>45</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>128</v>
+        <v>45</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>129</v>
+        <v>45</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>131</v>
+        <v>45</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>45</v>
@@ -2952,11 +2965,11 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -2975,17 +2988,17 @@
         <v>56</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" t="s" s="2">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>45</v>
@@ -3034,7 +3047,7 @@
         <v>45</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>43</v>
@@ -3049,19 +3062,19 @@
         <v>67</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>45</v>
@@ -3069,11 +3082,11 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -3092,18 +3105,18 @@
         <v>56</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N14" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="O14" t="s" s="2">
         <v>45</v>
       </c>
@@ -3151,7 +3164,7 @@
         <v>45</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>43</v>
@@ -3166,16 +3179,16 @@
         <v>67</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>45</v>
@@ -3186,43 +3199,41 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>45</v>
+        <v>146</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>75</v>
+        <v>147</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>45</v>
       </c>
@@ -3246,13 +3257,13 @@
         <v>45</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>155</v>
+        <v>45</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>156</v>
+        <v>45</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>157</v>
+        <v>45</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>45</v>
@@ -3270,13 +3281,13 @@
         <v>45</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>45</v>
@@ -3285,19 +3296,19 @@
         <v>67</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>159</v>
+        <v>45</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>162</v>
+        <v>45</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>45</v>
@@ -3305,7 +3316,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3322,25 +3333,25 @@
         <v>45</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>164</v>
+        <v>75</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>45</v>
@@ -3365,13 +3376,13 @@
         <v>45</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>79</v>
+        <v>159</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>45</v>
@@ -3389,13 +3400,13 @@
         <v>45</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>45</v>
@@ -3404,19 +3415,19 @@
         <v>67</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>45</v>
+        <v>162</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>45</v>
+        <v>163</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>45</v>
+        <v>164</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>45</v>
@@ -3424,11 +3435,11 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>174</v>
+        <v>45</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3444,22 +3455,22 @@
         <v>45</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>45</v>
@@ -3484,11 +3495,13 @@
         <v>45</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="X17" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="Y17" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>45</v>
@@ -3506,13 +3519,13 @@
         <v>45</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>45</v>
@@ -3521,31 +3534,31 @@
         <v>67</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>180</v>
+        <v>45</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>181</v>
+        <v>45</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>182</v>
+        <v>45</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>185</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>45</v>
+        <v>178</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3564,19 +3577,19 @@
         <v>56</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>45</v>
@@ -3601,13 +3614,11 @@
         <v>45</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="X18" s="2"/>
       <c r="Y18" t="s" s="2">
-        <v>45</v>
+        <v>183</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>45</v>
@@ -3625,10 +3636,10 @@
         <v>45</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>55</v>
@@ -3640,27 +3651,27 @@
         <v>67</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>45</v>
+        <v>185</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>45</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3668,10 +3679,10 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>45</v>
@@ -3683,18 +3694,20 @@
         <v>56</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="O19" t="s" s="2">
         <v>45</v>
       </c>
@@ -3742,13 +3755,13 @@
         <v>45</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>45</v>
@@ -3757,19 +3770,19 @@
         <v>67</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>45</v>
+        <v>196</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>45</v>
@@ -3777,18 +3790,18 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>203</v>
+        <v>45</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>45</v>
@@ -3800,20 +3813,18 @@
         <v>56</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="K20" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>208</v>
-      </c>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>45</v>
       </c>
@@ -3861,13 +3872,13 @@
         <v>45</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>45</v>
@@ -3876,19 +3887,19 @@
         <v>67</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>209</v>
+        <v>45</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>45</v>
@@ -3896,11 +3907,11 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3919,19 +3930,19 @@
         <v>56</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>45</v>
@@ -3980,7 +3991,7 @@
         <v>45</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>43</v>
@@ -3995,19 +4006,19 @@
         <v>67</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>45</v>
@@ -4015,11 +4026,11 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>45</v>
+        <v>218</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -4038,18 +4049,20 @@
         <v>56</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="O22" t="s" s="2">
         <v>45</v>
       </c>
@@ -4097,7 +4110,7 @@
         <v>45</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>43</v>
@@ -4112,19 +4125,19 @@
         <v>67</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>45</v>
+        <v>224</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>45</v>
@@ -4132,7 +4145,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4140,10 +4153,10 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s" s="2">
         <v>55</v>
-      </c>
-      <c r="F23" t="s" s="2">
-        <v>44</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>45</v>
@@ -4155,18 +4168,18 @@
         <v>56</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="M23" s="2"/>
-      <c r="N23" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>45</v>
       </c>
@@ -4214,13 +4227,13 @@
         <v>45</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>45</v>
@@ -4229,19 +4242,19 @@
         <v>67</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>237</v>
+        <v>45</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>45</v>
@@ -4249,7 +4262,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4257,10 +4270,10 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>45</v>
@@ -4272,19 +4285,17 @@
         <v>56</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>164</v>
+        <v>237</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>244</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="M24" s="2"/>
       <c r="N24" t="s" s="2">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>45</v>
@@ -4333,42 +4344,42 @@
         <v>45</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>246</v>
+        <v>45</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>67</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>45</v>
+        <v>241</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>247</v>
+        <v>45</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>45</v>
+        <v>244</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>250</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4388,22 +4399,22 @@
         <v>45</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>45</v>
@@ -4428,13 +4439,13 @@
         <v>45</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>256</v>
+        <v>45</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>257</v>
+        <v>45</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>258</v>
+        <v>45</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>45</v>
@@ -4452,7 +4463,7 @@
         <v>45</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
@@ -4461,7 +4472,7 @@
         <v>55</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>67</v>
@@ -4470,35 +4481,35 @@
         <v>45</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>45</v>
+        <v>251</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>98</v>
+        <v>252</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>45</v>
+        <v>254</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>262</v>
+        <v>45</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>45</v>
@@ -4510,19 +4521,19 @@
         <v>45</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>45</v>
@@ -4547,13 +4558,13 @@
         <v>45</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>45</v>
@@ -4571,16 +4582,16 @@
         <v>45</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>45</v>
+        <v>263</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>67</v>
@@ -4589,28 +4600,28 @@
         <v>45</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>269</v>
+        <v>45</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>270</v>
+        <v>98</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>272</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>45</v>
+        <v>266</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4629,19 +4640,19 @@
         <v>45</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>274</v>
+        <v>168</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>45</v>
@@ -4666,13 +4677,13 @@
         <v>45</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>45</v>
+        <v>260</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>45</v>
+        <v>271</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>45</v>
+        <v>272</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>45</v>
@@ -4690,7 +4701,7 @@
         <v>45</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
@@ -4708,24 +4719,24 @@
         <v>45</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>45</v>
+        <v>273</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>45</v>
+        <v>276</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4736,7 +4747,7 @@
         <v>43</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>45</v>
@@ -4748,18 +4759,20 @@
         <v>45</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>164</v>
+        <v>278</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="N28" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="L28" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>45</v>
       </c>
@@ -4783,13 +4796,13 @@
         <v>45</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>285</v>
+        <v>45</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>286</v>
+        <v>45</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>287</v>
+        <v>45</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>45</v>
@@ -4807,13 +4820,13 @@
         <v>45</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>45</v>
@@ -4825,24 +4838,24 @@
         <v>45</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>288</v>
+        <v>45</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>291</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4865,20 +4878,18 @@
         <v>45</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>296</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>45</v>
       </c>
@@ -4902,31 +4913,31 @@
         <v>45</v>
       </c>
       <c r="W29" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE29" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
@@ -4944,24 +4955,24 @@
         <v>45</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>45</v>
+        <v>292</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>45</v>
+        <v>295</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4984,18 +4995,20 @@
         <v>45</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>302</v>
+        <v>168</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>299</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>300</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>45</v>
       </c>
@@ -5019,13 +5032,13 @@
         <v>45</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>45</v>
+        <v>289</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>45</v>
+        <v>301</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>45</v>
+        <v>302</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>45</v>
@@ -5043,7 +5056,7 @@
         <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
@@ -5061,24 +5074,24 @@
         <v>45</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>306</v>
+        <v>45</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>309</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5101,16 +5114,16 @@
         <v>45</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5160,7 +5173,7 @@
         <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
@@ -5178,24 +5191,24 @@
         <v>45</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5206,7 +5219,7 @@
         <v>43</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>45</v>
@@ -5218,20 +5231,18 @@
         <v>45</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>324</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>45</v>
       </c>
@@ -5279,42 +5290,42 @@
         <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK32" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="AF32" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AL32" t="s" s="2">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>45</v>
+        <v>322</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5325,7 +5336,7 @@
         <v>43</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>45</v>
@@ -5337,16 +5348,20 @@
         <v>45</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>57</v>
+        <v>324</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>328</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>45</v>
       </c>
@@ -5394,31 +5409,31 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>45</v>
@@ -5429,18 +5444,18 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>45</v>
@@ -5452,17 +5467,15 @@
         <v>45</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="L34" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>120</v>
-      </c>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>45</v>
@@ -5511,31 +5524,31 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>45</v>
@@ -5550,7 +5563,7 @@
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>338</v>
+        <v>121</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5563,26 +5576,24 @@
         <v>45</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J35" t="s" s="2">
         <v>100</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="L35" t="s" s="2">
-        <v>340</v>
-      </c>
       <c r="M35" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>121</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>45</v>
       </c>
@@ -5630,7 +5641,7 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
@@ -5654,7 +5665,7 @@
         <v>45</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>98</v>
+        <v>336</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>45</v>
@@ -5665,39 +5676,43 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>45</v>
+        <v>342</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="L36" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
+      <c r="M36" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>125</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>45</v>
       </c>
@@ -5745,19 +5760,19 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>346</v>
+        <v>45</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>45</v>
@@ -5766,10 +5781,10 @@
         <v>45</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>347</v>
+        <v>45</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>348</v>
+        <v>98</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>45</v>
@@ -5780,7 +5795,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5803,13 +5818,13 @@
         <v>45</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5860,7 +5875,7 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
@@ -5869,7 +5884,7 @@
         <v>55</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>67</v>
@@ -5881,7 +5896,7 @@
         <v>45</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>352</v>
@@ -5918,7 +5933,7 @@
         <v>45</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>164</v>
+        <v>347</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>354</v>
@@ -5926,12 +5941,8 @@
       <c r="L38" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="M38" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>357</v>
-      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>45</v>
       </c>
@@ -5955,13 +5966,13 @@
         <v>45</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>358</v>
+        <v>45</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>359</v>
+        <v>45</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>45</v>
@@ -5988,7 +5999,7 @@
         <v>55</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>45</v>
+        <v>350</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>67</v>
@@ -5997,13 +6008,13 @@
         <v>45</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>360</v>
+        <v>45</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>271</v>
+        <v>356</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>45</v>
@@ -6014,7 +6025,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6025,7 +6036,7 @@
         <v>43</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>45</v>
@@ -6037,19 +6048,19 @@
         <v>45</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>45</v>
@@ -6074,13 +6085,13 @@
         <v>45</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>285</v>
+        <v>79</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>45</v>
@@ -6098,13 +6109,13 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>45</v>
@@ -6116,13 +6127,13 @@
         <v>45</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>45</v>
@@ -6133,7 +6144,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6144,7 +6155,7 @@
         <v>43</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>45</v>
@@ -6156,17 +6167,19 @@
         <v>45</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="N40" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="K40" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="M40" s="2"/>
-      <c r="N40" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>45</v>
@@ -6191,13 +6204,13 @@
         <v>45</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>45</v>
+        <v>289</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>45</v>
+        <v>371</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>45</v>
+        <v>372</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>45</v>
@@ -6215,13 +6228,13 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>45</v>
@@ -6233,13 +6246,13 @@
         <v>45</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>45</v>
+        <v>364</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>45</v>
+        <v>365</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>374</v>
+        <v>275</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>45</v>
@@ -6250,7 +6263,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6273,16 +6286,18 @@
         <v>45</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>57</v>
+        <v>374</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" s="2"/>
+      <c r="N41" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>45</v>
       </c>
@@ -6330,7 +6345,7 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
@@ -6351,7 +6366,7 @@
         <v>45</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>347</v>
+        <v>45</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>378</v>
@@ -6376,7 +6391,7 @@
         <v>43</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>45</v>
@@ -6385,20 +6400,18 @@
         <v>45</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="L42" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>383</v>
-      </c>
+      <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>45</v>
@@ -6453,7 +6466,7 @@
         <v>43</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>45</v>
@@ -6468,10 +6481,10 @@
         <v>45</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>384</v>
+        <v>351</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>45</v>
@@ -6482,7 +6495,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6505,16 +6518,16 @@
         <v>56</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="K43" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6564,7 +6577,7 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -6585,10 +6598,10 @@
         <v>45</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>45</v>
@@ -6599,7 +6612,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6622,20 +6635,18 @@
         <v>56</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>320</v>
+        <v>391</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="M44" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>396</v>
-      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>45</v>
       </c>
@@ -6683,7 +6694,7 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
@@ -6704,10 +6715,10 @@
         <v>45</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>45</v>
@@ -6718,7 +6729,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6729,7 +6740,7 @@
         <v>43</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>45</v>
@@ -6738,19 +6749,23 @@
         <v>45</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>57</v>
+        <v>324</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>329</v>
+        <v>397</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
+        <v>398</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>400</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>45</v>
       </c>
@@ -6798,19 +6813,19 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>331</v>
+        <v>396</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>45</v>
@@ -6819,10 +6834,10 @@
         <v>45</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>45</v>
+        <v>401</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>332</v>
+        <v>402</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
@@ -6833,18 +6848,18 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>45</v>
@@ -6856,17 +6871,15 @@
         <v>45</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="L46" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>120</v>
-      </c>
+      <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>45</v>
@@ -6915,31 +6928,31 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM46" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>45</v>
@@ -6950,11 +6963,11 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>338</v>
+        <v>121</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -6967,26 +6980,24 @@
         <v>45</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J47" t="s" s="2">
         <v>100</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="L47" t="s" s="2">
-        <v>340</v>
-      </c>
       <c r="M47" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>121</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>45</v>
       </c>
@@ -7034,7 +7045,7 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
@@ -7058,7 +7069,7 @@
         <v>45</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>98</v>
+        <v>336</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>45</v>
@@ -7069,42 +7080,42 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>45</v>
+        <v>342</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>164</v>
+        <v>100</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>403</v>
+        <v>343</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>404</v>
+        <v>344</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>405</v>
+        <v>124</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>178</v>
+        <v>125</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>45</v>
@@ -7129,13 +7140,13 @@
         <v>45</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>285</v>
+        <v>45</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>406</v>
+        <v>45</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>407</v>
+        <v>45</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>45</v>
@@ -7153,34 +7164,34 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>402</v>
+        <v>345</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>408</v>
+        <v>45</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>182</v>
+        <v>45</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>183</v>
+        <v>98</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>184</v>
+        <v>45</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>45</v>
@@ -7188,7 +7199,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7196,7 +7207,7 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>55</v>
@@ -7211,19 +7222,19 @@
         <v>56</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>410</v>
+        <v>168</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>243</v>
+        <v>408</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>245</v>
+        <v>182</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>45</v>
@@ -7248,13 +7259,13 @@
         <v>45</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>45</v>
+        <v>289</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>45</v>
+        <v>410</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>45</v>
+        <v>411</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>45</v>
@@ -7272,10 +7283,10 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>55</v>
@@ -7290,24 +7301,24 @@
         <v>45</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>248</v>
+        <v>186</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>249</v>
+        <v>187</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>45</v>
+        <v>188</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>250</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7327,22 +7338,22 @@
         <v>45</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>164</v>
+        <v>414</v>
       </c>
       <c r="K50" t="s" s="2">
         <v>415</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="M50" t="s" s="2">
-        <v>417</v>
-      </c>
       <c r="N50" t="s" s="2">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>45</v>
@@ -7367,13 +7378,13 @@
         <v>45</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>256</v>
+        <v>45</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>257</v>
+        <v>45</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>258</v>
+        <v>45</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>45</v>
@@ -7391,7 +7402,7 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
@@ -7400,7 +7411,7 @@
         <v>55</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>259</v>
+        <v>45</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>67</v>
@@ -7409,19 +7420,19 @@
         <v>45</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>45</v>
+        <v>417</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>98</v>
+        <v>252</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>45</v>
+        <v>254</v>
       </c>
     </row>
     <row r="51" hidden="true">
@@ -7430,14 +7441,14 @@
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>262</v>
+        <v>45</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>45</v>
@@ -7449,19 +7460,19 @@
         <v>45</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>263</v>
+        <v>419</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>264</v>
+        <v>420</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>265</v>
+        <v>421</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>45</v>
@@ -7486,13 +7497,13 @@
         <v>45</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>45</v>
@@ -7516,10 +7527,10 @@
         <v>43</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>45</v>
+        <v>263</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>67</v>
@@ -7528,28 +7539,28 @@
         <v>45</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>269</v>
+        <v>45</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>270</v>
+        <v>98</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>272</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>45</v>
+        <v>266</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7568,19 +7579,19 @@
         <v>45</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>45</v>
+        <v>168</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>420</v>
+        <v>267</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>421</v>
+        <v>268</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>323</v>
+        <v>269</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>324</v>
+        <v>270</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>45</v>
@@ -7605,13 +7616,13 @@
         <v>45</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>45</v>
+        <v>260</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>45</v>
+        <v>271</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>45</v>
+        <v>272</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>45</v>
@@ -7629,7 +7640,7 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
@@ -7647,23 +7658,142 @@
         <v>45</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>45</v>
+        <v>273</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>326</v>
+        <v>274</v>
       </c>
       <c r="AM52" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO52" t="s" s="2">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="53" hidden="true">
+      <c r="A53" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="AN52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO52" t="s" s="2">
+      <c r="N53" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO53" t="s" s="2">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO52">
+  <autoFilter ref="A1:AO53">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7673,7 +7803,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI51">
+  <conditionalFormatting sqref="A2:AI52">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-pacio-bfs.xlsx
+++ b/StructureDefinition-pacio-bfs.xlsx
@@ -384,7 +384,7 @@
     <t>device-use</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://pacioproject.org/StructureDefinition/device-patient-used}
+    <t xml:space="preserve">Extension {https://paciowg.github.io/functional-status-ig/StructureDefinition/device-patient-used}
 </t>
   </si>
   <si>
@@ -1510,47 +1510,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="14.19921875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="43.6015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.9921875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="67.91015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="66.26953125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="64.703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="57.1328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="62.18359375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="56.66015625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="247.40625" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="239.703125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="107.01953125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="42.34375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="103.87890625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="37.70703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/StructureDefinition-pacio-bfs.xlsx
+++ b/StructureDefinition-pacio-bfs.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$55</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1980" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2054" uniqueCount="430">
   <si>
     <t>Path</t>
   </si>
@@ -392,6 +392,20 @@
   </si>
   <si>
     <t>Optional Extension Element - found in all resources.</t>
+  </si>
+  <si>
+    <t>grouped-bundled-functional-status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://paciowg.github.io/functional-status-ig/StructureDefinition/grouped-bundled-functional-status}
+</t>
+  </si>
+  <si>
+    <t>grouping-name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://paciowg.github.io/functional-status-ig/StructureDefinition/grouping-name}
+</t>
   </si>
   <si>
     <t>Observation.modifierExtension</t>
@@ -1501,7 +1515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO53"/>
+  <dimension ref="A1:AO55"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1510,47 +1524,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="43.6015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.9921875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="32.890625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="66.26953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="67.91015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="62.18359375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="56.66015625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="64.703125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="57.1328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="239.703125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="247.40625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="103.87890625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="37.70703125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="107.01953125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="42.34375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2846,11 +2860,13 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>121</v>
+        <v>45</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -2863,26 +2879,22 @@
         <v>45</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>45</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>125</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>45</v>
       </c>
@@ -2930,7 +2942,7 @@
         <v>45</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>43</v>
@@ -2939,7 +2951,7 @@
         <v>44</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>106</v>
@@ -2965,9 +2977,11 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>122</v>
+      </c>
       <c r="C13" t="s" s="2">
         <v>45</v>
       </c>
@@ -2985,21 +2999,19 @@
         <v>45</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="M13" s="2"/>
-      <c r="N13" t="s" s="2">
-        <v>131</v>
-      </c>
+      <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>45</v>
       </c>
@@ -3047,7 +3059,7 @@
         <v>45</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>43</v>
@@ -3056,25 +3068,25 @@
         <v>44</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>132</v>
+        <v>45</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>134</v>
+        <v>98</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>45</v>
@@ -3082,11 +3094,11 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -3099,23 +3111,25 @@
         <v>45</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="M14" s="2"/>
+        <v>127</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>128</v>
+      </c>
       <c r="N14" t="s" s="2">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>45</v>
@@ -3164,7 +3178,7 @@
         <v>45</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>43</v>
@@ -3176,19 +3190,19 @@
         <v>45</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>142</v>
+        <v>45</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>143</v>
+        <v>45</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>144</v>
+        <v>98</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>45</v>
@@ -3199,11 +3213,11 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>146</v>
+        <v>45</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3222,18 +3236,18 @@
         <v>56</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="N15" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O15" t="s" s="2">
         <v>45</v>
       </c>
@@ -3281,7 +3295,7 @@
         <v>45</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>43</v>
@@ -3296,19 +3310,19 @@
         <v>67</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>45</v>
+        <v>139</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>45</v>
@@ -3316,42 +3330,40 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>45</v>
+        <v>141</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="M16" s="2"/>
       <c r="N16" t="s" s="2">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>45</v>
@@ -3376,13 +3388,13 @@
         <v>45</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>159</v>
+        <v>45</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>160</v>
+        <v>45</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>161</v>
+        <v>45</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>45</v>
@@ -3400,13 +3412,13 @@
         <v>45</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>45</v>
@@ -3415,19 +3427,19 @@
         <v>67</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>163</v>
+        <v>45</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>166</v>
+        <v>45</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>45</v>
@@ -3435,18 +3447,18 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>45</v>
@@ -3455,23 +3467,21 @@
         <v>45</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>172</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>45</v>
       </c>
@@ -3495,13 +3505,13 @@
         <v>45</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>173</v>
+        <v>45</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>174</v>
+        <v>45</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>45</v>
@@ -3519,7 +3529,7 @@
         <v>45</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>43</v>
@@ -3534,19 +3544,19 @@
         <v>67</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>45</v>
+        <v>156</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>176</v>
+        <v>45</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>45</v>
@@ -3554,11 +3564,11 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>178</v>
+        <v>45</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3571,25 +3581,25 @@
         <v>45</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>168</v>
+        <v>75</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>45</v>
@@ -3614,11 +3624,13 @@
         <v>45</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="X18" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="Y18" t="s" s="2">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>45</v>
@@ -3636,7 +3648,7 @@
         <v>45</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>55</v>
@@ -3651,27 +3663,27 @@
         <v>67</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>189</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3691,22 +3703,22 @@
         <v>45</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>45</v>
@@ -3731,13 +3743,13 @@
         <v>45</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>45</v>
+        <v>177</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>45</v>
+        <v>178</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>45</v>
@@ -3755,13 +3767,13 @@
         <v>45</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>45</v>
@@ -3770,19 +3782,19 @@
         <v>67</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>196</v>
+        <v>45</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>197</v>
+        <v>45</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>45</v>
@@ -3790,18 +3802,18 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>45</v>
+        <v>182</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>45</v>
@@ -3813,18 +3825,20 @@
         <v>56</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>201</v>
+        <v>172</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="O20" t="s" s="2">
         <v>45</v>
       </c>
@@ -3848,13 +3862,11 @@
         <v>45</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X20" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="X20" s="2"/>
       <c r="Y20" t="s" s="2">
-        <v>45</v>
+        <v>187</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>45</v>
@@ -3872,13 +3884,13 @@
         <v>45</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>45</v>
@@ -3887,35 +3899,35 @@
         <v>67</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>45</v>
+        <v>188</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>45</v>
+        <v>189</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>45</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>207</v>
+        <v>45</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>55</v>
@@ -3930,19 +3942,19 @@
         <v>56</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>45</v>
@@ -3991,7 +4003,7 @@
         <v>45</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>43</v>
@@ -4006,19 +4018,19 @@
         <v>67</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>45</v>
@@ -4026,18 +4038,18 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>218</v>
+        <v>45</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>45</v>
@@ -4049,20 +4061,18 @@
         <v>56</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>45</v>
       </c>
@@ -4110,13 +4120,13 @@
         <v>45</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>45</v>
@@ -4125,19 +4135,19 @@
         <v>67</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>224</v>
+        <v>45</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>45</v>
@@ -4145,11 +4155,11 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>45</v>
+        <v>211</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -4168,18 +4178,20 @@
         <v>56</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="O23" t="s" s="2">
         <v>45</v>
       </c>
@@ -4227,7 +4239,7 @@
         <v>45</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>43</v>
@@ -4242,19 +4254,19 @@
         <v>67</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>45</v>
+        <v>217</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>45</v>
@@ -4262,18 +4274,18 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>45</v>
+        <v>222</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s" s="2">
         <v>55</v>
-      </c>
-      <c r="F24" t="s" s="2">
-        <v>44</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>45</v>
@@ -4285,17 +4297,19 @@
         <v>56</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="M24" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="N24" t="s" s="2">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>45</v>
@@ -4344,13 +4358,13 @@
         <v>45</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>45</v>
@@ -4359,19 +4373,19 @@
         <v>67</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>45</v>
@@ -4379,7 +4393,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4402,20 +4416,18 @@
         <v>56</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>168</v>
+        <v>233</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>45</v>
       </c>
@@ -4463,7 +4475,7 @@
         <v>45</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
@@ -4472,7 +4484,7 @@
         <v>55</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>250</v>
+        <v>45</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>67</v>
@@ -4481,24 +4493,24 @@
         <v>45</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>251</v>
+        <v>45</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>45</v>
+        <v>239</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>254</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4506,10 +4518,10 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>45</v>
@@ -4518,22 +4530,20 @@
         <v>45</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>168</v>
+        <v>241</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>258</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="M26" s="2"/>
       <c r="N26" t="s" s="2">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>45</v>
@@ -4558,13 +4568,13 @@
         <v>45</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>260</v>
+        <v>45</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>261</v>
+        <v>45</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>262</v>
+        <v>45</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>45</v>
@@ -4582,34 +4592,34 @@
         <v>45</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>263</v>
+        <v>45</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>67</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>45</v>
+        <v>245</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>98</v>
+        <v>246</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>45</v>
+        <v>248</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>45</v>
@@ -4617,18 +4627,18 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>266</v>
+        <v>45</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>45</v>
@@ -4637,22 +4647,22 @@
         <v>45</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>45</v>
@@ -4677,13 +4687,13 @@
         <v>45</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>260</v>
+        <v>45</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>271</v>
+        <v>45</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>272</v>
+        <v>45</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>45</v>
@@ -4701,16 +4711,16 @@
         <v>45</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>45</v>
+        <v>254</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>67</v>
@@ -4719,24 +4729,24 @@
         <v>45</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>276</v>
+        <v>258</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4747,7 +4757,7 @@
         <v>43</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>45</v>
@@ -4759,19 +4769,19 @@
         <v>45</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>278</v>
+        <v>172</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>45</v>
@@ -4796,13 +4806,13 @@
         <v>45</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>45</v>
+        <v>264</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>45</v>
+        <v>265</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>45</v>
+        <v>266</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>45</v>
@@ -4820,16 +4830,16 @@
         <v>45</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>45</v>
+        <v>267</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>67</v>
@@ -4841,10 +4851,10 @@
         <v>45</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>283</v>
+        <v>98</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>45</v>
@@ -4855,18 +4865,18 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>45</v>
+        <v>270</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>45</v>
@@ -4878,18 +4888,20 @@
         <v>45</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>45</v>
       </c>
@@ -4913,13 +4925,13 @@
         <v>45</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>289</v>
+        <v>264</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>45</v>
@@ -4937,13 +4949,13 @@
         <v>45</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>45</v>
@@ -4955,24 +4967,24 @@
         <v>45</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>295</v>
+        <v>280</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4983,7 +4995,7 @@
         <v>43</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>45</v>
@@ -4995,19 +5007,19 @@
         <v>45</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>168</v>
+        <v>282</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>45</v>
@@ -5032,13 +5044,13 @@
         <v>45</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>289</v>
+        <v>45</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>301</v>
+        <v>45</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>302</v>
+        <v>45</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>45</v>
@@ -5056,13 +5068,13 @@
         <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>45</v>
@@ -5077,10 +5089,10 @@
         <v>45</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>45</v>
@@ -5091,7 +5103,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5114,16 +5126,16 @@
         <v>45</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>306</v>
+        <v>172</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5149,13 +5161,13 @@
         <v>45</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>45</v>
+        <v>293</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>45</v>
+        <v>294</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>45</v>
+        <v>295</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>45</v>
@@ -5173,7 +5185,7 @@
         <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
@@ -5191,24 +5203,24 @@
         <v>45</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>313</v>
+        <v>299</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5231,18 +5243,20 @@
         <v>45</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>315</v>
+        <v>172</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>304</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>45</v>
       </c>
@@ -5266,13 +5280,13 @@
         <v>45</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>45</v>
+        <v>293</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>45</v>
+        <v>305</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>45</v>
+        <v>306</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>45</v>
@@ -5290,7 +5304,7 @@
         <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
@@ -5308,24 +5322,24 @@
         <v>45</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>319</v>
+        <v>45</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>322</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5336,7 +5350,7 @@
         <v>43</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>45</v>
@@ -5348,20 +5362,18 @@
         <v>45</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>328</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>45</v>
       </c>
@@ -5409,42 +5421,42 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>329</v>
+        <v>67</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>45</v>
+        <v>314</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>45</v>
+        <v>317</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5467,15 +5479,17 @@
         <v>45</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>57</v>
+        <v>319</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>45</v>
@@ -5524,7 +5538,7 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
@@ -5536,34 +5550,34 @@
         <v>45</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>45</v>
+        <v>323</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>45</v>
+        <v>324</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>45</v>
+        <v>326</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>121</v>
+        <v>45</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5582,18 +5596,20 @@
         <v>45</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>100</v>
+        <v>328</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>331</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>332</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>45</v>
       </c>
@@ -5641,7 +5657,7 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
@@ -5653,7 +5669,7 @@
         <v>45</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>106</v>
+        <v>333</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>45</v>
@@ -5662,10 +5678,10 @@
         <v>45</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>45</v>
+        <v>334</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>45</v>
@@ -5676,43 +5692,39 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>342</v>
+        <v>45</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>125</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>45</v>
       </c>
@@ -5760,19 +5772,19 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>45</v>
@@ -5784,7 +5796,7 @@
         <v>45</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>98</v>
+        <v>340</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>45</v>
@@ -5795,18 +5807,18 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>45</v>
@@ -5818,15 +5830,17 @@
         <v>45</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>347</v>
+        <v>100</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>343</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>128</v>
+      </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>45</v>
@@ -5875,19 +5889,19 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>350</v>
+        <v>45</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>45</v>
@@ -5896,10 +5910,10 @@
         <v>45</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>351</v>
+        <v>45</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>45</v>
@@ -5910,39 +5924,43 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>45</v>
+        <v>346</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="K38" t="s" s="2">
-        <v>354</v>
-      </c>
       <c r="L38" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
+        <v>348</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>129</v>
+      </c>
       <c r="O38" t="s" s="2">
         <v>45</v>
       </c>
@@ -5990,19 +6008,19 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>350</v>
+        <v>45</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>45</v>
@@ -6011,10 +6029,10 @@
         <v>45</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>351</v>
+        <v>45</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>356</v>
+        <v>98</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>45</v>
@@ -6025,7 +6043,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6048,20 +6066,16 @@
         <v>45</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>168</v>
+        <v>351</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>361</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>45</v>
       </c>
@@ -6085,13 +6099,13 @@
         <v>45</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>362</v>
+        <v>45</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>363</v>
+        <v>45</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>45</v>
@@ -6109,7 +6123,7 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
@@ -6118,7 +6132,7 @@
         <v>55</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>45</v>
+        <v>354</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>67</v>
@@ -6127,13 +6141,13 @@
         <v>45</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>364</v>
+        <v>45</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>275</v>
+        <v>356</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>45</v>
@@ -6144,7 +6158,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6155,7 +6169,7 @@
         <v>43</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>45</v>
@@ -6167,20 +6181,16 @@
         <v>45</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>168</v>
+        <v>351</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>370</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>45</v>
       </c>
@@ -6204,13 +6214,13 @@
         <v>45</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>289</v>
+        <v>45</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>371</v>
+        <v>45</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>372</v>
+        <v>45</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>45</v>
@@ -6228,16 +6238,16 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>45</v>
+        <v>354</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>67</v>
@@ -6246,13 +6256,13 @@
         <v>45</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>364</v>
+        <v>45</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>275</v>
+        <v>360</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>45</v>
@@ -6263,7 +6273,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6286,17 +6296,19 @@
         <v>45</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>374</v>
+        <v>172</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="M41" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>364</v>
+      </c>
       <c r="N41" t="s" s="2">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>45</v>
@@ -6321,13 +6333,13 @@
         <v>45</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>45</v>
+        <v>366</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>45</v>
+        <v>367</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>45</v>
@@ -6345,7 +6357,7 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
@@ -6363,13 +6375,13 @@
         <v>45</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>45</v>
+        <v>368</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>45</v>
+        <v>369</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>378</v>
+        <v>279</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>45</v>
@@ -6380,7 +6392,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6391,7 +6403,7 @@
         <v>43</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>45</v>
@@ -6403,16 +6415,20 @@
         <v>45</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>57</v>
+        <v>172</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
+        <v>372</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>374</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>45</v>
       </c>
@@ -6436,13 +6452,13 @@
         <v>45</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>45</v>
+        <v>293</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>45</v>
+        <v>375</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>45</v>
+        <v>376</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>45</v>
@@ -6460,13 +6476,13 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>45</v>
@@ -6478,13 +6494,13 @@
         <v>45</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>45</v>
+        <v>368</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>382</v>
+        <v>279</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>45</v>
@@ -6495,7 +6511,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6506,7 +6522,7 @@
         <v>43</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>45</v>
@@ -6515,21 +6531,21 @@
         <v>45</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>380</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" t="s" s="2">
+        <v>381</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>45</v>
       </c>
@@ -6577,13 +6593,13 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>45</v>
@@ -6598,10 +6614,10 @@
         <v>45</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>388</v>
+        <v>45</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>45</v>
@@ -6612,7 +6628,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6623,7 +6639,7 @@
         <v>43</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>45</v>
@@ -6632,20 +6648,18 @@
         <v>45</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>391</v>
+        <v>57</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>394</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>45</v>
@@ -6694,13 +6708,13 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>45</v>
@@ -6715,10 +6729,10 @@
         <v>45</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>388</v>
+        <v>355</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>45</v>
@@ -6729,7 +6743,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6752,20 +6766,18 @@
         <v>56</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>324</v>
+        <v>388</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>400</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>45</v>
       </c>
@@ -6813,7 +6825,7 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
@@ -6834,10 +6846,10 @@
         <v>45</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
@@ -6848,7 +6860,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6859,7 +6871,7 @@
         <v>43</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>45</v>
@@ -6868,18 +6880,20 @@
         <v>45</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>57</v>
+        <v>395</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>333</v>
+        <v>396</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="M46" s="2"/>
+        <v>397</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>398</v>
+      </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>45</v>
@@ -6928,19 +6942,19 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>335</v>
+        <v>394</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>45</v>
@@ -6949,10 +6963,10 @@
         <v>45</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>45</v>
+        <v>392</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>336</v>
+        <v>399</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>45</v>
@@ -6963,11 +6977,11 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>121</v>
+        <v>45</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -6983,21 +6997,23 @@
         <v>45</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>100</v>
+        <v>328</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>338</v>
+        <v>401</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>339</v>
+        <v>402</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>403</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>404</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>45</v>
       </c>
@@ -7045,7 +7061,7 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
@@ -7057,7 +7073,7 @@
         <v>45</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>45</v>
@@ -7066,10 +7082,10 @@
         <v>45</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>45</v>
+        <v>405</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>336</v>
+        <v>406</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>45</v>
@@ -7080,43 +7096,39 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>342</v>
+        <v>45</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>125</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>45</v>
       </c>
@@ -7164,19 +7176,19 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>45</v>
@@ -7188,7 +7200,7 @@
         <v>45</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>98</v>
+        <v>340</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>45</v>
@@ -7199,18 +7211,18 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>45</v>
@@ -7219,23 +7231,21 @@
         <v>45</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>168</v>
+        <v>100</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>407</v>
+        <v>342</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>408</v>
+        <v>343</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>45</v>
       </c>
@@ -7259,13 +7269,13 @@
         <v>45</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>289</v>
+        <v>45</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>410</v>
+        <v>45</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>411</v>
+        <v>45</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>45</v>
@@ -7283,34 +7293,34 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>406</v>
+        <v>344</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>412</v>
+        <v>45</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>186</v>
+        <v>45</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>187</v>
+        <v>340</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>188</v>
+        <v>45</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>45</v>
@@ -7318,42 +7328,42 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>45</v>
+        <v>346</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>414</v>
+        <v>100</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>415</v>
+        <v>347</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>247</v>
+        <v>348</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>416</v>
+        <v>128</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>249</v>
+        <v>129</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>45</v>
@@ -7402,42 +7412,42 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>413</v>
+        <v>349</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>417</v>
+        <v>45</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>252</v>
+        <v>45</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>253</v>
+        <v>98</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>254</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7445,7 +7455,7 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>55</v>
@@ -7457,22 +7467,22 @@
         <v>45</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>259</v>
+        <v>186</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>45</v>
@@ -7497,13 +7507,13 @@
         <v>45</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>260</v>
+        <v>293</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>261</v>
+        <v>414</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>262</v>
+        <v>415</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>45</v>
@@ -7521,16 +7531,16 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>55</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>263</v>
+        <v>45</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>67</v>
@@ -7539,16 +7549,16 @@
         <v>45</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>45</v>
+        <v>416</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>98</v>
+        <v>190</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>264</v>
+        <v>191</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>45</v>
+        <v>192</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>45</v>
@@ -7556,18 +7566,18 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>266</v>
+        <v>45</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>45</v>
@@ -7576,22 +7586,22 @@
         <v>45</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>168</v>
+        <v>418</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>267</v>
+        <v>419</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>269</v>
+        <v>420</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>45</v>
@@ -7616,13 +7626,13 @@
         <v>45</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>260</v>
+        <v>45</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>271</v>
+        <v>45</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>272</v>
+        <v>45</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>45</v>
@@ -7640,13 +7650,13 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>45</v>
@@ -7658,24 +7668,24 @@
         <v>45</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>273</v>
+        <v>421</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>276</v>
+        <v>258</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7686,7 +7696,7 @@
         <v>43</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>45</v>
@@ -7698,19 +7708,19 @@
         <v>45</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>45</v>
+        <v>172</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="M53" t="s" s="2">
-        <v>327</v>
-      </c>
       <c r="N53" t="s" s="2">
-        <v>328</v>
+        <v>263</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>45</v>
@@ -7735,13 +7745,13 @@
         <v>45</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>45</v>
+        <v>264</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>45</v>
+        <v>265</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>45</v>
+        <v>266</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>45</v>
@@ -7759,16 +7769,16 @@
         <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>45</v>
+        <v>267</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>67</v>
@@ -7780,20 +7790,258 @@
         <v>45</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>330</v>
+        <v>98</v>
       </c>
       <c r="AM53" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO53" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" hidden="true">
+      <c r="A54" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO54" t="s" s="2">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="55" hidden="true">
+      <c r="A55" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="AN53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO53" t="s" s="2">
+      <c r="N55" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO55" t="s" s="2">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO53">
+  <autoFilter ref="A1:AO55">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7803,7 +8051,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI52">
+  <conditionalFormatting sqref="A2:AI54">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-pacio-bfs.xlsx
+++ b/StructureDefinition-pacio-bfs.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$53</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2054" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1980" uniqueCount="426">
   <si>
     <t>Path</t>
   </si>
@@ -392,20 +392,6 @@
   </si>
   <si>
     <t>Optional Extension Element - found in all resources.</t>
-  </si>
-  <si>
-    <t>grouped-bundled-functional-status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://paciowg.github.io/functional-status-ig/StructureDefinition/grouped-bundled-functional-status}
-</t>
-  </si>
-  <si>
-    <t>grouping-name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://paciowg.github.io/functional-status-ig/StructureDefinition/grouping-name}
-</t>
   </si>
   <si>
     <t>Observation.modifierExtension</t>
@@ -1515,7 +1501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO55"/>
+  <dimension ref="A1:AO53"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1524,47 +1510,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="32.890625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="43.6015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.9921875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="67.91015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="66.26953125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="64.703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="57.1328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="62.18359375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="56.66015625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="247.40625" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="239.703125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="107.01953125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="42.34375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="103.87890625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="37.70703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2860,13 +2846,11 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="B12" t="s" s="2">
         <v>120</v>
       </c>
+      <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>45</v>
+        <v>121</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -2879,22 +2863,26 @@
         <v>45</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>45</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
+        <v>123</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>125</v>
+      </c>
       <c r="O12" t="s" s="2">
         <v>45</v>
       </c>
@@ -2942,7 +2930,7 @@
         <v>45</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>43</v>
@@ -2951,7 +2939,7 @@
         <v>44</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>106</v>
@@ -2977,11 +2965,9 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>122</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
         <v>45</v>
       </c>
@@ -2999,19 +2985,21 @@
         <v>45</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
+      <c r="N13" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="O13" t="s" s="2">
         <v>45</v>
       </c>
@@ -3059,7 +3047,7 @@
         <v>45</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>43</v>
@@ -3068,25 +3056,25 @@
         <v>44</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>45</v>
+        <v>132</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>98</v>
+        <v>134</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>45</v>
@@ -3094,11 +3082,11 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -3111,25 +3099,23 @@
         <v>45</v>
       </c>
       <c r="H14" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I14" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="I14" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="J14" t="s" s="2">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>128</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="M14" s="2"/>
       <c r="N14" t="s" s="2">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>45</v>
@@ -3178,7 +3164,7 @@
         <v>45</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>43</v>
@@ -3190,19 +3176,19 @@
         <v>45</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>45</v>
+        <v>142</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>45</v>
+        <v>143</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>45</v>
@@ -3213,11 +3199,11 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>45</v>
+        <v>146</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3236,18 +3222,18 @@
         <v>56</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="M15" s="2"/>
-      <c r="N15" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>45</v>
       </c>
@@ -3295,7 +3281,7 @@
         <v>45</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>43</v>
@@ -3310,19 +3296,19 @@
         <v>67</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>139</v>
+        <v>45</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>45</v>
@@ -3330,40 +3316,42 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>141</v>
+        <v>45</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>142</v>
+        <v>75</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="M16" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="N16" t="s" s="2">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>45</v>
@@ -3388,13 +3376,13 @@
         <v>45</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>45</v>
+        <v>159</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>45</v>
+        <v>160</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>45</v>
+        <v>161</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>45</v>
@@ -3412,13 +3400,13 @@
         <v>45</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>45</v>
@@ -3427,19 +3415,19 @@
         <v>67</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>45</v>
+        <v>163</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>45</v>
+        <v>166</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>45</v>
@@ -3447,18 +3435,18 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>45</v>
@@ -3467,21 +3455,23 @@
         <v>45</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>171</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="O17" t="s" s="2">
         <v>45</v>
       </c>
@@ -3505,13 +3495,13 @@
         <v>45</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>45</v>
+        <v>173</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>45</v>
+        <v>174</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>45</v>
@@ -3529,7 +3519,7 @@
         <v>45</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>43</v>
@@ -3544,19 +3534,19 @@
         <v>67</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>155</v>
+        <v>45</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>156</v>
+        <v>45</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>45</v>
+        <v>176</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>45</v>
@@ -3564,11 +3554,11 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>45</v>
+        <v>178</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3581,25 +3571,25 @@
         <v>45</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>75</v>
+        <v>168</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>45</v>
@@ -3624,13 +3614,11 @@
         <v>45</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="X18" s="2"/>
       <c r="Y18" t="s" s="2">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>45</v>
@@ -3648,7 +3636,7 @@
         <v>45</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>55</v>
@@ -3663,27 +3651,27 @@
         <v>67</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>45</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3703,22 +3691,22 @@
         <v>45</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>45</v>
@@ -3743,13 +3731,13 @@
         <v>45</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>177</v>
+        <v>45</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>178</v>
+        <v>45</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>45</v>
@@ -3767,13 +3755,13 @@
         <v>45</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>45</v>
@@ -3782,19 +3770,19 @@
         <v>67</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>45</v>
+        <v>196</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>45</v>
+        <v>197</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>45</v>
@@ -3802,18 +3790,18 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>182</v>
+        <v>45</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>45</v>
@@ -3825,20 +3813,18 @@
         <v>56</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>172</v>
+        <v>201</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>186</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>45</v>
       </c>
@@ -3862,11 +3848,13 @@
         <v>45</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="X20" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="Y20" t="s" s="2">
-        <v>187</v>
+        <v>45</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>45</v>
@@ -3884,13 +3872,13 @@
         <v>45</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>45</v>
@@ -3899,35 +3887,35 @@
         <v>67</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>188</v>
+        <v>45</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>189</v>
+        <v>45</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>193</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>45</v>
+        <v>207</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>55</v>
@@ -3942,19 +3930,19 @@
         <v>56</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>45</v>
@@ -4003,7 +3991,7 @@
         <v>45</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>43</v>
@@ -4018,19 +4006,19 @@
         <v>67</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>45</v>
@@ -4038,18 +4026,18 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>45</v>
+        <v>218</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>45</v>
@@ -4061,18 +4049,20 @@
         <v>56</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="O22" t="s" s="2">
         <v>45</v>
       </c>
@@ -4120,13 +4110,13 @@
         <v>45</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>45</v>
@@ -4135,19 +4125,19 @@
         <v>67</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>45</v>
+        <v>224</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>45</v>
@@ -4155,11 +4145,11 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>211</v>
+        <v>45</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -4178,20 +4168,18 @@
         <v>56</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>216</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>45</v>
       </c>
@@ -4239,7 +4227,7 @@
         <v>45</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>43</v>
@@ -4254,19 +4242,19 @@
         <v>67</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>217</v>
+        <v>45</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>45</v>
@@ -4274,18 +4262,18 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>222</v>
+        <v>45</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>45</v>
@@ -4297,19 +4285,17 @@
         <v>56</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>226</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="M24" s="2"/>
       <c r="N24" t="s" s="2">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>45</v>
@@ -4358,13 +4344,13 @@
         <v>45</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>45</v>
@@ -4373,19 +4359,19 @@
         <v>67</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>45</v>
@@ -4393,7 +4379,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4416,18 +4402,20 @@
         <v>56</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>233</v>
+        <v>168</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>248</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>45</v>
       </c>
@@ -4475,7 +4463,7 @@
         <v>45</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
@@ -4484,7 +4472,7 @@
         <v>55</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>45</v>
+        <v>250</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>67</v>
@@ -4493,24 +4481,24 @@
         <v>45</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>45</v>
+        <v>251</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>239</v>
+        <v>45</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>45</v>
+        <v>254</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4518,11 +4506,11 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s" s="2">
         <v>55</v>
       </c>
-      <c r="F26" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="G26" t="s" s="2">
         <v>45</v>
       </c>
@@ -4530,20 +4518,22 @@
         <v>45</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="M26" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>258</v>
+      </c>
       <c r="N26" t="s" s="2">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>45</v>
@@ -4568,13 +4558,13 @@
         <v>45</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>45</v>
+        <v>260</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>45</v>
+        <v>261</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>45</v>
+        <v>262</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>45</v>
@@ -4592,34 +4582,34 @@
         <v>45</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>45</v>
+        <v>263</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>67</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>245</v>
+        <v>45</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>246</v>
+        <v>98</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>248</v>
+        <v>45</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>45</v>
@@ -4627,18 +4617,18 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>45</v>
+        <v>266</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>45</v>
@@ -4647,22 +4637,22 @@
         <v>45</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>45</v>
@@ -4687,13 +4677,13 @@
         <v>45</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>45</v>
+        <v>260</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>45</v>
+        <v>271</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>45</v>
+        <v>272</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>45</v>
@@ -4711,16 +4701,16 @@
         <v>45</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>254</v>
+        <v>45</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>67</v>
@@ -4729,24 +4719,24 @@
         <v>45</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>258</v>
+        <v>276</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4757,7 +4747,7 @@
         <v>43</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>45</v>
@@ -4769,19 +4759,19 @@
         <v>45</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>172</v>
+        <v>278</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>45</v>
@@ -4806,13 +4796,13 @@
         <v>45</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>264</v>
+        <v>45</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>265</v>
+        <v>45</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>266</v>
+        <v>45</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>45</v>
@@ -4830,16 +4820,16 @@
         <v>45</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>267</v>
+        <v>45</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>67</v>
@@ -4851,10 +4841,10 @@
         <v>45</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>98</v>
+        <v>283</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>45</v>
@@ -4865,18 +4855,18 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>270</v>
+        <v>45</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>45</v>
@@ -4888,20 +4878,18 @@
         <v>45</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>274</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>45</v>
       </c>
@@ -4925,13 +4913,13 @@
         <v>45</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>45</v>
@@ -4949,13 +4937,13 @@
         <v>45</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>45</v>
@@ -4967,24 +4955,24 @@
         <v>45</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>280</v>
+        <v>295</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4995,7 +4983,7 @@
         <v>43</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>45</v>
@@ -5007,19 +4995,19 @@
         <v>45</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>282</v>
+        <v>168</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>45</v>
@@ -5044,13 +5032,13 @@
         <v>45</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>45</v>
+        <v>289</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>45</v>
+        <v>301</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>45</v>
+        <v>302</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>45</v>
@@ -5068,13 +5056,13 @@
         <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>45</v>
@@ -5089,10 +5077,10 @@
         <v>45</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>45</v>
@@ -5103,7 +5091,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5126,16 +5114,16 @@
         <v>45</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>172</v>
+        <v>306</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5161,13 +5149,13 @@
         <v>45</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>293</v>
+        <v>45</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>294</v>
+        <v>45</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>295</v>
+        <v>45</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>45</v>
@@ -5185,7 +5173,7 @@
         <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
@@ -5203,24 +5191,24 @@
         <v>45</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>299</v>
+        <v>313</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5243,20 +5231,18 @@
         <v>45</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>172</v>
+        <v>315</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>304</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>45</v>
       </c>
@@ -5280,13 +5266,13 @@
         <v>45</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>293</v>
+        <v>45</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>305</v>
+        <v>45</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>306</v>
+        <v>45</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>45</v>
@@ -5304,7 +5290,7 @@
         <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
@@ -5322,24 +5308,24 @@
         <v>45</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>45</v>
+        <v>319</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>45</v>
+        <v>322</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5350,7 +5336,7 @@
         <v>43</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>45</v>
@@ -5362,18 +5348,20 @@
         <v>45</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>328</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>45</v>
       </c>
@@ -5421,42 +5409,42 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>67</v>
+        <v>329</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>314</v>
+        <v>45</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>317</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5479,17 +5467,15 @@
         <v>45</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>319</v>
+        <v>57</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>45</v>
@@ -5538,7 +5524,7 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
@@ -5550,34 +5536,34 @@
         <v>45</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>323</v>
+        <v>45</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>324</v>
+        <v>45</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>326</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>45</v>
+        <v>121</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5596,20 +5582,18 @@
         <v>45</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>328</v>
+        <v>100</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>332</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>45</v>
       </c>
@@ -5657,7 +5641,7 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
@@ -5669,7 +5653,7 @@
         <v>45</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>333</v>
+        <v>106</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>45</v>
@@ -5678,10 +5662,10 @@
         <v>45</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>334</v>
+        <v>45</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>45</v>
@@ -5692,39 +5676,43 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>45</v>
+        <v>342</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>125</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>45</v>
       </c>
@@ -5772,19 +5760,19 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>45</v>
@@ -5796,7 +5784,7 @@
         <v>45</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>340</v>
+        <v>98</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>45</v>
@@ -5807,18 +5795,18 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>45</v>
@@ -5830,17 +5818,15 @@
         <v>45</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>100</v>
+        <v>347</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>128</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>45</v>
@@ -5889,19 +5875,19 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>45</v>
+        <v>350</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>45</v>
@@ -5910,10 +5896,10 @@
         <v>45</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>45</v>
+        <v>351</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>45</v>
@@ -5924,43 +5910,39 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>346</v>
+        <v>45</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>100</v>
+        <v>347</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>129</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>45</v>
       </c>
@@ -6008,19 +5990,19 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>45</v>
+        <v>350</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>45</v>
@@ -6029,10 +6011,10 @@
         <v>45</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>45</v>
+        <v>351</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>98</v>
+        <v>356</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>45</v>
@@ -6043,7 +6025,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6066,16 +6048,20 @@
         <v>45</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>351</v>
+        <v>168</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>361</v>
+      </c>
       <c r="O39" t="s" s="2">
         <v>45</v>
       </c>
@@ -6099,13 +6085,13 @@
         <v>45</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>45</v>
+        <v>362</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>45</v>
+        <v>363</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>45</v>
@@ -6123,7 +6109,7 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
@@ -6132,7 +6118,7 @@
         <v>55</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>354</v>
+        <v>45</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>67</v>
@@ -6141,13 +6127,13 @@
         <v>45</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>45</v>
+        <v>364</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>356</v>
+        <v>275</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>45</v>
@@ -6158,7 +6144,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6169,7 +6155,7 @@
         <v>43</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>45</v>
@@ -6181,16 +6167,20 @@
         <v>45</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>351</v>
+        <v>168</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
+        <v>368</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>370</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>45</v>
       </c>
@@ -6214,13 +6204,13 @@
         <v>45</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>45</v>
+        <v>289</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>45</v>
+        <v>371</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>45</v>
+        <v>372</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>45</v>
@@ -6238,16 +6228,16 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>354</v>
+        <v>45</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>67</v>
@@ -6256,13 +6246,13 @@
         <v>45</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>45</v>
+        <v>364</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>360</v>
+        <v>275</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>45</v>
@@ -6273,7 +6263,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6296,19 +6286,17 @@
         <v>45</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>172</v>
+        <v>374</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>364</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="M41" s="2"/>
       <c r="N41" t="s" s="2">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>45</v>
@@ -6333,13 +6321,13 @@
         <v>45</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>366</v>
+        <v>45</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>367</v>
+        <v>45</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>45</v>
@@ -6357,7 +6345,7 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
@@ -6375,13 +6363,13 @@
         <v>45</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>368</v>
+        <v>45</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>369</v>
+        <v>45</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>279</v>
+        <v>378</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>45</v>
@@ -6392,7 +6380,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6403,7 +6391,7 @@
         <v>43</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>45</v>
@@ -6415,20 +6403,16 @@
         <v>45</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>172</v>
+        <v>57</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>374</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>45</v>
       </c>
@@ -6452,13 +6436,13 @@
         <v>45</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>293</v>
+        <v>45</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>375</v>
+        <v>45</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>376</v>
+        <v>45</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>45</v>
@@ -6476,13 +6460,13 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>45</v>
@@ -6494,13 +6478,13 @@
         <v>45</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>368</v>
+        <v>45</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>369</v>
+        <v>351</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>279</v>
+        <v>382</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>45</v>
@@ -6511,7 +6495,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6522,7 +6506,7 @@
         <v>43</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>45</v>
@@ -6531,21 +6515,21 @@
         <v>45</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="M43" s="2"/>
-      <c r="N43" t="s" s="2">
-        <v>381</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>45</v>
       </c>
@@ -6593,13 +6577,13 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>45</v>
@@ -6614,10 +6598,10 @@
         <v>45</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>45</v>
+        <v>388</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>45</v>
@@ -6628,7 +6612,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6639,7 +6623,7 @@
         <v>43</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>45</v>
@@ -6648,18 +6632,20 @@
         <v>45</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>57</v>
+        <v>391</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>393</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>45</v>
@@ -6708,13 +6694,13 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>45</v>
@@ -6729,10 +6715,10 @@
         <v>45</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>355</v>
+        <v>388</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>45</v>
@@ -6743,7 +6729,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6766,18 +6752,20 @@
         <v>56</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>388</v>
+        <v>324</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>399</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>400</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>45</v>
       </c>
@@ -6825,7 +6813,7 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
@@ -6846,10 +6834,10 @@
         <v>45</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
@@ -6860,7 +6848,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6871,7 +6859,7 @@
         <v>43</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>45</v>
@@ -6880,20 +6868,18 @@
         <v>45</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>395</v>
+        <v>57</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>396</v>
+        <v>333</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>398</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>45</v>
@@ -6942,19 +6928,19 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>394</v>
+        <v>335</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>45</v>
@@ -6963,10 +6949,10 @@
         <v>45</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>392</v>
+        <v>45</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>399</v>
+        <v>336</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>45</v>
@@ -6977,11 +6963,11 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>45</v>
+        <v>121</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -6997,23 +6983,21 @@
         <v>45</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>328</v>
+        <v>100</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>401</v>
+        <v>338</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>402</v>
+        <v>339</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>404</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>45</v>
       </c>
@@ -7061,7 +7045,7 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
@@ -7073,7 +7057,7 @@
         <v>45</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>45</v>
@@ -7082,10 +7066,10 @@
         <v>45</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>405</v>
+        <v>45</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>406</v>
+        <v>336</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>45</v>
@@ -7096,39 +7080,43 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>45</v>
+        <v>342</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>125</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>45</v>
       </c>
@@ -7176,19 +7164,19 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>45</v>
@@ -7200,7 +7188,7 @@
         <v>45</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>340</v>
+        <v>98</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>45</v>
@@ -7211,18 +7199,18 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>45</v>
@@ -7231,21 +7219,23 @@
         <v>45</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>100</v>
+        <v>168</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>342</v>
+        <v>407</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>343</v>
+        <v>408</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>409</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>45</v>
       </c>
@@ -7269,13 +7259,13 @@
         <v>45</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>45</v>
+        <v>289</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>45</v>
+        <v>410</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>45</v>
+        <v>411</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>45</v>
@@ -7293,34 +7283,34 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>344</v>
+        <v>406</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>45</v>
+        <v>412</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>45</v>
+        <v>186</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>340</v>
+        <v>187</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>45</v>
+        <v>188</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>45</v>
@@ -7328,42 +7318,42 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>346</v>
+        <v>45</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>100</v>
+        <v>414</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>347</v>
+        <v>415</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>348</v>
+        <v>247</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>128</v>
+        <v>416</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>129</v>
+        <v>249</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>45</v>
@@ -7412,42 +7402,42 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>349</v>
+        <v>413</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>45</v>
+        <v>417</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>45</v>
+        <v>252</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>98</v>
+        <v>253</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>45</v>
+        <v>254</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7455,7 +7445,7 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>55</v>
@@ -7467,22 +7457,22 @@
         <v>45</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>186</v>
+        <v>259</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>45</v>
@@ -7507,13 +7497,13 @@
         <v>45</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>293</v>
+        <v>260</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>414</v>
+        <v>261</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>415</v>
+        <v>262</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>45</v>
@@ -7531,16 +7521,16 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>55</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>45</v>
+        <v>263</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>67</v>
@@ -7549,16 +7539,16 @@
         <v>45</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>416</v>
+        <v>45</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>190</v>
+        <v>98</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>191</v>
+        <v>264</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>192</v>
+        <v>45</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>45</v>
@@ -7566,18 +7556,18 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>45</v>
+        <v>266</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>45</v>
@@ -7586,22 +7576,22 @@
         <v>45</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>418</v>
+        <v>168</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>419</v>
+        <v>267</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>420</v>
+        <v>269</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>45</v>
@@ -7626,13 +7616,13 @@
         <v>45</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>45</v>
+        <v>260</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>45</v>
+        <v>271</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>45</v>
+        <v>272</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>45</v>
@@ -7650,13 +7640,13 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>45</v>
@@ -7668,24 +7658,24 @@
         <v>45</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>421</v>
+        <v>273</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>258</v>
+        <v>276</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7696,7 +7686,7 @@
         <v>43</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>45</v>
@@ -7708,19 +7698,19 @@
         <v>45</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>172</v>
+        <v>45</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>425</v>
+        <v>327</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>263</v>
+        <v>328</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>45</v>
@@ -7745,13 +7735,13 @@
         <v>45</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>264</v>
+        <v>45</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>265</v>
+        <v>45</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>266</v>
+        <v>45</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>45</v>
@@ -7769,16 +7759,16 @@
         <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>267</v>
+        <v>45</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>67</v>
@@ -7790,258 +7780,20 @@
         <v>45</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>98</v>
+        <v>330</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>268</v>
+        <v>331</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="54" hidden="true">
-      <c r="A54" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="B54" s="2"/>
-      <c r="C54" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="D54" s="2"/>
-      <c r="E54" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P54" s="2"/>
-      <c r="Q54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="55" hidden="true">
-      <c r="A55" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="B55" s="2"/>
-      <c r="C55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D55" s="2"/>
-      <c r="E55" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F55" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="K55" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P55" s="2"/>
-      <c r="Q55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO55" t="s" s="2">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO55">
+  <autoFilter ref="A1:AO53">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8051,7 +7803,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI54">
+  <conditionalFormatting sqref="A2:AI52">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-pacio-bfs.xlsx
+++ b/StructureDefinition-pacio-bfs.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1980" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1979" uniqueCount="414">
   <si>
     <t>Path</t>
   </si>
@@ -456,7 +456,7 @@
 </t>
   </si>
   <si>
-    <t>Fulfills plan, proposal or order</t>
+    <t>Currently not used in BundledFunctionalStatus.</t>
   </si>
   <si>
     <t>A plan, proposal or order that is fulfilled in whole or in part by this event.  For example, a MedicationRequest may require a patient to have laboratory test performed before  it is dispensed.</t>
@@ -485,9 +485,6 @@
 </t>
   </si>
   <si>
-    <t>Part of referenced event</t>
-  </si>
-  <si>
     <t>A larger event of which this particular Observation is a component or step.  For example,  an observation as part of a procedure.</t>
   </si>
   <si>
@@ -506,7 +503,7 @@
     <t>Observation.status</t>
   </si>
   <si>
-    <t>registered | preliminary | final | amended +</t>
+    <t>Value should be final.</t>
   </si>
   <si>
     <t>The status of the result value.</t>
@@ -549,7 +546,7 @@
 </t>
   </si>
   <si>
-    <t>Classification of  type of observation</t>
+    <t>If this is from a Post-Acute Care Assessment, category should be survey.</t>
   </si>
   <si>
     <t>A code that classifies the general type of observation being made.</t>
@@ -559,9 +556,6 @@
   </si>
   <si>
     <t>Used for filtering what observations are retrieved and displayed.</t>
-  </si>
-  <si>
-    <t>If this is from a Post-Acute Care Assessment, value should be survey.</t>
   </si>
   <si>
     <t>http://terminology.hl7.org/CodeSystem/observation-category</t>
@@ -580,7 +574,7 @@
 </t>
   </si>
   <si>
-    <t>Type of observation (code / type)</t>
+    <t>LOINC code and text for the question, if this is from a Post-Acute Care Assessment.</t>
   </si>
   <si>
     <t>Describes what was observed. Sometimes this is called the observation "name".</t>
@@ -620,7 +614,7 @@
 </t>
   </si>
   <si>
-    <t>Who and/or what the observation is about</t>
+    <t>Subject should only be Patient for BundledFunctionalStatus.</t>
   </si>
   <si>
     <t>The patient, or group of patients, location, or device this observation is about and into whose record the observation is placed. If the actual focus of the observation is different from the subject (or a sample of, part, or region of the subject), the `focus` element or the `code` itself specifies the actual focus of the observation.</t>
@@ -651,9 +645,6 @@
 </t>
   </si>
   <si>
-    <t>What the observation is about, when it is not about the subject of record</t>
-  </si>
-  <si>
     <t>The actual focus of an observation when it is not the patient of record representing something or someone associated with the patient such as a spouse, parent, fetus, or donor. For example, fetus observations in a mother's record.  The focus of an observation could also be an existing condition,  an intervention, the subject's diet,  another observation of the subject,  or a body structure such as tumor or implanted device.   An example use case would be using the Observation resource to capture whether the mother is trained to change her child's tracheostomy tube. In this example, the child is the patient of record and the mother is the focus.</t>
   </si>
   <si>
@@ -706,7 +697,7 @@
   </si>
   <si>
     <t>dateTime
-PeriodTiminginstant</t>
+Period</t>
   </si>
   <si>
     <t>Clinically relevant time/time-period for observation</t>
@@ -740,9 +731,6 @@
 </t>
   </si>
   <si>
-    <t>Date/Time this version was made available</t>
-  </si>
-  <si>
     <t>The date and time this version of the observation was made available to providers, typically after the results have been reviewed and verified.</t>
   </si>
   <si>
@@ -765,7 +753,7 @@
 </t>
   </si>
   <si>
-    <t>Who is responsible for the observation</t>
+    <t xml:space="preserve">The person who performed the assessment. Also provide the role and organizationif available. </t>
   </si>
   <si>
     <t>Who was responsible for asserting the observed value as "true".</t>
@@ -789,7 +777,7 @@
     <t>Observation.value[x]</t>
   </si>
   <si>
-    <t>Actual result</t>
+    <t>Should only be used if the functional status observations values in the hasMember field results in a score or roll up value.</t>
   </si>
   <si>
     <t>The information determined as a result of making the observation, if the information has a simple value.</t>
@@ -820,9 +808,6 @@
     <t>Observation.dataAbsentReason</t>
   </si>
   <si>
-    <t>Why the result is missing</t>
-  </si>
-  <si>
     <t>Provides a reason why the expected value in the element Observation.value[x] is missing.</t>
   </si>
   <si>
@@ -856,9 +841,6 @@
 </t>
   </si>
   <si>
-    <t>High, low, normal, etc.</t>
-  </si>
-  <si>
     <t>A categorical assessment of an observation value.  For example, high, low, normal.</t>
   </si>
   <si>
@@ -914,9 +896,6 @@
     <t>Observation.bodySite</t>
   </si>
   <si>
-    <t>Observed body part</t>
-  </si>
-  <si>
     <t>Indicates the site on the subject's body where the observation was made (i.e. the target site).</t>
   </si>
   <si>
@@ -948,9 +927,6 @@
     <t>Observation.method</t>
   </si>
   <si>
-    <t>How it was done</t>
-  </si>
-  <si>
     <t>Indicates the mechanism used to perform the observation.</t>
   </si>
   <si>
@@ -979,9 +955,6 @@
 </t>
   </si>
   <si>
-    <t>Specimen used for this observation</t>
-  </si>
-  <si>
     <t>The specimen that was used when this observation was made.</t>
   </si>
   <si>
@@ -1007,9 +980,6 @@
 </t>
   </si>
   <si>
-    <t>(Measurement) Device</t>
-  </si>
-  <si>
     <t>The device used to generate the observation data.</t>
   </si>
   <si>
@@ -1033,9 +1003,6 @@
   <si>
     <t xml:space="preserve">BackboneElement
 </t>
-  </si>
-  <si>
-    <t>Provides guide for interpretation</t>
   </si>
   <si>
     <t>Guidance on how to interpret the value by comparison to a normal or recommended range.  Multiple reference ranges are interpreted as an "OR".   In other words, to represent two distinct target populations, two `referenceRange` elements would be used.</t>
@@ -1228,7 +1195,7 @@
 </t>
   </si>
   <si>
-    <t>Related resource that belongs to the Observation group</t>
+    <t>Each functional status observation in the bundle.</t>
   </si>
   <si>
     <t>This observation is a group observation (e.g. a battery, a panel of tests, a set of vital sign measurements) that includes the target as a member of the group.</t>
@@ -1250,9 +1217,6 @@
 </t>
   </si>
   <si>
-    <t>Related measurements the observation is made from</t>
-  </si>
-  <si>
     <t>The target resource that represents a measurement from which this observation value is derived. For example, a calculated anion gap or a fetal measurement based on an ultrasound image.</t>
   </si>
   <si>
@@ -1263,9 +1227,6 @@
   </si>
   <si>
     <t>Observation.component</t>
-  </si>
-  <si>
-    <t>Component results</t>
   </si>
   <si>
     <t>Some observations have multiple component observations.  These component observations are expressed as separate code value pairs that share the same attributes.  Examples include systolic and diastolic component observations for blood pressure measurement and multiple component observations for genetics observations.</t>
@@ -1344,6 +1305,9 @@
   </si>
   <si>
     <t>Observation.component.interpretation</t>
+  </si>
+  <si>
+    <t>High, low, normal, etc.</t>
   </si>
   <si>
     <t>Observation.component.referenceRange</t>
@@ -1520,7 +1484,7 @@
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="66.26953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="109.1640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1533,7 +1497,7 @@
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="62.18359375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="60.515625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="56.66015625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
@@ -3225,13 +3189,13 @@
         <v>147</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3296,16 +3260,16 @@
         <v>67</v>
       </c>
       <c r="AJ15" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL15" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="AK15" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AM15" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>45</v>
@@ -3316,7 +3280,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3342,16 +3306,16 @@
         <v>75</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>45</v>
@@ -3376,14 +3340,14 @@
         <v>45</v>
       </c>
       <c r="W16" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="X16" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="X16" t="s" s="2">
+      <c r="Y16" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="Y16" t="s" s="2">
-        <v>161</v>
-      </c>
       <c r="Z16" t="s" s="2">
         <v>45</v>
       </c>
@@ -3400,7 +3364,7 @@
         <v>45</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>55</v>
@@ -3415,19 +3379,19 @@
         <v>67</v>
       </c>
       <c r="AJ16" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="AK16" t="s" s="2">
+      <c r="AL16" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AM16" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="AM16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>45</v>
@@ -3435,7 +3399,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3458,19 +3422,19 @@
         <v>45</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>45</v>
@@ -3497,11 +3461,9 @@
       <c r="W17" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="X17" t="s" s="2">
-        <v>173</v>
-      </c>
+      <c r="X17" s="2"/>
       <c r="Y17" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>45</v>
@@ -3519,7 +3481,7 @@
         <v>45</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>43</v>
@@ -3543,10 +3505,10 @@
         <v>45</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>45</v>
@@ -3554,11 +3516,11 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3577,19 +3539,19 @@
         <v>56</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>45</v>
@@ -3614,11 +3576,11 @@
         <v>45</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="X18" s="2"/>
       <c r="Y18" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>45</v>
@@ -3636,7 +3598,7 @@
         <v>45</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>55</v>
@@ -3651,27 +3613,27 @@
         <v>67</v>
       </c>
       <c r="AJ18" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="AK18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AN18" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="AM18" t="s" s="2">
+      <c r="AO18" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="AO18" t="s" s="2">
-        <v>189</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3694,19 +3656,19 @@
         <v>56</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>45</v>
@@ -3755,7 +3717,7 @@
         <v>45</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>43</v>
@@ -3770,19 +3732,19 @@
         <v>67</v>
       </c>
       <c r="AJ19" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AM19" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="AK19" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AN19" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>45</v>
@@ -3790,7 +3752,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3813,16 +3775,16 @@
         <v>56</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="K20" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3872,7 +3834,7 @@
         <v>45</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>43</v>
@@ -3893,13 +3855,13 @@
         <v>45</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>45</v>
@@ -3907,11 +3869,11 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3930,19 +3892,19 @@
         <v>56</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>45</v>
@@ -3991,7 +3953,7 @@
         <v>45</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>43</v>
@@ -4006,19 +3968,19 @@
         <v>67</v>
       </c>
       <c r="AJ21" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AM21" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AN21" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>45</v>
@@ -4026,11 +3988,11 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -4049,19 +4011,19 @@
         <v>56</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>45</v>
@@ -4110,7 +4072,7 @@
         <v>45</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>43</v>
@@ -4125,19 +4087,19 @@
         <v>67</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AM22" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AN22" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>45</v>
@@ -4145,7 +4107,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4168,16 +4130,16 @@
         <v>56</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>230</v>
+        <v>139</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4227,7 +4189,7 @@
         <v>45</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>43</v>
@@ -4248,13 +4210,13 @@
         <v>45</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>45</v>
@@ -4262,7 +4224,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4285,17 +4247,17 @@
         <v>56</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" t="s" s="2">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>45</v>
@@ -4344,7 +4306,7 @@
         <v>45</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
@@ -4359,19 +4321,19 @@
         <v>67</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>45</v>
@@ -4379,7 +4341,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4402,19 +4364,19 @@
         <v>56</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>45</v>
@@ -4463,7 +4425,7 @@
         <v>45</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
@@ -4472,7 +4434,7 @@
         <v>55</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>67</v>
@@ -4481,24 +4443,24 @@
         <v>45</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4521,19 +4483,19 @@
         <v>45</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>256</v>
+        <v>139</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>45</v>
@@ -4558,13 +4520,13 @@
         <v>45</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>45</v>
@@ -4582,7 +4544,7 @@
         <v>45</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
@@ -4591,7 +4553,7 @@
         <v>55</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>67</v>
@@ -4606,7 +4568,7 @@
         <v>98</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>45</v>
@@ -4617,11 +4579,11 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4640,19 +4602,19 @@
         <v>45</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>267</v>
+        <v>139</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>45</v>
@@ -4677,31 +4639,31 @@
         <v>45</v>
       </c>
       <c r="W27" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE27" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
@@ -4719,24 +4681,24 @@
         <v>45</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4759,19 +4721,19 @@
         <v>45</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>45</v>
@@ -4820,7 +4782,7 @@
         <v>45</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
@@ -4841,10 +4803,10 @@
         <v>45</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>45</v>
@@ -4855,7 +4817,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4878,16 +4840,16 @@
         <v>45</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>286</v>
+        <v>139</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4913,13 +4875,13 @@
         <v>45</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>45</v>
@@ -4937,7 +4899,7 @@
         <v>45</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
@@ -4955,24 +4917,24 @@
         <v>45</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4995,19 +4957,19 @@
         <v>45</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>297</v>
+        <v>139</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>45</v>
@@ -5032,31 +4994,31 @@
         <v>45</v>
       </c>
       <c r="W30" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE30" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
@@ -5077,10 +5039,10 @@
         <v>45</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>45</v>
@@ -5091,7 +5053,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5114,16 +5076,16 @@
         <v>45</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>307</v>
+        <v>139</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5173,7 +5135,7 @@
         <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
@@ -5191,24 +5153,24 @@
         <v>45</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>313</v>
+        <v>304</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5231,16 +5193,16 @@
         <v>45</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>316</v>
+        <v>139</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5290,7 +5252,7 @@
         <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
@@ -5308,24 +5270,24 @@
         <v>45</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5348,19 +5310,19 @@
         <v>45</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>325</v>
+        <v>139</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>45</v>
@@ -5409,7 +5371,7 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
@@ -5421,7 +5383,7 @@
         <v>45</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>45</v>
@@ -5430,10 +5392,10 @@
         <v>45</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>45</v>
@@ -5444,7 +5406,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5470,10 +5432,10 @@
         <v>57</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5524,7 +5486,7 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
@@ -5548,7 +5510,7 @@
         <v>45</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>45</v>
@@ -5559,7 +5521,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5585,10 +5547,10 @@
         <v>100</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>124</v>
@@ -5641,7 +5603,7 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
@@ -5665,7 +5627,7 @@
         <v>45</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>45</v>
@@ -5676,11 +5638,11 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5702,10 +5664,10 @@
         <v>100</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="M36" t="s" s="2">
         <v>124</v>
@@ -5760,7 +5722,7 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -5795,7 +5757,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5818,13 +5780,13 @@
         <v>45</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5875,7 +5837,7 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
@@ -5884,7 +5846,7 @@
         <v>55</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>67</v>
@@ -5896,10 +5858,10 @@
         <v>45</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>45</v>
@@ -5910,7 +5872,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5933,13 +5895,13 @@
         <v>45</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5990,7 +5952,7 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
@@ -5999,7 +5961,7 @@
         <v>55</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>67</v>
@@ -6011,10 +5973,10 @@
         <v>45</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>45</v>
@@ -6025,7 +5987,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6048,19 +6010,19 @@
         <v>45</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>45</v>
@@ -6088,10 +6050,10 @@
         <v>79</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>45</v>
@@ -6109,7 +6071,7 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
@@ -6127,13 +6089,13 @@
         <v>45</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>45</v>
@@ -6144,7 +6106,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6167,19 +6129,19 @@
         <v>45</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>45</v>
@@ -6204,13 +6166,13 @@
         <v>45</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>45</v>
@@ -6228,7 +6190,7 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
@@ -6246,13 +6208,13 @@
         <v>45</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>45</v>
@@ -6263,7 +6225,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6286,17 +6248,17 @@
         <v>45</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" t="s" s="2">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>45</v>
@@ -6345,7 +6307,7 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
@@ -6369,7 +6331,7 @@
         <v>45</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>45</v>
@@ -6380,7 +6342,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6406,10 +6368,10 @@
         <v>57</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6460,7 +6422,7 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -6481,10 +6443,10 @@
         <v>45</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>45</v>
@@ -6495,7 +6457,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6518,16 +6480,16 @@
         <v>56</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6577,7 +6539,7 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -6598,10 +6560,10 @@
         <v>45</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>45</v>
@@ -6612,7 +6574,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6635,16 +6597,16 @@
         <v>56</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>392</v>
+        <v>139</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6694,7 +6656,7 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
@@ -6715,10 +6677,10 @@
         <v>45</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>45</v>
@@ -6729,7 +6691,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6752,19 +6714,19 @@
         <v>56</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>397</v>
+        <v>139</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>45</v>
@@ -6813,7 +6775,7 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
@@ -6834,10 +6796,10 @@
         <v>45</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
@@ -6848,7 +6810,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6874,10 +6836,10 @@
         <v>57</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6928,7 +6890,7 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -6952,7 +6914,7 @@
         <v>45</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>45</v>
@@ -6963,7 +6925,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6989,10 +6951,10 @@
         <v>100</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>124</v>
@@ -7045,7 +7007,7 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
@@ -7069,7 +7031,7 @@
         <v>45</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>45</v>
@@ -7080,11 +7042,11 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7106,10 +7068,10 @@
         <v>100</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="M48" t="s" s="2">
         <v>124</v>
@@ -7164,7 +7126,7 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
@@ -7199,7 +7161,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7222,19 +7184,19 @@
         <v>56</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>45</v>
@@ -7259,13 +7221,13 @@
         <v>45</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>45</v>
@@ -7283,7 +7245,7 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>55</v>
@@ -7301,16 +7263,16 @@
         <v>45</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="AL49" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AN49" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>45</v>
@@ -7318,7 +7280,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7341,19 +7303,19 @@
         <v>56</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>45</v>
@@ -7402,7 +7364,7 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
@@ -7420,24 +7382,24 @@
         <v>45</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7460,19 +7422,19 @@
         <v>45</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>45</v>
@@ -7497,13 +7459,13 @@
         <v>45</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>45</v>
@@ -7521,7 +7483,7 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
@@ -7530,7 +7492,7 @@
         <v>55</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>67</v>
@@ -7545,7 +7507,7 @@
         <v>98</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>45</v>
@@ -7556,11 +7518,11 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7579,19 +7541,19 @@
         <v>45</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>267</v>
+        <v>410</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>45</v>
@@ -7616,13 +7578,13 @@
         <v>45</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>45</v>
@@ -7640,7 +7602,7 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
@@ -7658,24 +7620,24 @@
         <v>45</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7701,16 +7663,16 @@
         <v>45</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>45</v>
@@ -7759,7 +7721,7 @@
         <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
@@ -7780,10 +7742,10 @@
         <v>45</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>45</v>

--- a/StructureDefinition-pacio-bfs.xlsx
+++ b/StructureDefinition-pacio-bfs.xlsx
@@ -558,6 +558,9 @@
     <t>Used for filtering what observations are retrieved and displayed.</t>
   </si>
   <si>
+    <t>extensible</t>
+  </si>
+  <si>
     <t>http://terminology.hl7.org/CodeSystem/observation-category</t>
   </si>
   <si>
@@ -816,9 +819,6 @@
   </si>
   <si>
     <t>For many results it is necessary to handle exceptional values in measurements.</t>
-  </si>
-  <si>
-    <t>extensible</t>
   </si>
   <si>
     <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
@@ -3459,11 +3459,11 @@
         <v>45</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="X17" s="2"/>
       <c r="Y17" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>45</v>
@@ -3505,10 +3505,10 @@
         <v>45</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>45</v>
@@ -3516,11 +3516,11 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3542,16 +3542,16 @@
         <v>167</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>45</v>
@@ -3576,11 +3576,11 @@
         <v>45</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="X18" s="2"/>
       <c r="Y18" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>45</v>
@@ -3598,7 +3598,7 @@
         <v>45</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>55</v>
@@ -3613,27 +3613,27 @@
         <v>67</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3656,19 +3656,19 @@
         <v>56</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>45</v>
@@ -3717,7 +3717,7 @@
         <v>45</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>43</v>
@@ -3732,19 +3732,19 @@
         <v>67</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>45</v>
@@ -3752,7 +3752,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3775,16 +3775,16 @@
         <v>56</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>139</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3834,7 +3834,7 @@
         <v>45</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>43</v>
@@ -3855,13 +3855,13 @@
         <v>45</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>45</v>
@@ -3869,11 +3869,11 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3892,19 +3892,19 @@
         <v>56</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>45</v>
@@ -3953,7 +3953,7 @@
         <v>45</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>43</v>
@@ -3968,19 +3968,19 @@
         <v>67</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>45</v>
@@ -3988,11 +3988,11 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -4011,19 +4011,19 @@
         <v>56</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>45</v>
@@ -4072,7 +4072,7 @@
         <v>45</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>43</v>
@@ -4087,19 +4087,19 @@
         <v>67</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>45</v>
@@ -4107,7 +4107,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4130,16 +4130,16 @@
         <v>56</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>139</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4189,7 +4189,7 @@
         <v>45</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>43</v>
@@ -4210,13 +4210,13 @@
         <v>45</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>45</v>
@@ -4224,7 +4224,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4247,17 +4247,17 @@
         <v>56</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>45</v>
@@ -4306,7 +4306,7 @@
         <v>45</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
@@ -4321,19 +4321,19 @@
         <v>67</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>45</v>
@@ -4341,7 +4341,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4367,16 +4367,16 @@
         <v>167</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>45</v>
@@ -4425,7 +4425,7 @@
         <v>45</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
@@ -4434,7 +4434,7 @@
         <v>55</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>67</v>
@@ -4443,24 +4443,24 @@
         <v>45</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4489,13 +4489,13 @@
         <v>139</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>45</v>
@@ -4520,7 +4520,7 @@
         <v>45</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>255</v>
+        <v>172</v>
       </c>
       <c r="X26" t="s" s="2">
         <v>256</v>
@@ -4544,7 +4544,7 @@
         <v>45</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
@@ -4639,7 +4639,7 @@
         <v>45</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>255</v>
+        <v>172</v>
       </c>
       <c r="X27" t="s" s="2">
         <v>265</v>
@@ -7196,7 +7196,7 @@
         <v>396</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>45</v>
@@ -7266,13 +7266,13 @@
         <v>399</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>45</v>
@@ -7309,13 +7309,13 @@
         <v>402</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M50" t="s" s="2">
         <v>403</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>45</v>
@@ -7385,16 +7385,16 @@
         <v>404</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="51" hidden="true">
@@ -7434,7 +7434,7 @@
         <v>408</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>45</v>
@@ -7459,7 +7459,7 @@
         <v>45</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>255</v>
+        <v>172</v>
       </c>
       <c r="X51" t="s" s="2">
         <v>256</v>
@@ -7578,7 +7578,7 @@
         <v>45</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>255</v>
+        <v>172</v>
       </c>
       <c r="X52" t="s" s="2">
         <v>265</v>

--- a/StructureDefinition-pacio-bfs.xlsx
+++ b/StructureDefinition-pacio-bfs.xlsx
@@ -1474,47 +1474,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="43.6015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.9921875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="14.19921875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="109.1640625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="112.8671875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="60.515625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="56.66015625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="63.703125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="57.1328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="239.703125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="247.40625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="103.87890625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="37.70703125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="107.01953125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="42.34375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/StructureDefinition-pacio-bfs.xlsx
+++ b/StructureDefinition-pacio-bfs.xlsx
@@ -1474,47 +1474,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="14.19921875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="43.6015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.9921875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="112.8671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="109.1640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="63.703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="57.1328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="60.515625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="56.66015625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="247.40625" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="239.703125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="107.01953125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="42.34375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="103.87890625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="37.70703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/StructureDefinition-pacio-bfs.xlsx
+++ b/StructureDefinition-pacio-bfs.xlsx
@@ -1474,47 +1474,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="14.19921875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="43.6015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.9921875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="112.8671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="109.1640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="63.703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="57.1328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="60.515625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="56.66015625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="247.40625" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="239.703125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="107.01953125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="42.34375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="103.87890625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="37.70703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3996,7 +3996,7 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>55</v>

--- a/StructureDefinition-pacio-bfs.xlsx
+++ b/StructureDefinition-pacio-bfs.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1979" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1979" uniqueCount="415">
   <si>
     <t>Path</t>
   </si>
@@ -384,7 +384,7 @@
     <t>device-use</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://paciowg.github.io/functional-status-ig/StructureDefinition/device-patient-used}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/functional-status-ig/StructureDefinition/device-patient-used}
 </t>
   </si>
   <si>
@@ -485,6 +485,9 @@
 </t>
   </si>
   <si>
+    <t>Part of referenced event</t>
+  </si>
+  <si>
     <t>A larger event of which this particular Observation is a component or step.  For example,  an observation as part of a procedure.</t>
   </si>
   <si>
@@ -780,7 +783,7 @@
     <t>Observation.value[x]</t>
   </si>
   <si>
-    <t>Should only be used if the functional status observations values in the hasMember field results in a score or roll up value.</t>
+    <t>Actual result</t>
   </si>
   <si>
     <t>The information determined as a result of making the observation, if the information has a simple value.</t>
@@ -1484,7 +1487,7 @@
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="109.1640625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="85.7265625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3189,13 +3192,13 @@
         <v>147</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3260,16 +3263,16 @@
         <v>67</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>45</v>
@@ -3280,7 +3283,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3306,16 +3309,16 @@
         <v>75</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>45</v>
@@ -3340,13 +3343,13 @@
         <v>45</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>45</v>
@@ -3364,7 +3367,7 @@
         <v>45</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>55</v>
@@ -3379,19 +3382,19 @@
         <v>67</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>45</v>
@@ -3399,7 +3402,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3422,19 +3425,19 @@
         <v>45</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>45</v>
@@ -3459,11 +3462,11 @@
         <v>45</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="X17" s="2"/>
       <c r="Y17" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>45</v>
@@ -3481,7 +3484,7 @@
         <v>45</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>43</v>
@@ -3505,10 +3508,10 @@
         <v>45</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>45</v>
@@ -3516,11 +3519,11 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3539,19 +3542,19 @@
         <v>56</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>45</v>
@@ -3576,11 +3579,11 @@
         <v>45</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="X18" s="2"/>
       <c r="Y18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>45</v>
@@ -3598,7 +3601,7 @@
         <v>45</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>55</v>
@@ -3613,27 +3616,27 @@
         <v>67</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3656,19 +3659,19 @@
         <v>56</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>45</v>
@@ -3717,7 +3720,7 @@
         <v>45</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>43</v>
@@ -3732,19 +3735,19 @@
         <v>67</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>45</v>
@@ -3752,7 +3755,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3775,16 +3778,16 @@
         <v>56</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>139</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3834,7 +3837,7 @@
         <v>45</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>43</v>
@@ -3855,13 +3858,13 @@
         <v>45</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>45</v>
@@ -3869,11 +3872,11 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3892,19 +3895,19 @@
         <v>56</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>45</v>
@@ -3953,7 +3956,7 @@
         <v>45</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>43</v>
@@ -3968,19 +3971,19 @@
         <v>67</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>45</v>
@@ -3988,11 +3991,11 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -4011,19 +4014,19 @@
         <v>56</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>45</v>
@@ -4072,7 +4075,7 @@
         <v>45</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>43</v>
@@ -4087,19 +4090,19 @@
         <v>67</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>45</v>
@@ -4107,7 +4110,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4130,16 +4133,16 @@
         <v>56</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>139</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4189,7 +4192,7 @@
         <v>45</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>43</v>
@@ -4210,13 +4213,13 @@
         <v>45</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>45</v>
@@ -4224,7 +4227,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4247,17 +4250,17 @@
         <v>56</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>45</v>
@@ -4306,7 +4309,7 @@
         <v>45</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
@@ -4321,19 +4324,19 @@
         <v>67</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>45</v>
@@ -4341,7 +4344,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4364,19 +4367,19 @@
         <v>56</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>45</v>
@@ -4425,7 +4428,7 @@
         <v>45</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
@@ -4434,7 +4437,7 @@
         <v>55</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>67</v>
@@ -4443,24 +4446,24 @@
         <v>45</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4483,19 +4486,19 @@
         <v>45</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>139</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>45</v>
@@ -4520,13 +4523,13 @@
         <v>45</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>45</v>
@@ -4544,7 +4547,7 @@
         <v>45</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
@@ -4553,7 +4556,7 @@
         <v>55</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>67</v>
@@ -4568,7 +4571,7 @@
         <v>98</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>45</v>
@@ -4579,11 +4582,11 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4602,19 +4605,19 @@
         <v>45</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K27" t="s" s="2">
         <v>139</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>45</v>
@@ -4639,13 +4642,13 @@
         <v>45</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>45</v>
@@ -4663,7 +4666,7 @@
         <v>45</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
@@ -4681,24 +4684,24 @@
         <v>45</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4721,19 +4724,19 @@
         <v>45</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>45</v>
@@ -4782,7 +4785,7 @@
         <v>45</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
@@ -4803,10 +4806,10 @@
         <v>45</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>45</v>
@@ -4817,7 +4820,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4840,16 +4843,16 @@
         <v>45</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>139</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4875,13 +4878,13 @@
         <v>45</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>45</v>
@@ -4899,7 +4902,7 @@
         <v>45</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
@@ -4917,24 +4920,24 @@
         <v>45</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4957,19 +4960,19 @@
         <v>45</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>139</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>45</v>
@@ -4994,13 +4997,13 @@
         <v>45</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>45</v>
@@ -5018,7 +5021,7 @@
         <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
@@ -5039,10 +5042,10 @@
         <v>45</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>45</v>
@@ -5053,7 +5056,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5076,16 +5079,16 @@
         <v>45</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K31" t="s" s="2">
         <v>139</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5135,7 +5138,7 @@
         <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
@@ -5153,24 +5156,24 @@
         <v>45</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5193,16 +5196,16 @@
         <v>45</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>139</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5252,7 +5255,7 @@
         <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
@@ -5270,24 +5273,24 @@
         <v>45</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5310,19 +5313,19 @@
         <v>45</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>139</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>45</v>
@@ -5371,7 +5374,7 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
@@ -5383,7 +5386,7 @@
         <v>45</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>45</v>
@@ -5392,10 +5395,10 @@
         <v>45</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>45</v>
@@ -5406,7 +5409,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5432,10 +5435,10 @@
         <v>57</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5486,7 +5489,7 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
@@ -5510,7 +5513,7 @@
         <v>45</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>45</v>
@@ -5521,7 +5524,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5547,10 +5550,10 @@
         <v>100</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>124</v>
@@ -5603,7 +5606,7 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
@@ -5627,7 +5630,7 @@
         <v>45</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>45</v>
@@ -5638,11 +5641,11 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5664,10 +5667,10 @@
         <v>100</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M36" t="s" s="2">
         <v>124</v>
@@ -5722,7 +5725,7 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -5757,7 +5760,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5780,13 +5783,13 @@
         <v>45</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5837,7 +5840,7 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
@@ -5846,7 +5849,7 @@
         <v>55</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>67</v>
@@ -5858,10 +5861,10 @@
         <v>45</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>45</v>
@@ -5872,7 +5875,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5895,13 +5898,13 @@
         <v>45</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5952,7 +5955,7 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
@@ -5961,7 +5964,7 @@
         <v>55</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>67</v>
@@ -5973,10 +5976,10 @@
         <v>45</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>45</v>
@@ -5987,7 +5990,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6010,19 +6013,19 @@
         <v>45</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>45</v>
@@ -6050,10 +6053,10 @@
         <v>79</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>45</v>
@@ -6071,7 +6074,7 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
@@ -6089,13 +6092,13 @@
         <v>45</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>45</v>
@@ -6106,7 +6109,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6129,19 +6132,19 @@
         <v>45</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>45</v>
@@ -6166,13 +6169,13 @@
         <v>45</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>45</v>
@@ -6190,7 +6193,7 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
@@ -6208,13 +6211,13 @@
         <v>45</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>45</v>
@@ -6225,7 +6228,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6248,17 +6251,17 @@
         <v>45</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>45</v>
@@ -6307,7 +6310,7 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
@@ -6331,7 +6334,7 @@
         <v>45</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>45</v>
@@ -6342,7 +6345,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6368,10 +6371,10 @@
         <v>57</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6422,7 +6425,7 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -6443,10 +6446,10 @@
         <v>45</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>45</v>
@@ -6457,7 +6460,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6480,16 +6483,16 @@
         <v>56</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6539,7 +6542,7 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -6560,10 +6563,10 @@
         <v>45</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>45</v>
@@ -6574,7 +6577,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6597,16 +6600,16 @@
         <v>56</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K44" t="s" s="2">
         <v>139</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6656,7 +6659,7 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
@@ -6677,10 +6680,10 @@
         <v>45</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>45</v>
@@ -6691,7 +6694,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6714,19 +6717,19 @@
         <v>56</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K45" t="s" s="2">
         <v>139</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>45</v>
@@ -6775,7 +6778,7 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
@@ -6796,10 +6799,10 @@
         <v>45</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
@@ -6810,7 +6813,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6836,10 +6839,10 @@
         <v>57</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6890,7 +6893,7 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -6914,7 +6917,7 @@
         <v>45</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>45</v>
@@ -6925,7 +6928,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6951,10 +6954,10 @@
         <v>100</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>124</v>
@@ -7007,7 +7010,7 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
@@ -7031,7 +7034,7 @@
         <v>45</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>45</v>
@@ -7042,11 +7045,11 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7068,10 +7071,10 @@
         <v>100</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M48" t="s" s="2">
         <v>124</v>
@@ -7126,7 +7129,7 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
@@ -7161,7 +7164,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7184,19 +7187,19 @@
         <v>56</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>45</v>
@@ -7221,13 +7224,13 @@
         <v>45</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>45</v>
@@ -7245,7 +7248,7 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>55</v>
@@ -7263,16 +7266,16 @@
         <v>45</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>45</v>
@@ -7280,7 +7283,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7303,19 +7306,19 @@
         <v>56</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>45</v>
@@ -7364,7 +7367,7 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
@@ -7382,24 +7385,24 @@
         <v>45</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7422,19 +7425,19 @@
         <v>45</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>45</v>
@@ -7459,13 +7462,13 @@
         <v>45</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>45</v>
@@ -7483,7 +7486,7 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
@@ -7492,7 +7495,7 @@
         <v>55</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>67</v>
@@ -7507,7 +7510,7 @@
         <v>98</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>45</v>
@@ -7518,11 +7521,11 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7541,19 +7544,19 @@
         <v>45</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>45</v>
@@ -7578,13 +7581,13 @@
         <v>45</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>45</v>
@@ -7602,7 +7605,7 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
@@ -7620,24 +7623,24 @@
         <v>45</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7663,16 +7666,16 @@
         <v>45</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>45</v>
@@ -7721,7 +7724,7 @@
         <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
@@ -7742,10 +7745,10 @@
         <v>45</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>45</v>

--- a/StructureDefinition-pacio-bfs.xlsx
+++ b/StructureDefinition-pacio-bfs.xlsx
@@ -384,7 +384,7 @@
     <t>device-use</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/functional-status-ig/StructureDefinition/device-patient-used}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/pacio-fs/StructureDefinition/device-patient-used}
 </t>
   </si>
   <si>
@@ -1477,47 +1477,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="43.6015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.9921875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="14.19921875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="85.7265625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="88.37890625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="60.515625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="56.66015625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="63.703125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="57.1328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="239.703125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="247.40625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="103.87890625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="37.70703125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="107.01953125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="42.34375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/StructureDefinition-pacio-bfs.xlsx
+++ b/StructureDefinition-pacio-bfs.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AP$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$53</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2070" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1980" uniqueCount="415">
   <si>
     <t>Path</t>
   </si>
@@ -120,9 +120,6 @@
   </si>
   <si>
     <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>Mapping: Argonaut-DQ-DSTU2</t>
   </si>
   <si>
     <t>Mapping: Workflow Pattern</t>
@@ -162,14 +159,14 @@
     <t>Measurements and simple assertions</t>
   </si>
   <si>
-    <t>This profile is  created to meet the 2015 Edition Common Clinical Data Set 'Laboratory test(s) and Laboratory value(s)/result(s)' requirements.</t>
+    <t>Measurements and simple assertions made about a patient, device or other subject.</t>
   </si>
   <si>
     <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as laboratory reports, etc.</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}us-core-2:If there is no component or related element then either a value[x] or a data absent reason must be present {(component.empty() and related.empty()) implies (dataAbsentReason or value)}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -387,7 +384,7 @@
     <t>device-use</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://paciowg.github.io/functional-status-ig//StructureDefinition/device-patient-used}
+    <t xml:space="preserve">Extension {http://paciowg.github.io/functional-status-ig/StructureDefinition/device-patient-used}
 </t>
   </si>
   <si>
@@ -524,7 +521,10 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-status</t>
+    <t>Codes providing the status of an observation.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
   </si>
   <si>
     <t>Event.status</t>
@@ -567,44 +567,26 @@
     <t>http://hl7.org/fhir/ValueSet/observation-category</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:$this}
+    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>Observation.code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name
 </t>
   </si>
   <si>
-    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>Laboratory</t>
-  </si>
-  <si>
-    <t>Classification of  type of observation</t>
-  </si>
-  <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://terminology.hl7.org/CodeSystem/observation-category"/&gt;
-    &lt;code value="laboratory"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
-    <t>Observation.code</t>
-  </si>
-  <si>
-    <t>Name
-Test NameObservation Identifer</t>
-  </si>
-  <si>
     <t>LOINC code and text for the question, if this is from a Post-Acute Care Assessment.</t>
   </si>
   <si>
-    <t>The test that was performed.  A LOINC **SHALL** be used if the concept is present in LOINC.</t>
-  </si>
-  <si>
-    <t>The typical patterns for codes are:  1)  a LOINC code either as a  translation from a "local" code or as a primary code, or 2)  a local code only if no suitable LOINC exists,  or 3)  both the local and the LOINC translation.   Systems SHALL be capable of sending the local code if one exists.  When using LOINC , Use either the SHORTNAME or LONG_COMMON_NAME field for the display.</t>
+    <t>Describes what was observed. Sometimes this is called the observation "name".</t>
+  </si>
+  <si>
+    <t>*All* code-value and, if present, component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
   </si>
   <si>
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
@@ -637,7 +619,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient)
+    <t xml:space="preserve">Reference(Patient|Group|Device|Location)
 </t>
   </si>
   <si>
@@ -730,21 +712,13 @@
     <t>Clinically relevant time/time-period for observation</t>
   </si>
   <si>
-    <t>For lab tests this is the specimen collection date.  For Ask at Order Entry Questions (AOE)'s this is the date the question was asked.</t>
+    <t>The time or time-period the observed value is asserted as being true. For biological subjects - e.g. human patients - this is usually called the "physiologically relevant time". This is usually either the time of the procedure or of specimen collection, but very often the source of the date/time is not known, only the date/time itself.</t>
   </si>
   <si>
     <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](http://hl7.org/fhir/R4/datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.</t>
   </si>
   <si>
     <t>Knowing when an observation was deemed true is important to its relevance as well as determining trends.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">us-core-1
-</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-us-core-1:Datetime must be at least to day. {($this as dateTime).toString().length() &gt;= 8}</t>
   </si>
   <si>
     <t>Event.occurrence[x]</t>
@@ -812,10 +786,10 @@
     <t>Observation.value[x]</t>
   </si>
   <si>
-    <t>Result Value</t>
-  </si>
-  <si>
-    <t>The Laboratory result value.  If a coded value,  the valueCodeableConcept.code **SHOULD**  be selected from [SNOMED CT](http://hl7.org/fhir/ValueSet/uslab-obs-codedresults).  If a numeric value, valueQuantity.code **SHALL** be selected from [UCUM](http://unitsofmeasure.org).  A FHIR [UCUM Codes value set](http://hl7.org/fhir/STU3/valueset-ucum-units.html) that defines all UCUM codes is in the FHIR specification.</t>
+    <t>Actual result</t>
+  </si>
+  <si>
+    <t>The information determined as a result of making the observation, if the information has a simple value.</t>
   </si>
   <si>
     <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
@@ -824,12 +798,8 @@
     <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
   </si>
   <si>
-    <t>obs-7
-us-core-2us-core-3us-core-4</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-us-core-4:SHOULD use Snomed CT for coded Results {valueCodeableConcept.coding.system.empty() or valueCodeableConcept.coding.system = 'http://snomed.info/sct'}us-core-3:SHALL use UCUM for coded quantity units. {valueQuantity.system.empty() or valueQuantity.system = 'http://unitsofmeasure.org'}</t>
+    <t xml:space="preserve">obs-7
+</t>
   </si>
   <si>
     <t>&lt; 441742003 |Evaluation finding|</t>
@@ -857,11 +827,14 @@
     <t>For many results it is necessary to handle exceptional values in measurements.</t>
   </si>
   <si>
+    <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
+  </si>
+  <si>
     <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
   </si>
   <si>
-    <t>obs-6
-us-core-2</t>
+    <t xml:space="preserve">obs-6
+</t>
   </si>
   <si>
     <t>value.nullFlavor</t>
@@ -1315,9 +1288,6 @@
     <t>Actual component result</t>
   </si>
   <si>
-    <t>The information determined as a result of making the observation, if the information has a simple value.</t>
-  </si>
-  <si>
     <t>Used when observation has a set of component observations. An observation may have both a value (e.g. an  Apgar score)  and component observations (the observations from which the Apgar score was derived). If a value is present, the datatype for this element should be determined by Observation.code. A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
   </si>
   <si>
@@ -1335,13 +1305,6 @@
   <si>
     <t>"Null" or exceptional values can be represented two ways in FHIR Observations.  One way is to simply include them in the value set and represent the exceptions in the value.  For example, measurement values for a serology test could be  "detected", "not detected", "inconclusive", or  "test not done". 
 The alternate way is to use the value element for actual observations and use the explicit dataAbsentReason element to record exceptional values.  For example, the dataAbsentReason code "error" could be used when the measurement was not completed.  Because of these options, use-case agreements are required to interpret general observations for exceptional values.</t>
-  </si>
-  <si>
-    <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">obs-6
-</t>
   </si>
   <si>
     <t>Observation.component.interpretation</t>
@@ -1505,7 +1468,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP54"/>
+  <dimension ref="A1:AO53"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1514,48 +1477,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="43.6015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.9921875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="14.19921875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="85.23046875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="87.79296875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="60.515625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="50.89453125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="26.328125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="63.703125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="50.40625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="29.328125" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="26.71484375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="239.703125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="103.87890625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="37.70703125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="247.40625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="107.01953125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="42.34375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1682,110 +1644,107 @@
       <c r="AO1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="AP1" t="s" s="1">
-        <v>41</v>
-      </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F2" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G2" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K2" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="H2" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="J2" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="K2" t="s" s="2">
+      <c r="L2" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>48</v>
-      </c>
-      <c r="M2" t="s" s="2">
-        <v>49</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AF2" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG2" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG2" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AH2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>50</v>
-      </c>
-      <c r="AJ2" t="s" s="2">
-        <v>42</v>
       </c>
       <c r="AK2" t="s" s="2">
         <v>51</v>
@@ -1797,1319 +1756,1286 @@
         <v>53</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>58</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>60</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>61</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AO3" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>64</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>65</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>66</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>67</v>
       </c>
-      <c r="AF4" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>68</v>
-      </c>
       <c r="AJ4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AO4" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>70</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>72</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>73</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AO5" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>78</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="AF6" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AO6" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>89</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL7" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM7" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="AF7" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM7" t="s" s="2">
-        <v>46</v>
-      </c>
       <c r="AN7" t="s" s="2">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="AO7" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F8" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE8" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AF8" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG8" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK8" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL8" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM8" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AF8" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL8" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM8" t="s" s="2">
-        <v>46</v>
-      </c>
       <c r="AN8" t="s" s="2">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="AO8" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F9" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD9" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AE9" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AE9" t="s" s="2">
+      <c r="AF9" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG9" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI9" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="AF9" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG9" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>107</v>
-      </c>
       <c r="AJ9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AO9" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G10" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="G10" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="H10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="K10" t="s" s="2">
+      <c r="L10" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE10" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AF10" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG10" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH10" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AI10" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="AF10" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG10" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH10" t="s" s="2">
+      <c r="AJ10" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="AI10" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AJ10" t="s" s="2">
-        <v>46</v>
-      </c>
       <c r="AK10" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL10" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="AL10" t="s" s="2">
-        <v>46</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>115</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F11" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G11" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE11" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AF11" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AI11" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="AF11" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG11" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH11" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AI11" t="s" s="2">
-        <v>107</v>
-      </c>
       <c r="AJ11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F12" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="N12" t="s" s="2">
-        <v>126</v>
-      </c>
       <c r="O12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AF12" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG12" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG12" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AH12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F13" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG13" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG13" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AH13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>46</v>
+        <v>132</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>46</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>134</v>
@@ -3118,370 +3044,360 @@
         <v>135</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AP13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F14" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF14" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG14" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG14" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AH14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>46</v>
+        <v>142</v>
       </c>
       <c r="AK14" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>46</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>144</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>145</v>
+        <v>45</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F15" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AF15" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG15" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG15" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AH15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>46</v>
+        <v>151</v>
       </c>
       <c r="AK15" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL15" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>46</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>153</v>
       </c>
       <c r="AN15" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO15" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" hidden="true">
+      <c r="A16" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP15" t="s" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="F16" t="s" s="2">
+      <c r="I16" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="G16" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="J16" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="N16" t="s" s="2">
-        <v>159</v>
-      </c>
       <c r="O16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W16" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="X16" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="X16" s="2"/>
       <c r="Y16" t="s" s="2">
         <v>161</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AP16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" hidden="true">
@@ -3490,23 +3406,23 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>168</v>
@@ -3524,29 +3440,29 @@
         <v>172</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="X17" t="s" s="2">
         <v>173</v>
@@ -3555,80 +3471,77 @@
         <v>174</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="AB17" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="AC17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="AE17" t="s" s="2">
         <v>167</v>
       </c>
       <c r="AF17" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG17" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG17" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AH17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>167</v>
+        <v>45</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>46</v>
+        <v>175</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>176</v>
       </c>
       <c r="AO17" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" hidden="true">
+      <c r="A18" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="AP17" t="s" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="B18" t="s" s="2">
+      <c r="B18" s="2"/>
+      <c r="C18" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="C18" t="s" s="2">
-        <v>46</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="F18" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I18" t="s" s="2">
         <v>56</v>
-      </c>
-      <c r="F18" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G18" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>46</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>168</v>
@@ -3637,1336 +3550,1305 @@
         <v>179</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>180</v>
+        <v>45</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>173</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="X18" s="2"/>
       <c r="Y18" t="s" s="2">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>46</v>
+        <v>186</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>46</v>
+        <v>187</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>46</v>
+        <v>188</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="AP18" t="s" s="2">
-        <v>46</v>
+        <v>190</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>182</v>
+        <v>45</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="F19" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I19" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="F19" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G19" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="J19" t="s" s="2">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="X19" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="Y19" t="s" s="2">
-        <v>188</v>
+        <v>45</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>189</v>
+        <v>45</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="AP19" t="s" s="2">
-        <v>194</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I20" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="F20" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G20" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="J20" t="s" s="2">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>197</v>
+        <v>139</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>200</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="AF20" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG20" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG20" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="AH20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>195</v>
+        <v>45</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>201</v>
+        <v>45</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>46</v>
+        <v>187</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="AP20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>46</v>
+        <v>207</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>140</v>
+        <v>209</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="O21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>46</v>
+        <v>213</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>46</v>
+        <v>214</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="AP21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="F22" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I22" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="G22" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H22" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="J22" t="s" s="2">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>46</v>
+        <v>224</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>217</v>
+        <v>45</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>46</v>
+        <v>225</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="AP22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>222</v>
+        <v>45</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I23" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="F23" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G23" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="J23" t="s" s="2">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>224</v>
+        <v>139</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>227</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>228</v>
+        <v>45</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>229</v>
+        <v>67</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>221</v>
+        <v>45</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>230</v>
+        <v>45</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>46</v>
+        <v>232</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="AP23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="F24" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F24" t="s" s="2">
+      <c r="G24" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I24" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="G24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="J24" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>140</v>
+        <v>237</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="O24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF24" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG24" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG24" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="AH24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>46</v>
+        <v>240</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>46</v>
+        <v>241</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="AP24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I25" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="F25" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="G25" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="J25" t="s" s="2">
-        <v>242</v>
+        <v>168</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="M25" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="N25" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>46</v>
+        <v>249</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>46</v>
+        <v>251</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>248</v>
+        <v>45</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="AP25" t="s" s="2">
-        <v>46</v>
+        <v>253</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>168</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>251</v>
+        <v>139</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>46</v>
+        <v>183</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>46</v>
+        <v>258</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>46</v>
+        <v>259</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>256</v>
+        <v>67</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>250</v>
+        <v>45</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>257</v>
+        <v>98</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>259</v>
+        <v>45</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP26" t="s" s="2">
-        <v>260</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>46</v>
+        <v>263</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F27" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="G27" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>168</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="X27" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="Y27" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AF27" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG27" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG27" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="AH27" t="s" s="2">
-        <v>266</v>
+        <v>45</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>261</v>
+        <v>45</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>46</v>
+        <v>269</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>46</v>
+        <v>270</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>99</v>
+        <v>271</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>267</v>
+        <v>45</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP27" t="s" s="2">
-        <v>46</v>
+        <v>272</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>269</v>
+        <v>45</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F28" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>168</v>
+        <v>274</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>140</v>
+        <v>275</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>187</v>
+        <v>45</v>
       </c>
       <c r="X28" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE28" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="Y28" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>268</v>
-      </c>
       <c r="AF28" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG28" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG28" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AH28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>277</v>
+        <v>45</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP28" t="s" s="2">
-        <v>278</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>280</v>
+        <v>168</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>281</v>
+        <v>139</v>
       </c>
       <c r="L29" t="s" s="2">
         <v>282</v>
@@ -4974,1082 +4856,1051 @@
       <c r="M29" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="N29" t="s" s="2">
-        <v>284</v>
-      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>46</v>
+        <v>284</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>46</v>
+        <v>285</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>46</v>
+        <v>286</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>46</v>
+        <v>287</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>46</v>
+        <v>288</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>286</v>
+        <v>45</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP29" t="s" s="2">
-        <v>46</v>
+        <v>290</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>168</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>293</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>294</v>
+      </c>
       <c r="O30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="X30" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE30" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="Y30" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>287</v>
-      </c>
       <c r="AF30" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>295</v>
+        <v>45</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP30" t="s" s="2">
-        <v>296</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>168</v>
+        <v>300</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>300</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>290</v>
+        <v>45</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>301</v>
+        <v>45</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>302</v>
+        <v>45</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>46</v>
+        <v>303</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>46</v>
+        <v>304</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>304</v>
+        <v>45</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP31" t="s" s="2">
-        <v>46</v>
+        <v>306</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>46</v>
+        <v>311</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>311</v>
+        <v>45</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP32" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F33" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="G33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>319</v>
+      </c>
       <c r="O33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AF33" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG33" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG33" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="AH33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>68</v>
+        <v>320</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>319</v>
+        <v>45</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP33" t="s" s="2">
-        <v>320</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>322</v>
+        <v>57</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>140</v>
+        <v>324</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N34" t="s" s="2">
         <v>325</v>
       </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>326</v>
+        <v>45</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>327</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>328</v>
+        <v>45</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>46</v>
+        <v>121</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F35" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="G35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="L35" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="M35" s="2"/>
+      <c r="M35" t="s" s="2">
+        <v>124</v>
+      </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AF35" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG35" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG35" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="AH35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>46</v>
+        <v>327</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>333</v>
+        <v>45</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>122</v>
+        <v>333</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F36" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="L36" t="s" s="2">
-        <v>336</v>
-      </c>
       <c r="M36" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="N36" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AF36" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG36" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG36" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AH36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>333</v>
+        <v>45</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>339</v>
+        <v>45</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>101</v>
+        <v>338</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="L37" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>126</v>
-      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="AF37" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>46</v>
-      </c>
       <c r="AM37" t="s" s="2">
-        <v>46</v>
+        <v>343</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>345</v>
@@ -6060,448 +5911,438 @@
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH38" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="AI38" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>348</v>
-      </c>
       <c r="AN38" t="s" s="2">
-        <v>349</v>
+        <v>45</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>344</v>
+        <v>168</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>46</v>
+        <v>353</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>46</v>
+        <v>354</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>347</v>
+        <v>45</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>46</v>
+        <v>355</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>46</v>
+        <v>356</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>348</v>
+        <v>271</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>353</v>
+        <v>45</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F40" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="G40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J40" t="s" s="2">
         <v>168</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>80</v>
+        <v>284</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="AF40" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG40" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG40" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="AH40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>46</v>
+        <v>355</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>362</v>
+        <v>271</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>277</v>
+        <v>45</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>168</v>
+        <v>365</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>366</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="M41" s="2"/>
       <c r="N41" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>290</v>
+        <v>45</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>368</v>
+        <v>45</v>
       </c>
       <c r="Y41" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM41" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="Z41" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>362</v>
-      </c>
       <c r="AN41" t="s" s="2">
-        <v>277</v>
+        <v>45</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" hidden="true">
@@ -6510,267 +6351,261 @@
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="L42" t="s" s="2">
-        <v>373</v>
-      </c>
       <c r="M42" s="2"/>
-      <c r="N42" t="s" s="2">
-        <v>374</v>
-      </c>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
         <v>370</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>46</v>
+        <v>342</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>46</v>
+        <v>373</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>375</v>
+        <v>45</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F43" t="s" s="2">
+      <c r="G43" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I43" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="G43" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>46</v>
-      </c>
       <c r="J43" t="s" s="2">
-        <v>58</v>
+        <v>375</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="AF43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG43" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG43" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="AH43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>46</v>
+        <v>379</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>348</v>
+        <v>380</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>379</v>
+        <v>45</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F44" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>382</v>
+        <v>139</v>
       </c>
       <c r="L44" t="s" s="2">
         <v>383</v>
@@ -6780,206 +6615,202 @@
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AF44" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG44" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG44" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AH44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>46</v>
+        <v>379</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>385</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>386</v>
+        <v>45</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F45" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="K45" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="L45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="M45" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AF45" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG45" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG45" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AH45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>46</v>
+        <v>390</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>391</v>
+        <v>45</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" hidden="true">
@@ -6988,480 +6819,468 @@
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I46" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J46" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="J46" t="s" s="2">
-        <v>322</v>
-      </c>
       <c r="K46" t="s" s="2">
-        <v>140</v>
+        <v>324</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>395</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>392</v>
+        <v>326</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>396</v>
+        <v>327</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>397</v>
+        <v>45</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>46</v>
+        <v>121</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F47" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="G47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="L47" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="M47" s="2"/>
+      <c r="M47" t="s" s="2">
+        <v>124</v>
+      </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AF47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG47" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG47" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="AH47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>46</v>
+        <v>327</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>333</v>
+        <v>45</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>122</v>
+        <v>333</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F48" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="L48" t="s" s="2">
-        <v>336</v>
-      </c>
       <c r="M48" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="N48" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AF48" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG48" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG48" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AH48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>333</v>
+        <v>45</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>339</v>
+        <v>45</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>101</v>
+        <v>168</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>340</v>
+        <v>396</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>341</v>
+        <v>397</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>125</v>
+        <v>398</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>126</v>
+        <v>182</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>46</v>
+        <v>284</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>46</v>
+        <v>399</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>46</v>
+        <v>184</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>342</v>
+        <v>395</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>46</v>
+        <v>400</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>46</v>
+        <v>187</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>46</v>
+        <v>188</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>99</v>
+        <v>189</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" hidden="true">
@@ -7470,612 +7289,478 @@
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I50" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="F50" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G50" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="J50" t="s" s="2">
-        <v>168</v>
+        <v>402</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>403</v>
+        <v>246</v>
       </c>
       <c r="M50" t="s" s="2">
         <v>404</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>186</v>
+        <v>248</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>290</v>
+        <v>45</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>405</v>
+        <v>45</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>188</v>
+        <v>45</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
         <v>401</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>46</v>
+        <v>405</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>406</v>
+        <v>251</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>191</v>
+        <v>252</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>192</v>
+        <v>45</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="AP50" t="s" s="2">
-        <v>46</v>
+        <v>253</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="K51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="L51" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>411</v>
-      </c>
       <c r="N51" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>46</v>
+        <v>183</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>46</v>
+        <v>258</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>46</v>
+        <v>259</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>46</v>
+        <v>260</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>412</v>
+        <v>98</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>259</v>
+        <v>45</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP51" t="s" s="2">
-        <v>260</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>46</v>
+        <v>263</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F52" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="G52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J52" t="s" s="2">
         <v>168</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>415</v>
+        <v>264</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>416</v>
+        <v>265</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>417</v>
+        <v>267</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="AF52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG52" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG52" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="AH52" t="s" s="2">
-        <v>418</v>
+        <v>45</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>46</v>
+        <v>269</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>46</v>
+        <v>270</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>99</v>
+        <v>271</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>267</v>
+        <v>45</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP52" t="s" s="2">
-        <v>46</v>
+        <v>272</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>269</v>
+        <v>45</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F53" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>168</v>
+        <v>45</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>270</v>
+        <v>414</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>271</v>
+        <v>318</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>272</v>
+        <v>319</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>187</v>
+        <v>45</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>273</v>
+        <v>45</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>274</v>
+        <v>45</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="AF53" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG53" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG53" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AH53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>275</v>
+        <v>321</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>276</v>
+        <v>322</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>277</v>
+        <v>45</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP53" t="s" s="2">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="54" hidden="true">
-      <c r="A54" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="B54" s="2"/>
-      <c r="C54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="D54" s="2"/>
-      <c r="E54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="F54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="P54" s="2"/>
-      <c r="Q54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="R54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP54" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP54">
+  <autoFilter ref="A1:AO53">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8085,7 +7770,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI53">
+  <conditionalFormatting sqref="A2:AI52">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-pacio-bfs.xlsx
+++ b/StructureDefinition-pacio-bfs.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AP$54</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1980" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2070" uniqueCount="423">
   <si>
     <t>Path</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: Argonaut-DQ-DSTU2</t>
   </si>
   <si>
     <t>Mapping: Workflow Pattern</t>
@@ -159,14 +162,14 @@
     <t>Measurements and simple assertions</t>
   </si>
   <si>
-    <t>Measurements and simple assertions made about a patient, device or other subject.</t>
+    <t>This profile is  created to meet the 2015 Edition Common Clinical Data Set 'Laboratory test(s) and Laboratory value(s)/result(s)' requirements.</t>
   </si>
   <si>
     <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as laboratory reports, etc.</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}us-core-2:If there is no component or related element then either a value[x] or a data absent reason must be present {(component.empty() and related.empty()) implies (dataAbsentReason or value)}</t>
   </si>
   <si>
     <t>Event</t>
@@ -384,14 +387,11 @@
     <t>device-use</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://paciowg.github.io/functional-status-ig/StructureDefinition/device-patient-used}
+    <t xml:space="preserve">Extension {https://paciowg.github.io/functional-status-ig//StructureDefinition/device-patient-used}
 </t>
   </si>
   <si>
-    <t>Optional Extensions Element</t>
-  </si>
-  <si>
-    <t>Optional Extension Element - found in all resources.</t>
+    <t>A device used by a patient during a functional status assessment.</t>
   </si>
   <si>
     <t>Observation.modifierExtension</t>
@@ -521,10 +521,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>Codes providing the status of an observation.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-status</t>
   </si>
   <si>
     <t>Event.status</t>
@@ -567,26 +564,44 @@
     <t>http://hl7.org/fhir/ValueSet/observation-category</t>
   </si>
   <si>
+    <t xml:space="preserve">pattern:$this}
+</t>
+  </si>
+  <si>
     <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
   </si>
   <si>
     <t>FiveWs.class</t>
   </si>
   <si>
+    <t>Laboratory</t>
+  </si>
+  <si>
+    <t>Classification of  type of observation</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://terminology.hl7.org/CodeSystem/observation-category"/&gt;
+    &lt;code value="laboratory"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
     <t>Observation.code</t>
   </si>
   <si>
-    <t xml:space="preserve">Name
-</t>
+    <t>Name
+Test NameObservation Identifer</t>
   </si>
   <si>
     <t>LOINC code and text for the question, if this is from a Post-Acute Care Assessment.</t>
   </si>
   <si>
-    <t>Describes what was observed. Sometimes this is called the observation "name".</t>
-  </si>
-  <si>
-    <t>*All* code-value and, if present, component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
+    <t>The test that was performed.  A LOINC **SHALL** be used if the concept is present in LOINC.</t>
+  </si>
+  <si>
+    <t>The typical patterns for codes are:  1)  a LOINC code either as a  translation from a "local" code or as a primary code, or 2)  a local code only if no suitable LOINC exists,  or 3)  both the local and the LOINC translation.   Systems SHALL be capable of sending the local code if one exists.  When using LOINC , Use either the SHORTNAME or LONG_COMMON_NAME field for the display.</t>
   </si>
   <si>
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
@@ -619,7 +634,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Group|Device|Location)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient)
 </t>
   </si>
   <si>
@@ -712,13 +727,21 @@
     <t>Clinically relevant time/time-period for observation</t>
   </si>
   <si>
-    <t>The time or time-period the observed value is asserted as being true. For biological subjects - e.g. human patients - this is usually called the "physiologically relevant time". This is usually either the time of the procedure or of specimen collection, but very often the source of the date/time is not known, only the date/time itself.</t>
+    <t>For lab tests this is the specimen collection date.  For Ask at Order Entry Questions (AOE)'s this is the date the question was asked.</t>
   </si>
   <si>
     <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](http://hl7.org/fhir/R4/datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.</t>
   </si>
   <si>
     <t>Knowing when an observation was deemed true is important to its relevance as well as determining trends.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">us-core-1
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+us-core-1:Datetime must be at least to day. {($this as dateTime).toString().length() &gt;= 8}</t>
   </si>
   <si>
     <t>Event.occurrence[x]</t>
@@ -786,10 +809,10 @@
     <t>Observation.value[x]</t>
   </si>
   <si>
-    <t>Actual result</t>
-  </si>
-  <si>
-    <t>The information determined as a result of making the observation, if the information has a simple value.</t>
+    <t>Result Value</t>
+  </si>
+  <si>
+    <t>The Laboratory result value.  If a coded value,  the valueCodeableConcept.code **SHOULD**  be selected from [SNOMED CT](http://hl7.org/fhir/ValueSet/uslab-obs-codedresults).  If a numeric value, valueQuantity.code **SHALL** be selected from [UCUM](http://unitsofmeasure.org).  A FHIR [UCUM Codes value set](http://hl7.org/fhir/STU3/valueset-ucum-units.html) that defines all UCUM codes is in the FHIR specification.</t>
   </si>
   <si>
     <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
@@ -798,8 +821,12 @@
     <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
   </si>
   <si>
-    <t xml:space="preserve">obs-7
-</t>
+    <t>obs-7
+us-core-2us-core-3us-core-4</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+us-core-4:SHOULD use Snomed CT for coded Results {valueCodeableConcept.coding.system.empty() or valueCodeableConcept.coding.system = 'http://snomed.info/sct'}us-core-3:SHALL use UCUM for coded quantity units. {valueQuantity.system.empty() or valueQuantity.system = 'http://unitsofmeasure.org'}</t>
   </si>
   <si>
     <t>&lt; 441742003 |Evaluation finding|</t>
@@ -827,14 +854,11 @@
     <t>For many results it is necessary to handle exceptional values in measurements.</t>
   </si>
   <si>
-    <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
   </si>
   <si>
-    <t xml:space="preserve">obs-6
-</t>
+    <t>obs-6
+us-core-2</t>
   </si>
   <si>
     <t>value.nullFlavor</t>
@@ -1288,6 +1312,9 @@
     <t>Actual component result</t>
   </si>
   <si>
+    <t>The information determined as a result of making the observation, if the information has a simple value.</t>
+  </si>
+  <si>
     <t>Used when observation has a set of component observations. An observation may have both a value (e.g. an  Apgar score)  and component observations (the observations from which the Apgar score was derived). If a value is present, the datatype for this element should be determined by Observation.code. A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
   </si>
   <si>
@@ -1305,6 +1332,13 @@
   <si>
     <t>"Null" or exceptional values can be represented two ways in FHIR Observations.  One way is to simply include them in the value set and represent the exceptions in the value.  For example, measurement values for a serology test could be  "detected", "not detected", "inconclusive", or  "test not done". 
 The alternate way is to use the value element for actual observations and use the explicit dataAbsentReason element to record exceptional values.  For example, the dataAbsentReason code "error" could be used when the measurement was not completed.  Because of these options, use-case agreements are required to interpret general observations for exceptional values.</t>
+  </si>
+  <si>
+    <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obs-6
+</t>
   </si>
   <si>
     <t>Observation.component.interpretation</t>
@@ -1468,7 +1502,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO53"/>
+  <dimension ref="A1:AP54"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1477,47 +1511,48 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="14.19921875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="43.6015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.9921875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="87.79296875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="85.23046875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="63.703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="50.40625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="60.515625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="50.89453125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="26.328125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="247.40625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="107.01953125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="42.34375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="29.328125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="239.703125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="103.87890625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="37.70703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1644,107 +1679,110 @@
       <c r="AO1" t="s" s="1">
         <v>40</v>
       </c>
+      <c r="AP1" t="s" s="1">
+        <v>41</v>
+      </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R2" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S2" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T2" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U2" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V2" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W2" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X2" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y2" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z2" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA2" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB2" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC2" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD2" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE2" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AF2" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG2" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="R2" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S2" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T2" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U2" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V2" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W2" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X2" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y2" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z2" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA2" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB2" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC2" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD2" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE2" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF2" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG2" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="AH2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AK2" t="s" s="2">
         <v>51</v>
@@ -1756,975 +1794,1002 @@
         <v>53</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AP2" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AO3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AP3" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AO4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AP4" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AO5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AP5" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AO6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AP6" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="AO7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AP7" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R8" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AF8" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG8" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="R8" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S8" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AF8" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="AH8" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="AO8" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AP8" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AF9" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG9" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AD9" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG9" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="AH9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AO9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AP9" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R10" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S10" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T10" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U10" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V10" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W10" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X10" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y10" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z10" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA10" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB10" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC10" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD10" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE10" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AF10" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG10" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="R10" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S10" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T10" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U10" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V10" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W10" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X10" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y10" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z10" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA10" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB10" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC10" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD10" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE10" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AF10" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG10" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="AH10" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>114</v>
+        <v>46</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>115</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AP10" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="L11" t="s" s="2">
         <v>119</v>
@@ -2732,83 +2797,86 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AF11" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG11" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="R11" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S11" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T11" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U11" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V11" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W11" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X11" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y11" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG11" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="AH11" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AP11" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="12" hidden="true">
@@ -2821,22 +2889,22 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K12" t="s" s="2">
         <v>122</v>
@@ -2851,83 +2919,86 @@
         <v>125</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE12" t="s" s="2">
         <v>126</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AP12" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="13" hidden="true">
@@ -2936,23 +3007,23 @@
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>128</v>
@@ -2968,83 +3039,86 @@
         <v>131</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE13" t="s" s="2">
         <v>127</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AJ13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="AK13" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AL13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM13" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="AM13" t="s" s="2">
+      <c r="AN13" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="AN13" t="s" s="2">
+      <c r="AO13" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="AO13" t="s" s="2">
-        <v>45</v>
+      <c r="AP13" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="14" hidden="true">
@@ -3057,19 +3131,19 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>138</v>
@@ -3085,83 +3159,86 @@
         <v>141</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE14" t="s" s="2">
         <v>136</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AJ14" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="AK14" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AL14" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM14" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="AM14" t="s" s="2">
+      <c r="AN14" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="AN14" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AO14" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AP14" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="15" hidden="true">
@@ -3174,19 +3251,19 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>147</v>
@@ -3202,111 +3279,114 @@
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE15" t="s" s="2">
         <v>145</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AJ15" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="AK15" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AL15" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM15" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="AM15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="AN15" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AO15" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AP15" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
         <v>154</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K16" t="s" s="2">
         <v>155</v>
@@ -3321,2207 +3401,2264 @@
         <v>158</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W16" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="X16" t="s" s="2">
+      <c r="X16" s="2"/>
+      <c r="Y16" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="Y16" t="s" s="2">
-        <v>161</v>
-      </c>
       <c r="Z16" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE16" t="s" s="2">
         <v>154</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AJ16" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="AK16" t="s" s="2">
+      <c r="AM16" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="AM16" t="s" s="2">
+      <c r="AO16" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="AN16" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>45</v>
+      <c r="AP16" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="N17" t="s" s="2">
-        <v>172</v>
-      </c>
       <c r="O17" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R17" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S17" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T17" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AB17" s="2"/>
+      <c r="AC17" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG17" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="R17" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S17" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T17" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U17" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V17" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="AH17" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>45</v>
+        <v>166</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM17" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AN17" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="AN17" t="s" s="2">
+      <c r="AO17" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="AO17" t="s" s="2">
-        <v>45</v>
+      <c r="AP17" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>178</v>
+        <v>46</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R18" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="S18" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T18" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG18" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="R18" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S18" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T18" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U18" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V18" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W18" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="X18" s="2"/>
-      <c r="Y18" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>55</v>
-      </c>
       <c r="AH18" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>186</v>
+        <v>46</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>187</v>
+        <v>46</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>188</v>
+        <v>46</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>190</v>
+        <v>176</v>
+      </c>
+      <c r="AP18" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>45</v>
+        <v>181</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X19" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="X19" s="2"/>
       <c r="Y19" t="s" s="2">
-        <v>45</v>
+        <v>187</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE19" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AN19" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="AF19" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>200</v>
-      </c>
       <c r="AO19" t="s" s="2">
-        <v>45</v>
+        <v>192</v>
+      </c>
+      <c r="AP19" t="s" s="2">
+        <v>193</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>139</v>
+        <v>196</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="O20" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE20" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM20" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="AF20" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>205</v>
-      </c>
       <c r="AN20" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>45</v>
+        <v>203</v>
+      </c>
+      <c r="AP20" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>207</v>
+        <v>46</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>209</v>
+        <v>139</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG21" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="R21" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S21" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T21" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>55</v>
-      </c>
       <c r="AH21" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>213</v>
+        <v>46</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>214</v>
+        <v>46</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>45</v>
+        <v>203</v>
+      </c>
+      <c r="AP21" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE22" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="AF22" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>226</v>
-      </c>
       <c r="AN22" t="s" s="2">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>45</v>
+        <v>219</v>
+      </c>
+      <c r="AP22" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>45</v>
+        <v>221</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>139</v>
+        <v>223</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="O23" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE23" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AI23" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="AF23" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>67</v>
-      </c>
       <c r="AJ23" t="s" s="2">
-        <v>45</v>
+        <v>220</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>45</v>
+        <v>229</v>
       </c>
       <c r="AL23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM23" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AN23" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AO23" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="AM23" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="AO23" t="s" s="2">
-        <v>45</v>
+      <c r="AP23" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="K24" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="M24" s="2"/>
-      <c r="N24" t="s" s="2">
-        <v>239</v>
-      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>240</v>
+        <v>46</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>241</v>
+        <v>46</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>45</v>
+        <v>239</v>
+      </c>
+      <c r="AP24" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>168</v>
+        <v>241</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>247</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="M25" s="2"/>
       <c r="N25" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG25" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="R25" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S25" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T25" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U25" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V25" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W25" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X25" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>55</v>
-      </c>
       <c r="AH25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM25" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AN25" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AO25" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AP25" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="26" hidden="true">
-      <c r="A26" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>139</v>
+        <v>250</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>183</v>
+        <v>46</v>
       </c>
       <c r="X26" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AM26" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AN26" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="Y26" t="s" s="2">
+      <c r="AO26" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP26" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="Z26" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH26" t="s" s="2">
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO26" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" hidden="true">
-      <c r="A27" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>263</v>
+        <v>46</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K27" t="s" s="2">
         <v>139</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="X27" s="2"/>
       <c r="Y27" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>45</v>
+        <v>265</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>45</v>
+        <v>260</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>269</v>
+        <v>46</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>270</v>
+        <v>46</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>271</v>
+        <v>99</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>45</v>
+        <v>266</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>272</v>
+        <v>46</v>
+      </c>
+      <c r="AP27" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>45</v>
+        <v>268</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>274</v>
+        <v>167</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>275</v>
+        <v>139</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R28" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG28" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="R28" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S28" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T28" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U28" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V28" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W28" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="AH28" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>45</v>
+        <v>276</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AP28" t="s" s="2">
+        <v>277</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>168</v>
+        <v>279</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>139</v>
+        <v>280</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R29" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S29" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG29" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="R29" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S29" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T29" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U29" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V29" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W29" t="s" s="2">
+      <c r="AH29" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="X29" t="s" s="2">
+      <c r="AN29" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="Y29" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AO29" t="s" s="2">
-        <v>290</v>
+        <v>46</v>
+      </c>
+      <c r="AP29" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>139</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>294</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="X30" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AN30" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AO30" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP30" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO30" t="s" s="2">
-        <v>45</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>300</v>
+        <v>167</v>
       </c>
       <c r="K31" t="s" s="2">
         <v>139</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>298</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>299</v>
+      </c>
       <c r="O31" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>45</v>
+        <v>289</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>45</v>
+        <v>300</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>45</v>
+        <v>301</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AN31" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="AL31" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AO31" t="s" s="2">
-        <v>306</v>
+        <v>46</v>
+      </c>
+      <c r="AP31" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>139</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AK32" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AM32" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AN32" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AO32" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP32" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO32" t="s" s="2">
-        <v>314</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>139</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>319</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>320</v>
+        <v>68</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>45</v>
+        <v>318</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AP33" t="s" s="2">
+        <v>319</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>57</v>
+        <v>321</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="N34" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="L34" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG34" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="R34" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S34" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T34" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U34" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V34" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W34" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE34" t="s" s="2">
+      <c r="AH34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="AF34" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM34" t="s" s="2">
+      <c r="AN34" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="AN34" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AO34" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AP34" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="35" hidden="true">
@@ -5530,26 +5667,26 @@
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>121</v>
+        <v>46</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>329</v>
@@ -5557,116 +5694,117 @@
       <c r="L35" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="M35" t="s" s="2">
-        <v>124</v>
-      </c>
+      <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE35" t="s" s="2">
         <v>331</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>327</v>
+        <v>46</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>45</v>
+        <v>332</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AP35" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>333</v>
+        <v>121</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>334</v>
@@ -5677,87 +5815,88 @@
       <c r="M36" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="N36" t="s" s="2">
-        <v>125</v>
-      </c>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R36" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE36" t="s" s="2">
         <v>336</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>45</v>
+        <v>332</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AP36" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="37" hidden="true">
@@ -5766,26 +5905,26 @@
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>45</v>
+        <v>338</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>338</v>
+        <v>101</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>339</v>
@@ -5793,584 +5932,601 @@
       <c r="L37" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
+      <c r="M37" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>125</v>
+      </c>
       <c r="O37" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R37" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG37" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="R37" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S37" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T37" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U37" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V37" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W37" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z37" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>55</v>
-      </c>
       <c r="AH37" t="s" s="2">
-        <v>341</v>
+        <v>46</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>342</v>
+        <v>46</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>343</v>
+        <v>46</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AP37" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R38" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>342</v>
+        <v>46</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>347</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>45</v>
+        <v>348</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AP38" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>168</v>
+        <v>343</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="M39" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="N39" t="s" s="2">
-        <v>352</v>
-      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R39" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>353</v>
+        <v>46</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>354</v>
+        <v>46</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>45</v>
+        <v>346</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>355</v>
+        <v>46</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>356</v>
+        <v>46</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>271</v>
+        <v>347</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>45</v>
+        <v>352</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AP39" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R40" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>284</v>
+        <v>80</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>355</v>
+        <v>46</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>271</v>
+        <v>361</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>45</v>
+        <v>276</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AP40" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="L41" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="M41" s="2"/>
-      <c r="N41" t="s" s="2">
-        <v>368</v>
-      </c>
       <c r="O41" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R41" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG41" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="R41" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S41" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T41" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U41" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V41" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W41" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>55</v>
-      </c>
       <c r="AH41" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>45</v>
+        <v>360</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>45</v>
+        <v>276</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AP41" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>57</v>
+        <v>370</v>
       </c>
       <c r="K42" t="s" s="2">
         <v>371</v>
@@ -6379,113 +6535,118 @@
         <v>372</v>
       </c>
       <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
+      <c r="N42" t="s" s="2">
+        <v>373</v>
+      </c>
       <c r="O42" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R42" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>342</v>
+        <v>46</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>373</v>
+        <v>46</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>45</v>
+        <v>374</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AP42" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>375</v>
+        <v>58</v>
       </c>
       <c r="K43" t="s" s="2">
         <v>376</v>
@@ -6493,205 +6654,209 @@
       <c r="L43" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="M43" t="s" s="2">
-        <v>378</v>
-      </c>
+      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R43" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>379</v>
+        <v>46</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>380</v>
+        <v>347</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>45</v>
+        <v>378</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AP43" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="K44" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG44" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="R44" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S44" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T44" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U44" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V44" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W44" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="AH44" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>379</v>
+        <v>46</v>
       </c>
       <c r="AM44" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AN44" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="AN44" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AO44" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AP44" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="45" hidden="true">
@@ -6700,260 +6865,268 @@
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>316</v>
+        <v>387</v>
       </c>
       <c r="K45" t="s" s="2">
         <v>139</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="N45" t="s" s="2">
         <v>389</v>
       </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R45" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE45" t="s" s="2">
         <v>386</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AL45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AN45" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="AM45" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AO45" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AP45" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>57</v>
+        <v>321</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>324</v>
+        <v>139</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="O46" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R46" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG46" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="R46" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S46" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T46" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U46" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V46" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W46" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>55</v>
-      </c>
       <c r="AH46" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>327</v>
+        <v>395</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>45</v>
+        <v>396</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AP46" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>121</v>
+        <v>46</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="K47" t="s" s="2">
         <v>329</v>
@@ -6961,116 +7134,117 @@
       <c r="L47" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="M47" t="s" s="2">
-        <v>124</v>
-      </c>
+      <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE47" t="s" s="2">
         <v>331</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>327</v>
+        <v>46</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>45</v>
+        <v>332</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AP47" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>333</v>
+        <v>121</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K48" t="s" s="2">
         <v>334</v>
@@ -7081,325 +7255,332 @@
       <c r="M48" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="N48" t="s" s="2">
-        <v>125</v>
-      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R48" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE48" t="s" s="2">
         <v>336</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>45</v>
+        <v>332</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AP48" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>45</v>
+        <v>338</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>168</v>
+        <v>101</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>396</v>
+        <v>339</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>397</v>
+        <v>340</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>398</v>
+        <v>124</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>182</v>
+        <v>125</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R49" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG49" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="R49" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S49" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T49" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U49" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V49" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W49" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="Z49" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>55</v>
-      </c>
       <c r="AH49" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>400</v>
+        <v>46</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>187</v>
+        <v>46</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>188</v>
+        <v>46</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>189</v>
+        <v>99</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AP49" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J50" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="K50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="L50" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>404</v>
-      </c>
       <c r="N50" t="s" s="2">
-        <v>248</v>
+        <v>185</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R50" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>45</v>
+        <v>289</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>45</v>
+        <v>404</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>45</v>
+        <v>187</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AK50" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="AL50" t="s" s="2">
-        <v>251</v>
-      </c>
       <c r="AM50" t="s" s="2">
-        <v>252</v>
+        <v>190</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>45</v>
+        <v>191</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>253</v>
+        <v>192</v>
+      </c>
+      <c r="AP50" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="51" hidden="true">
@@ -7408,359 +7589,490 @@
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>168</v>
+        <v>407</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R51" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>183</v>
+        <v>46</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>258</v>
+        <v>46</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>259</v>
+        <v>46</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE51" t="s" s="2">
         <v>406</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>260</v>
+        <v>46</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>98</v>
+        <v>411</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>45</v>
+        <v>258</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="AP51" t="s" s="2">
+        <v>259</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>263</v>
+        <v>46</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>264</v>
+        <v>414</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>265</v>
+        <v>415</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R52" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>267</v>
+        <v>416</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>45</v>
+        <v>417</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>269</v>
+        <v>46</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>270</v>
+        <v>46</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>271</v>
+        <v>99</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>45</v>
+        <v>266</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>272</v>
+        <v>46</v>
+      </c>
+      <c r="AP52" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>45</v>
+        <v>268</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>45</v>
+        <v>167</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>414</v>
+        <v>269</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>318</v>
+        <v>270</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>319</v>
+        <v>271</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG53" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="R53" t="s" s="2">
+      <c r="AH53" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AO53" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP53" t="s" s="2">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="54" hidden="true">
+      <c r="A54" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="S53" t="s" s="2">
+      <c r="G54" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG54" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="T53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO53" t="s" s="2">
-        <v>45</v>
+      <c r="AH54" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AO54" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP54" t="s" s="2">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO53">
+  <autoFilter ref="A1:AP54">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7770,7 +8082,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI52">
+  <conditionalFormatting sqref="A2:AI53">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-pacio-bfs.xlsx
+++ b/StructureDefinition-pacio-bfs.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AP$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$53</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2070" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1980" uniqueCount="414">
   <si>
     <t>Path</t>
   </si>
@@ -120,9 +120,6 @@
   </si>
   <si>
     <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>Mapping: Argonaut-DQ-DSTU2</t>
   </si>
   <si>
     <t>Mapping: Workflow Pattern</t>
@@ -162,14 +159,14 @@
     <t>Measurements and simple assertions</t>
   </si>
   <si>
-    <t>This profile is  created to meet the 2015 Edition Common Clinical Data Set 'Laboratory test(s) and Laboratory value(s)/result(s)' requirements.</t>
+    <t>Measurements and simple assertions made about a patient, device or other subject.</t>
   </si>
   <si>
     <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as laboratory reports, etc.</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}us-core-2:If there is no component or related element then either a value[x] or a data absent reason must be present {(component.empty() and related.empty()) implies (dataAbsentReason or value)}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -521,7 +518,10 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-status</t>
+    <t>Codes providing the status of an observation.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
   </si>
   <si>
     <t>Event.status</t>
@@ -564,44 +564,26 @@
     <t>http://hl7.org/fhir/ValueSet/observation-category</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:$this}
+    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>Observation.code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name
 </t>
   </si>
   <si>
-    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>Laboratory</t>
-  </si>
-  <si>
-    <t>Classification of  type of observation</t>
-  </si>
-  <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://terminology.hl7.org/CodeSystem/observation-category"/&gt;
-    &lt;code value="laboratory"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
-    <t>Observation.code</t>
-  </si>
-  <si>
-    <t>Name
-Test NameObservation Identifer</t>
-  </si>
-  <si>
     <t>LOINC code and text for the question, if this is from a Post-Acute Care Assessment.</t>
   </si>
   <si>
-    <t>The test that was performed.  A LOINC **SHALL** be used if the concept is present in LOINC.</t>
-  </si>
-  <si>
-    <t>The typical patterns for codes are:  1)  a LOINC code either as a  translation from a "local" code or as a primary code, or 2)  a local code only if no suitable LOINC exists,  or 3)  both the local and the LOINC translation.   Systems SHALL be capable of sending the local code if one exists.  When using LOINC , Use either the SHORTNAME or LONG_COMMON_NAME field for the display.</t>
+    <t>Describes what was observed. Sometimes this is called the observation "name".</t>
+  </si>
+  <si>
+    <t>*All* code-value and, if present, component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
   </si>
   <si>
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
@@ -634,7 +616,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient)
+    <t xml:space="preserve">Reference(Patient|Group|Device|Location)
 </t>
   </si>
   <si>
@@ -727,21 +709,13 @@
     <t>Clinically relevant time/time-period for observation</t>
   </si>
   <si>
-    <t>For lab tests this is the specimen collection date.  For Ask at Order Entry Questions (AOE)'s this is the date the question was asked.</t>
+    <t>The time or time-period the observed value is asserted as being true. For biological subjects - e.g. human patients - this is usually called the "physiologically relevant time". This is usually either the time of the procedure or of specimen collection, but very often the source of the date/time is not known, only the date/time itself.</t>
   </si>
   <si>
     <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](http://hl7.org/fhir/R4/datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.</t>
   </si>
   <si>
     <t>Knowing when an observation was deemed true is important to its relevance as well as determining trends.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">us-core-1
-</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-us-core-1:Datetime must be at least to day. {($this as dateTime).toString().length() &gt;= 8}</t>
   </si>
   <si>
     <t>Event.occurrence[x]</t>
@@ -809,10 +783,10 @@
     <t>Observation.value[x]</t>
   </si>
   <si>
-    <t>Result Value</t>
-  </si>
-  <si>
-    <t>The Laboratory result value.  If a coded value,  the valueCodeableConcept.code **SHOULD**  be selected from [SNOMED CT](http://hl7.org/fhir/ValueSet/uslab-obs-codedresults).  If a numeric value, valueQuantity.code **SHALL** be selected from [UCUM](http://unitsofmeasure.org).  A FHIR [UCUM Codes value set](http://hl7.org/fhir/STU3/valueset-ucum-units.html) that defines all UCUM codes is in the FHIR specification.</t>
+    <t>Actual result</t>
+  </si>
+  <si>
+    <t>The information determined as a result of making the observation, if the information has a simple value.</t>
   </si>
   <si>
     <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
@@ -821,12 +795,8 @@
     <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
   </si>
   <si>
-    <t>obs-7
-us-core-2us-core-3us-core-4</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-us-core-4:SHOULD use Snomed CT for coded Results {valueCodeableConcept.coding.system.empty() or valueCodeableConcept.coding.system = 'http://snomed.info/sct'}us-core-3:SHALL use UCUM for coded quantity units. {valueQuantity.system.empty() or valueQuantity.system = 'http://unitsofmeasure.org'}</t>
+    <t xml:space="preserve">obs-7
+</t>
   </si>
   <si>
     <t>&lt; 441742003 |Evaluation finding|</t>
@@ -854,11 +824,14 @@
     <t>For many results it is necessary to handle exceptional values in measurements.</t>
   </si>
   <si>
+    <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
+  </si>
+  <si>
     <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
   </si>
   <si>
-    <t>obs-6
-us-core-2</t>
+    <t xml:space="preserve">obs-6
+</t>
   </si>
   <si>
     <t>value.nullFlavor</t>
@@ -1312,9 +1285,6 @@
     <t>Actual component result</t>
   </si>
   <si>
-    <t>The information determined as a result of making the observation, if the information has a simple value.</t>
-  </si>
-  <si>
     <t>Used when observation has a set of component observations. An observation may have both a value (e.g. an  Apgar score)  and component observations (the observations from which the Apgar score was derived). If a value is present, the datatype for this element should be determined by Observation.code. A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
   </si>
   <si>
@@ -1332,13 +1302,6 @@
   <si>
     <t>"Null" or exceptional values can be represented two ways in FHIR Observations.  One way is to simply include them in the value set and represent the exceptions in the value.  For example, measurement values for a serology test could be  "detected", "not detected", "inconclusive", or  "test not done". 
 The alternate way is to use the value element for actual observations and use the explicit dataAbsentReason element to record exceptional values.  For example, the dataAbsentReason code "error" could be used when the measurement was not completed.  Because of these options, use-case agreements are required to interpret general observations for exceptional values.</t>
-  </si>
-  <si>
-    <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">obs-6
-</t>
   </si>
   <si>
     <t>Observation.component.interpretation</t>
@@ -1502,7 +1465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP54"/>
+  <dimension ref="A1:AO53"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1544,15 +1507,14 @@
     <col min="31" max="31" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="26.328125" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="29.328125" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="26.71484375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="239.703125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="103.87890625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="37.70703125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="239.703125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="103.87890625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="37.70703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1679,110 +1641,107 @@
       <c r="AO1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="AP1" t="s" s="1">
-        <v>41</v>
-      </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F2" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G2" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K2" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="H2" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="J2" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="K2" t="s" s="2">
+      <c r="L2" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>48</v>
-      </c>
-      <c r="M2" t="s" s="2">
-        <v>49</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AF2" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG2" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG2" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AH2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>50</v>
-      </c>
-      <c r="AJ2" t="s" s="2">
-        <v>42</v>
       </c>
       <c r="AK2" t="s" s="2">
         <v>51</v>
@@ -1794,1319 +1753,1286 @@
         <v>53</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP2" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>58</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>60</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>61</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AO3" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP3" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>64</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>65</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>66</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>67</v>
       </c>
-      <c r="AF4" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>68</v>
-      </c>
       <c r="AJ4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AO4" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>70</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>72</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>73</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AO5" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>78</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="AF6" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AO6" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP6" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>89</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL7" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM7" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="AF7" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM7" t="s" s="2">
-        <v>46</v>
-      </c>
       <c r="AN7" t="s" s="2">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="AO7" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP7" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F8" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE8" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AF8" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG8" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK8" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL8" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM8" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AF8" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL8" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM8" t="s" s="2">
-        <v>46</v>
-      </c>
       <c r="AN8" t="s" s="2">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="AO8" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP8" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F9" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD9" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AE9" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="AE9" t="s" s="2">
+      <c r="AF9" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG9" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI9" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="AF9" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG9" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>107</v>
-      </c>
       <c r="AJ9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AO9" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G10" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="G10" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="H10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="K10" t="s" s="2">
+      <c r="L10" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE10" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AF10" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG10" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH10" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AI10" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="AF10" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG10" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH10" t="s" s="2">
+      <c r="AJ10" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="AI10" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AJ10" t="s" s="2">
-        <v>46</v>
-      </c>
       <c r="AK10" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL10" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="AL10" t="s" s="2">
-        <v>46</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>115</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP10" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F11" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G11" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="K11" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE11" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AF11" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AI11" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="AF11" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG11" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH11" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AI11" t="s" s="2">
-        <v>107</v>
-      </c>
       <c r="AJ11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP11" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F12" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="N12" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="O12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AF12" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG12" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG12" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AH12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP12" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F13" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG13" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG13" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AH13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>46</v>
+        <v>131</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>46</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>133</v>
@@ -3115,370 +3041,360 @@
         <v>134</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AP13" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F14" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AF14" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG14" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG14" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AH14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>46</v>
+        <v>141</v>
       </c>
       <c r="AK14" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>46</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>143</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>144</v>
+        <v>45</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP14" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F15" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AF15" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG15" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG15" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AH15" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>46</v>
+        <v>150</v>
       </c>
       <c r="AK15" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL15" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>46</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>152</v>
       </c>
       <c r="AN15" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO15" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" hidden="true">
+      <c r="A16" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP15" t="s" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="F16" t="s" s="2">
+      <c r="I16" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="G16" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="J16" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="N16" t="s" s="2">
-        <v>158</v>
-      </c>
       <c r="O16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W16" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="X16" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="X16" s="2"/>
       <c r="Y16" t="s" s="2">
         <v>160</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="AP16" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" hidden="true">
@@ -3487,23 +3403,23 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>167</v>
@@ -3521,29 +3437,29 @@
         <v>171</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="X17" t="s" s="2">
         <v>172</v>
@@ -3552,80 +3468,77 @@
         <v>173</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AB17" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="AC17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="AE17" t="s" s="2">
         <v>166</v>
       </c>
       <c r="AF17" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG17" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG17" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AH17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>166</v>
+        <v>45</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>46</v>
+        <v>174</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>175</v>
       </c>
       <c r="AO17" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" hidden="true">
+      <c r="A18" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="AP17" t="s" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="B18" t="s" s="2">
+      <c r="B18" s="2"/>
+      <c r="C18" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="C18" t="s" s="2">
-        <v>46</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="F18" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I18" t="s" s="2">
         <v>56</v>
-      </c>
-      <c r="F18" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G18" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>46</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>167</v>
@@ -3634,1336 +3547,1305 @@
         <v>178</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>179</v>
+        <v>45</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>172</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="X18" s="2"/>
       <c r="Y18" t="s" s="2">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>46</v>
+        <v>185</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>46</v>
+        <v>186</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>46</v>
+        <v>187</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="AP18" t="s" s="2">
-        <v>46</v>
+        <v>189</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>181</v>
+        <v>45</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="F19" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I19" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="F19" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G19" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="J19" t="s" s="2">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="X19" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="Y19" t="s" s="2">
-        <v>187</v>
+        <v>45</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>188</v>
+        <v>45</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="AP19" t="s" s="2">
-        <v>193</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I20" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="F20" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G20" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="J20" t="s" s="2">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>196</v>
+        <v>138</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>199</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="AF20" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG20" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG20" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="AH20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>194</v>
+        <v>45</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>46</v>
+        <v>186</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="AP20" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>46</v>
+        <v>206</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>139</v>
+        <v>208</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="O21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>46</v>
+        <v>212</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>46</v>
+        <v>213</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="AP21" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="F22" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I22" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="G22" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H22" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="J22" t="s" s="2">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>46</v>
+        <v>223</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>216</v>
+        <v>45</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>46</v>
+        <v>224</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="AP22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>221</v>
+        <v>45</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I23" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="F23" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G23" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="J23" t="s" s="2">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>223</v>
+        <v>138</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>226</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>227</v>
+        <v>45</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>228</v>
+        <v>67</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>220</v>
+        <v>45</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>229</v>
+        <v>45</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>46</v>
+        <v>231</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="AP23" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="F24" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F24" t="s" s="2">
+      <c r="G24" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I24" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="G24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="J24" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>139</v>
+        <v>236</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" t="s" s="2">
+        <v>238</v>
+      </c>
       <c r="O24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AF24" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG24" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG24" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="AH24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>46</v>
+        <v>239</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>46</v>
+        <v>240</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="AP24" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I25" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="F25" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="G25" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="J25" t="s" s="2">
-        <v>241</v>
+        <v>167</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="M25" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="N25" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>46</v>
+        <v>248</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>46</v>
+        <v>250</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>247</v>
+        <v>45</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="AP25" t="s" s="2">
-        <v>46</v>
+        <v>252</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>167</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>250</v>
+        <v>138</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>46</v>
+        <v>182</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>46</v>
+        <v>257</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>46</v>
+        <v>258</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>255</v>
+        <v>67</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>249</v>
+        <v>45</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>256</v>
+        <v>98</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>258</v>
+        <v>45</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP26" t="s" s="2">
-        <v>259</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>46</v>
+        <v>262</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F27" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="G27" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>167</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="X27" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="Y27" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AF27" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG27" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG27" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="AH27" t="s" s="2">
-        <v>265</v>
+        <v>45</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>260</v>
+        <v>45</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>46</v>
+        <v>268</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>46</v>
+        <v>269</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>99</v>
+        <v>270</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>266</v>
+        <v>45</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP27" t="s" s="2">
-        <v>46</v>
+        <v>271</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>268</v>
+        <v>45</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F28" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>167</v>
+        <v>273</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>139</v>
+        <v>274</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>186</v>
+        <v>45</v>
       </c>
       <c r="X28" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE28" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="Y28" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>267</v>
-      </c>
       <c r="AF28" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG28" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG28" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AH28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>276</v>
+        <v>45</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP28" t="s" s="2">
-        <v>277</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>279</v>
+        <v>167</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>280</v>
+        <v>138</v>
       </c>
       <c r="L29" t="s" s="2">
         <v>281</v>
@@ -4971,1082 +4853,1051 @@
       <c r="M29" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="N29" t="s" s="2">
-        <v>283</v>
-      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>46</v>
+        <v>283</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>46</v>
+        <v>284</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>46</v>
+        <v>285</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>46</v>
+        <v>286</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>46</v>
+        <v>287</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>285</v>
+        <v>45</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP29" t="s" s="2">
-        <v>46</v>
+        <v>289</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>167</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="O30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="X30" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE30" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="Y30" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>286</v>
-      </c>
       <c r="AF30" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>294</v>
+        <v>45</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP30" t="s" s="2">
-        <v>295</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>167</v>
+        <v>299</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>299</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>289</v>
+        <v>45</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>300</v>
+        <v>45</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>301</v>
+        <v>45</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>46</v>
+        <v>302</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>46</v>
+        <v>303</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>303</v>
+        <v>45</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP31" t="s" s="2">
-        <v>46</v>
+        <v>305</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>46</v>
+        <v>310</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>310</v>
+        <v>45</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP32" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F33" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="G33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>317</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>318</v>
+      </c>
       <c r="O33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="AF33" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG33" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG33" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="AH33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>68</v>
+        <v>319</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>318</v>
+        <v>45</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP33" t="s" s="2">
-        <v>319</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>321</v>
+        <v>57</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>139</v>
+        <v>323</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N34" t="s" s="2">
         <v>324</v>
       </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>325</v>
+        <v>45</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>326</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>327</v>
+        <v>45</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP34" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F35" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="G35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="L35" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="M35" s="2"/>
+      <c r="M35" t="s" s="2">
+        <v>123</v>
+      </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AF35" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG35" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG35" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="AH35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>46</v>
+        <v>326</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>332</v>
+        <v>45</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP35" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>121</v>
+        <v>332</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F36" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="L36" t="s" s="2">
-        <v>335</v>
-      </c>
       <c r="M36" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="N36" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AF36" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG36" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG36" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AH36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>332</v>
+        <v>45</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP36" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>338</v>
+        <v>45</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>101</v>
+        <v>337</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="L37" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>125</v>
-      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="AF37" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>46</v>
-      </c>
       <c r="AM37" t="s" s="2">
-        <v>46</v>
+        <v>342</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP37" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>344</v>
@@ -6057,448 +5908,438 @@
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH38" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="AI38" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>347</v>
-      </c>
       <c r="AN38" t="s" s="2">
-        <v>348</v>
+        <v>45</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP38" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>343</v>
+        <v>167</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>46</v>
+        <v>352</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>46</v>
+        <v>353</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>346</v>
+        <v>45</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>46</v>
+        <v>354</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>46</v>
+        <v>355</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>347</v>
+        <v>270</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>352</v>
+        <v>45</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP39" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F40" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="G40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J40" t="s" s="2">
         <v>167</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>80</v>
+        <v>283</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="AF40" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG40" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG40" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="AH40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>46</v>
+        <v>354</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>361</v>
+        <v>270</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>276</v>
+        <v>45</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP40" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>167</v>
+        <v>364</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>365</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="M41" s="2"/>
       <c r="N41" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>289</v>
+        <v>45</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>367</v>
+        <v>45</v>
       </c>
       <c r="Y41" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM41" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="Z41" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>361</v>
-      </c>
       <c r="AN41" t="s" s="2">
-        <v>276</v>
+        <v>45</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP41" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" hidden="true">
@@ -6507,267 +6348,261 @@
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="L42" t="s" s="2">
-        <v>372</v>
-      </c>
       <c r="M42" s="2"/>
-      <c r="N42" t="s" s="2">
-        <v>373</v>
-      </c>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
         <v>369</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>46</v>
+        <v>341</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>46</v>
+        <v>372</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>374</v>
+        <v>45</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP42" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F43" t="s" s="2">
+      <c r="G43" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I43" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="G43" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>46</v>
-      </c>
       <c r="J43" t="s" s="2">
-        <v>58</v>
+        <v>374</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="AF43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG43" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG43" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="AH43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>46</v>
+        <v>378</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>347</v>
+        <v>379</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>378</v>
+        <v>45</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP43" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F44" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>381</v>
+        <v>138</v>
       </c>
       <c r="L44" t="s" s="2">
         <v>382</v>
@@ -6777,206 +6612,202 @@
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AF44" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG44" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG44" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AH44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>46</v>
+        <v>378</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>384</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>385</v>
+        <v>45</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP44" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F45" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="K45" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="L45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="M45" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AF45" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG45" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG45" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AH45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>46</v>
+        <v>389</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>390</v>
+        <v>45</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP45" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" hidden="true">
@@ -6985,480 +6816,468 @@
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I46" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J46" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="J46" t="s" s="2">
-        <v>321</v>
-      </c>
       <c r="K46" t="s" s="2">
-        <v>139</v>
+        <v>323</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>394</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>391</v>
+        <v>325</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>395</v>
+        <v>326</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>396</v>
+        <v>45</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP46" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F47" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="G47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="L47" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="M47" s="2"/>
+      <c r="M47" t="s" s="2">
+        <v>123</v>
+      </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AF47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG47" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG47" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="AH47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>46</v>
+        <v>326</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>332</v>
+        <v>45</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP47" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>121</v>
+        <v>332</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F48" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="L48" t="s" s="2">
-        <v>335</v>
-      </c>
       <c r="M48" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="N48" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AF48" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG48" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG48" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AH48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>332</v>
+        <v>45</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP48" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>338</v>
+        <v>45</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>101</v>
+        <v>167</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>339</v>
+        <v>395</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>340</v>
+        <v>396</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>124</v>
+        <v>397</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>125</v>
+        <v>181</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>46</v>
+        <v>283</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>46</v>
+        <v>398</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>46</v>
+        <v>183</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>341</v>
+        <v>394</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>46</v>
+        <v>399</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>46</v>
+        <v>186</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>46</v>
+        <v>187</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>99</v>
+        <v>188</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP49" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" hidden="true">
@@ -7467,612 +7286,478 @@
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I50" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="F50" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G50" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="J50" t="s" s="2">
-        <v>167</v>
+        <v>401</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>402</v>
+        <v>245</v>
       </c>
       <c r="M50" t="s" s="2">
         <v>403</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>185</v>
+        <v>247</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>289</v>
+        <v>45</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>404</v>
+        <v>45</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>187</v>
+        <v>45</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
         <v>400</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>46</v>
+        <v>404</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>405</v>
+        <v>250</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>191</v>
+        <v>45</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="AP50" t="s" s="2">
-        <v>46</v>
+        <v>252</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="K51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="L51" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>410</v>
-      </c>
       <c r="N51" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>46</v>
+        <v>182</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>46</v>
+        <v>257</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>46</v>
+        <v>258</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>46</v>
+        <v>259</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>411</v>
+        <v>98</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>258</v>
+        <v>45</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP51" t="s" s="2">
-        <v>259</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>46</v>
+        <v>262</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F52" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="G52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J52" t="s" s="2">
         <v>167</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>414</v>
+        <v>263</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>415</v>
+        <v>264</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>416</v>
+        <v>266</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="AF52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG52" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG52" t="s" s="2">
-        <v>56</v>
-      </c>
       <c r="AH52" t="s" s="2">
-        <v>417</v>
+        <v>45</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>46</v>
+        <v>268</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>46</v>
+        <v>269</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>99</v>
+        <v>270</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>266</v>
+        <v>45</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP52" t="s" s="2">
-        <v>46</v>
+        <v>271</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>268</v>
+        <v>45</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="F53" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="G53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>167</v>
+        <v>45</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>269</v>
+        <v>413</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>270</v>
+        <v>317</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>271</v>
+        <v>318</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>186</v>
+        <v>45</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>272</v>
+        <v>45</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>273</v>
+        <v>45</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="AF53" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG53" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AG53" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AH53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>274</v>
+        <v>320</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>275</v>
+        <v>321</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>276</v>
+        <v>45</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP53" t="s" s="2">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="54" hidden="true">
-      <c r="A54" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="B54" s="2"/>
-      <c r="C54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="D54" s="2"/>
-      <c r="E54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="F54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="P54" s="2"/>
-      <c r="Q54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="R54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP54" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP54">
+  <autoFilter ref="A1:AO53">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8082,7 +7767,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI53">
+  <conditionalFormatting sqref="A2:AI52">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-pacio-bfs.xlsx
+++ b/StructureDefinition-pacio-bfs.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1980" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1980" uniqueCount="415">
   <si>
     <t>Path</t>
   </si>
@@ -384,7 +384,7 @@
     <t>device-use</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://paciowg.github.io/functional-status-ig//StructureDefinition/device-patient-used}
+    <t xml:space="preserve">Extension {http://paciowg.github.io/functional-status-ig/StructureDefinition/device-patient-used}
 </t>
   </si>
   <si>
@@ -616,7 +616,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Group|Device|Location)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient)
 </t>
   </si>
   <si>
@@ -667,7 +667,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter)
 </t>
   </si>
   <si>
@@ -755,11 +755,11 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner|http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitionerrole|http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization)
 </t>
   </si>
   <si>
-    <t>The person who performed the assessment. Also provide the role and organizationif available.</t>
+    <t>The person who performed the assessment. Also provide the role and organization if available.</t>
   </si>
   <si>
     <t>Who was responsible for asserting the observed value as "true".</t>
@@ -1218,6 +1218,9 @@
   <si>
     <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|Observation|MolecularSequence)
 </t>
+  </si>
+  <si>
+    <t>Link to the PAC assessment related to this bundle.</t>
   </si>
   <si>
     <t>The target resource that represents a measurement from which this observation value is derived. For example, a calculated anion gap or a fetal measurement based on an ultrasound image.</t>
@@ -1474,47 +1477,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="43.6015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.9921875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="14.19921875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="85.23046875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="88.37890625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="60.515625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="50.89453125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="63.703125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="50.40625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="239.703125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="247.40625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="103.87890625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="37.70703125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="107.01953125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="42.34375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6602,13 +6605,13 @@
         <v>381</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>138</v>
+        <v>382</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6682,7 +6685,7 @@
         <v>378</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>45</v>
@@ -6693,7 +6696,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6722,13 +6725,13 @@
         <v>138</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>45</v>
@@ -6777,7 +6780,7 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
@@ -6798,10 +6801,10 @@
         <v>45</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
@@ -6812,7 +6815,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6927,7 +6930,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7044,7 +7047,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7163,7 +7166,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7189,13 +7192,13 @@
         <v>167</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N49" t="s" s="2">
         <v>181</v>
@@ -7226,7 +7229,7 @@
         <v>283</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Y49" t="s" s="2">
         <v>183</v>
@@ -7247,7 +7250,7 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>55</v>
@@ -7265,7 +7268,7 @@
         <v>45</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>186</v>
@@ -7282,7 +7285,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7305,16 +7308,16 @@
         <v>56</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L50" t="s" s="2">
         <v>245</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="N50" t="s" s="2">
         <v>247</v>
@@ -7366,7 +7369,7 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
@@ -7384,7 +7387,7 @@
         <v>45</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>250</v>
@@ -7401,7 +7404,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7427,13 +7430,13 @@
         <v>167</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="N51" t="s" s="2">
         <v>256</v>
@@ -7485,7 +7488,7 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
@@ -7520,7 +7523,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7546,7 +7549,7 @@
         <v>167</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L52" t="s" s="2">
         <v>263</v>
@@ -7604,7 +7607,7 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
@@ -7639,7 +7642,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7665,10 +7668,10 @@
         <v>45</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M53" t="s" s="2">
         <v>317</v>
@@ -7723,7 +7726,7 @@
         <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
